--- a/2022/FSARanking2022.xlsx
+++ b/2022/FSARanking2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC215B8-A6ED-4868-BF1E-7C0A4410D353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F544EE81-28AB-423F-9174-B15314C87877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1275" windowWidth="19470" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="1080" windowWidth="16380" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5529" uniqueCount="482">
   <si>
     <t>Ranking</t>
   </si>
@@ -1477,6 +1477,21 @@
   <si>
     <t>AFC 2</t>
   </si>
+  <si>
+    <t>Reynolds</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>Ramage</t>
+  </si>
+  <si>
+    <t>Benita</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
 </sst>
 </file>
 
@@ -1827,8 +1842,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q617" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:Q617" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q715" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:Q715" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q289">
     <sortCondition ref="E2:E289"/>
     <sortCondition ref="H2:H289"/>
@@ -1896,10 +1911,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H255" totalsRowShown="0">
-  <autoFilter ref="A1:H255" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H255">
-    <sortCondition ref="A1:A255"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H257" totalsRowShown="0">
+  <autoFilter ref="A1:H257" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H257">
+    <sortCondition ref="A1:A257"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{32B20E36-9F3E-43E1-A2FD-352266F3A662}" name="LastName"/>
@@ -2255,11 +2270,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q617"/>
+  <dimension ref="A1:Q715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A565" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D593" sqref="D593"/>
+      <pane ySplit="1" topLeftCell="A607" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D630" sqref="D630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6527,7 +6542,7 @@
       </c>
       <c r="M70" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N70" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -6588,7 +6603,7 @@
       </c>
       <c r="M71" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N71" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -6832,7 +6847,7 @@
       </c>
       <c r="M75" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N75" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -6893,7 +6908,7 @@
       </c>
       <c r="M76" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N76" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -6954,7 +6969,7 @@
       </c>
       <c r="M77" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N77" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7076,7 +7091,7 @@
       </c>
       <c r="M79" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N79" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7198,7 +7213,7 @@
       </c>
       <c r="M81" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N81" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7503,7 +7518,7 @@
       </c>
       <c r="M86" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N86" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7625,7 +7640,7 @@
       </c>
       <c r="M88" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N88" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7869,7 +7884,7 @@
       </c>
       <c r="M92" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N92" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7930,7 +7945,7 @@
       </c>
       <c r="M93" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N93" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7991,7 +8006,7 @@
       </c>
       <c r="M94" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N94" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8296,7 +8311,7 @@
       </c>
       <c r="M99" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N99" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8479,7 +8494,7 @@
       </c>
       <c r="M102" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N102" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8900,7 +8915,7 @@
       </c>
       <c r="M109" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N109" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9080,7 +9095,7 @@
       </c>
       <c r="M112" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N112" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9200,7 +9215,7 @@
       </c>
       <c r="M114" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N114" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9320,7 +9335,7 @@
       </c>
       <c r="M116" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N116" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9500,7 +9515,7 @@
       </c>
       <c r="M119" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9680,7 +9695,7 @@
       </c>
       <c r="M122" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N122" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9740,7 +9755,7 @@
       </c>
       <c r="M123" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N123" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9800,7 +9815,7 @@
       </c>
       <c r="M124" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N124" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9860,7 +9875,7 @@
       </c>
       <c r="M125" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N125" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -10280,7 +10295,7 @@
       </c>
       <c r="M132" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -10520,7 +10535,7 @@
       </c>
       <c r="M136" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N136" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -10580,11 +10595,11 @@
       </c>
       <c r="M137" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N137" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137" s="16">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L137=0,VLOOKUP(C137,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C137,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -10596,7 +10611,7 @@
       </c>
       <c r="Q137" s="17">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
@@ -10640,7 +10655,7 @@
       </c>
       <c r="M138" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N138" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13564,7 +13579,7 @@
       </c>
       <c r="M186" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N186" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13686,7 +13701,7 @@
       </c>
       <c r="M188" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N188" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13747,7 +13762,7 @@
       </c>
       <c r="M189" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N189" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13808,7 +13823,7 @@
       </c>
       <c r="M190" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N190" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13930,7 +13945,7 @@
       </c>
       <c r="M192" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N192" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13991,7 +14006,7 @@
       </c>
       <c r="M193" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N193" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14235,7 +14250,7 @@
       </c>
       <c r="M197" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N197" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14540,7 +14555,7 @@
       </c>
       <c r="M202" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N202" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14662,7 +14677,7 @@
       </c>
       <c r="M204" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N204" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14845,7 +14860,7 @@
       </c>
       <c r="M207" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N207" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14906,7 +14921,7 @@
       </c>
       <c r="M208" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N208" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14967,7 +14982,7 @@
       </c>
       <c r="M209" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N209" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -15028,7 +15043,7 @@
       </c>
       <c r="M210" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N210" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -15150,7 +15165,7 @@
       </c>
       <c r="M212" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N212" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -15211,7 +15226,7 @@
       </c>
       <c r="M213" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N213" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19114,7 +19129,7 @@
       </c>
       <c r="M277" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N277" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19174,7 +19189,7 @@
       </c>
       <c r="M278" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N278" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19233,7 +19248,7 @@
       </c>
       <c r="M279" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N279" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19468,7 +19483,7 @@
       </c>
       <c r="M283" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N283" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19527,7 +19542,7 @@
       </c>
       <c r="M284" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N284" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19646,7 +19661,7 @@
       </c>
       <c r="M286" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N286" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19766,7 +19781,7 @@
       </c>
       <c r="M288" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N288" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19886,7 +19901,7 @@
       </c>
       <c r="M290" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N290" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -20184,7 +20199,7 @@
       </c>
       <c r="M295" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N295" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -20714,7 +20729,7 @@
       </c>
       <c r="M304" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N304" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -20773,7 +20788,7 @@
       </c>
       <c r="M305" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N305" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -20832,7 +20847,7 @@
       </c>
       <c r="M306" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N306" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21125,7 +21140,7 @@
       </c>
       <c r="M311" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N311" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21243,7 +21258,7 @@
       </c>
       <c r="M313" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N313" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21302,7 +21317,7 @@
       </c>
       <c r="M314" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N314" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21361,7 +21376,7 @@
       </c>
       <c r="M315" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N315" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21420,7 +21435,7 @@
       </c>
       <c r="M316" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N316" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21537,7 +21552,7 @@
       </c>
       <c r="M318" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N318" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21597,7 +21612,7 @@
       </c>
       <c r="M319" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N319" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21777,7 +21792,7 @@
       </c>
       <c r="M322" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N322" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27583,7 +27598,7 @@
       </c>
       <c r="M419" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N419" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27642,7 +27657,7 @@
       </c>
       <c r="M420" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N420" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27701,7 +27716,7 @@
       </c>
       <c r="M421" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N421" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27761,7 +27776,7 @@
       </c>
       <c r="M422" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N422" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27821,7 +27836,7 @@
       </c>
       <c r="M423" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N423" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27881,7 +27896,7 @@
       </c>
       <c r="M424" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N424" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28061,7 +28076,7 @@
       </c>
       <c r="M427" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N427" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28121,7 +28136,7 @@
       </c>
       <c r="M428" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N428" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28181,7 +28196,7 @@
       </c>
       <c r="M429" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N429" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28301,7 +28316,7 @@
       </c>
       <c r="M431" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N431" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28481,7 +28496,7 @@
       </c>
       <c r="M434" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N434" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28541,7 +28556,7 @@
       </c>
       <c r="M435" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N435" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28661,7 +28676,7 @@
       </c>
       <c r="M437" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N437" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28721,7 +28736,7 @@
       </c>
       <c r="M438" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N438" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28781,7 +28796,7 @@
       </c>
       <c r="M439" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N439" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28901,7 +28916,7 @@
       </c>
       <c r="M441" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N441" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29020,7 +29035,7 @@
       </c>
       <c r="M443" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N443" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29138,7 +29153,7 @@
       </c>
       <c r="M445" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N445" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29197,7 +29212,7 @@
       </c>
       <c r="M446" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N446" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29437,7 +29452,7 @@
       </c>
       <c r="M450" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N450" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29557,7 +29572,7 @@
       </c>
       <c r="M452" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N452" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29617,7 +29632,7 @@
       </c>
       <c r="M453" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N453" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29677,7 +29692,7 @@
       </c>
       <c r="M454" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N454" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29737,7 +29752,7 @@
       </c>
       <c r="M455" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N455" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29857,7 +29872,7 @@
       </c>
       <c r="M457" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N457" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29917,7 +29932,7 @@
       </c>
       <c r="M458" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N458" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29977,7 +29992,7 @@
       </c>
       <c r="M459" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N459" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30097,7 +30112,7 @@
       </c>
       <c r="M461" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N461" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30157,7 +30172,7 @@
       </c>
       <c r="M462" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N462" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30277,7 +30292,7 @@
       </c>
       <c r="M464" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N464" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30337,7 +30352,7 @@
       </c>
       <c r="M465" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N465" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30397,7 +30412,7 @@
       </c>
       <c r="M466" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N466" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30517,7 +30532,7 @@
       </c>
       <c r="M468" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N468" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30577,7 +30592,7 @@
       </c>
       <c r="M469" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N469" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30637,7 +30652,7 @@
       </c>
       <c r="M470" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N470" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30817,7 +30832,7 @@
       </c>
       <c r="M473" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N473" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30937,7 +30952,7 @@
       </c>
       <c r="M475" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N475" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30997,7 +31012,7 @@
       </c>
       <c r="M476" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N476" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31057,7 +31072,7 @@
       </c>
       <c r="M477" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N477" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31177,7 +31192,7 @@
       </c>
       <c r="M479" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N479" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31297,7 +31312,7 @@
       </c>
       <c r="M481" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N481" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31357,7 +31372,7 @@
       </c>
       <c r="M482" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N482" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31477,7 +31492,7 @@
       </c>
       <c r="M484" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N484" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31537,7 +31552,7 @@
       </c>
       <c r="M485" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N485" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31597,7 +31612,7 @@
       </c>
       <c r="M486" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N486" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31715,7 +31730,7 @@
       </c>
       <c r="M488" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N488" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31774,7 +31789,7 @@
       </c>
       <c r="M489" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N489" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31833,7 +31848,7 @@
       </c>
       <c r="M490" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N490" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31892,7 +31907,7 @@
       </c>
       <c r="M491" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N491" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32010,7 +32025,7 @@
       </c>
       <c r="M493" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N493" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32128,7 +32143,7 @@
       </c>
       <c r="M495" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N495" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32246,7 +32261,7 @@
       </c>
       <c r="M497" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N497" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32305,7 +32320,7 @@
       </c>
       <c r="M498" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N498" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32364,7 +32379,7 @@
       </c>
       <c r="M499" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N499" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36743,7 +36758,7 @@
       </c>
       <c r="M572" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N572" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36802,7 +36817,7 @@
       </c>
       <c r="M573" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N573" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36920,7 +36935,7 @@
       </c>
       <c r="M575" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N575" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -37038,7 +37053,7 @@
       </c>
       <c r="M577" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N577" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -37097,7 +37112,7 @@
       </c>
       <c r="M578" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N578" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -37215,7 +37230,7 @@
       </c>
       <c r="M580" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N580" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -37392,7 +37407,7 @@
       </c>
       <c r="M583" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N583" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -37451,7 +37466,7 @@
       </c>
       <c r="M584" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N584" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -37510,7 +37525,7 @@
       </c>
       <c r="M585" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N585" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -37569,11 +37584,11 @@
       </c>
       <c r="M586" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N586" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O586" s="16">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L586=0,VLOOKUP(C586,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C586,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -37585,7 +37600,7 @@
       </c>
       <c r="Q586" s="17">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="587" spans="1:17" x14ac:dyDescent="0.25">
@@ -37687,7 +37702,7 @@
       </c>
       <c r="M588" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N588" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -37766,981 +37781,5411 @@
       </c>
     </row>
     <row r="590" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A590" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B590" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C590" s="3">
+        <v>1</v>
+      </c>
       <c r="D590" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E590" s="30"/>
-      <c r="F590" s="31"/>
-      <c r="G590" s="10"/>
-      <c r="J590" s="13"/>
-      <c r="K590" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L590" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="E590" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F590" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G590" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H590" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I590" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J590" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K590" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L590" s="24">
+        <v>1</v>
+      </c>
       <c r="M590" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N590" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
-      <c r="O590" s="16" t="e">
+      <c r="O590" s="16">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L590=0,VLOOKUP(C590,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C590,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P590" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q590" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="591" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A591" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B591" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C591" s="3">
+        <v>2</v>
+      </c>
+      <c r="D591" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E591" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F591" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G591" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H591" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I591" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J591" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K591" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L591" s="24">
+        <v>1</v>
+      </c>
+      <c r="M591" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N591" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O591" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L591=0,VLOOKUP(C591,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C591,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P591" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q591" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="592" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A592" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B592" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C592" s="3">
+        <v>3</v>
+      </c>
+      <c r="D592" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E592" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F592" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G592" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H592" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I592" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J592" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K592" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L592" s="24">
+        <v>1</v>
+      </c>
+      <c r="M592" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N592" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O592" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L592=0,VLOOKUP(C592,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C592,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P592" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q592" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="593" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A593" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B593" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C593" s="3">
+        <v>3</v>
+      </c>
+      <c r="D593" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E593" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F593" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G593" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H593" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I593" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J593" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K593" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L593" s="24">
+        <v>1</v>
+      </c>
+      <c r="M593" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N593" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O593" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L593=0,VLOOKUP(C593,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C593,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P593" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q593" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="594" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A594" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B594" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C594" s="3">
+        <v>5</v>
+      </c>
+      <c r="D594" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E594" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F594" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G594" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H594" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I594" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J594" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K594" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>VIC</v>
+      </c>
+      <c r="L594" s="24">
+        <v>1</v>
+      </c>
+      <c r="M594" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N594" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O594" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L594=0,VLOOKUP(C594,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C594,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P594" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q594" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="595" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A595" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B595" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C595" s="3">
+        <v>6</v>
+      </c>
+      <c r="D595" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E595" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F595" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G595" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H595" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I595" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J595" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K595" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>TPFC</v>
+      </c>
+      <c r="L595" s="24">
+        <v>1</v>
+      </c>
+      <c r="M595" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N595" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O595" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L595=0,VLOOKUP(C595,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C595,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P595" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q595" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="596" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A596" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B596" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C596" s="3">
+        <v>7</v>
+      </c>
+      <c r="D596" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E596" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F596" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G596" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H596" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I596" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J596" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K596" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L596" s="24">
+        <v>1</v>
+      </c>
+      <c r="M596" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N596" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O596" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L596=0,VLOOKUP(C596,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C596,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P596" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q596" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="597" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A597" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B597" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C597" s="3">
+        <v>8</v>
+      </c>
+      <c r="D597" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E597" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F597" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G597" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H597" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I597" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J597" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K597" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L597" s="24">
+        <v>1</v>
+      </c>
+      <c r="M597" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N597" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O597" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L597=0,VLOOKUP(C597,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C597,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P597" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q597" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="598" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A598" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B598" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C598" s="3">
+        <v>9</v>
+      </c>
+      <c r="D598" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E598" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F598" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G598" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H598" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I598" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J598" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K598" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L598" s="24">
+        <v>1</v>
+      </c>
+      <c r="M598" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N598" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O598" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L598=0,VLOOKUP(C598,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C598,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P598" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q598" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A599" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B599" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C599" s="3">
+        <v>10</v>
+      </c>
+      <c r="D599" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E599" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F599" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G599" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H599" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I599" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J599" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K599" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L599" s="24">
+        <v>1</v>
+      </c>
+      <c r="M599" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N599" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O599" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L599=0,VLOOKUP(C599,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C599,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P599" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q599" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A600" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B600" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C600" s="3">
+        <v>1</v>
+      </c>
+      <c r="D600" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E600" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F600" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G600" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H600" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I600" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J600" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K600" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L600" s="24">
+        <v>1</v>
+      </c>
+      <c r="M600" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N600" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O600" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L600=0,VLOOKUP(C600,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C600,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P600" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q600" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="601" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A601" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B601" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C601" s="3">
+        <v>2</v>
+      </c>
+      <c r="D601" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E601" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F601" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G601" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H601" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I601" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J601" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K601" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L601" s="24">
+        <v>1</v>
+      </c>
+      <c r="M601" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N601" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O601" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L601=0,VLOOKUP(C601,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C601,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P601" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q601" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="602" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A602" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B602" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C602" s="3">
+        <v>3</v>
+      </c>
+      <c r="D602" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E602" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F602" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G602" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H602" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I602" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J602" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K602" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L602" s="24">
+        <v>1</v>
+      </c>
+      <c r="M602" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N602" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O602" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L602=0,VLOOKUP(C602,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C602,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P602" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q602" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A603" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B603" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C603" s="3">
+        <v>3</v>
+      </c>
+      <c r="D603" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E603" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F603" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G603" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H603" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I603" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J603" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K603" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>NSW</v>
+      </c>
+      <c r="L603" s="24">
+        <v>1</v>
+      </c>
+      <c r="M603" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N603" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O603" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L603=0,VLOOKUP(C603,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C603,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P603" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q603" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="604" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A604" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B604" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C604" s="3">
+        <v>5</v>
+      </c>
+      <c r="D604" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E604" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F604" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G604" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H604" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I604" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J604" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K604" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L604" s="24">
+        <v>1</v>
+      </c>
+      <c r="M604" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N604" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O604" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L604=0,VLOOKUP(C604,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C604,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P604" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q604" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="605" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A605" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B605" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C605" s="3">
+        <v>6</v>
+      </c>
+      <c r="D605" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E605" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F605" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G605" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H605" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I605" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J605" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K605" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L605" s="24">
+        <v>1</v>
+      </c>
+      <c r="M605" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N605" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O605" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L605=0,VLOOKUP(C605,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C605,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P605" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q605" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="606" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A606" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B606" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C606" s="3">
+        <v>1</v>
+      </c>
+      <c r="D606" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E606" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F606" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G606" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H606" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I606" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J606" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K606" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L606" s="24">
+        <v>1</v>
+      </c>
+      <c r="M606" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N606" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O606" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L606=0,VLOOKUP(C606,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C606,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P606" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q606" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="607" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A607" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B607" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C607" s="3">
+        <v>2</v>
+      </c>
+      <c r="D607" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E607" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F607" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G607" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H607" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I607" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J607" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K607" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L607" s="24">
+        <v>1</v>
+      </c>
+      <c r="M607" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N607" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O607" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L607=0,VLOOKUP(C607,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C607,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P607" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q607" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="608" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A608" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B608" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C608" s="3">
+        <v>3</v>
+      </c>
+      <c r="D608" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E608" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F608" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G608" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H608" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I608" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J608" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K608" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L608" s="24">
+        <v>1</v>
+      </c>
+      <c r="M608" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N608" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O608" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L608=0,VLOOKUP(C608,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C608,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P608" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q608" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A609" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B609" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C609" s="3">
+        <v>3</v>
+      </c>
+      <c r="D609" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E609" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F609" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G609" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H609" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I609" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J609" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K609" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L609" s="24">
+        <v>1</v>
+      </c>
+      <c r="M609" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N609" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O609" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L609=0,VLOOKUP(C609,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C609,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P609" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q609" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A610" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B610" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C610" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D610" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>1</v>
+      </c>
+      <c r="E610" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F610" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G610" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H610" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I610" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J610" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K610" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L610" s="24">
+        <v>0</v>
+      </c>
+      <c r="M610" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N610" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O610" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L610=0,VLOOKUP(C610,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C610,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="P610" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q610" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A611" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B611" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C611" s="3">
+        <v>1</v>
+      </c>
+      <c r="D611" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E611" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F611" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G611" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H611" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I611" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J611" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K611" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L611" s="24">
+        <v>1</v>
+      </c>
+      <c r="M611" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N611" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O611" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L611=0,VLOOKUP(C611,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C611,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P611" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q611" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A612" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B612" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C612" s="3">
+        <v>2</v>
+      </c>
+      <c r="D612" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E612" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F612" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G612" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H612" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I612" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J612" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K612" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AUFeC</v>
+      </c>
+      <c r="L612" s="24">
+        <v>1</v>
+      </c>
+      <c r="M612" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N612" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O612" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L612=0,VLOOKUP(C612,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C612,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P612" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q612" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A613" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B613" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C613" s="3">
+        <v>3</v>
+      </c>
+      <c r="D613" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E613" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F613" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G613" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H613" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I613" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J613" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K613" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L613" s="24">
+        <v>1</v>
+      </c>
+      <c r="M613" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N613" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O613" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L613=0,VLOOKUP(C613,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C613,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P613" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q613" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A614" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B614" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C614" s="3">
+        <v>3</v>
+      </c>
+      <c r="D614" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E614" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F614" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G614" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H614" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I614" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J614" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K614" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L614" s="24">
+        <v>1</v>
+      </c>
+      <c r="M614" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N614" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O614" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L614=0,VLOOKUP(C614,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C614,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P614" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q614" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="615" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A615" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B615" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C615" s="3">
+        <v>5</v>
+      </c>
+      <c r="D615" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E615" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F615" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G615" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H615" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I615" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J615" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K615" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L615" s="24">
+        <v>1</v>
+      </c>
+      <c r="M615" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N615" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O615" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L615=0,VLOOKUP(C615,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C615,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P615" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q615" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="616" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A616" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B616" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C616" s="3">
+        <v>6</v>
+      </c>
+      <c r="D616" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E616" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F616" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G616" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H616" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I616" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J616" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K616" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>NSW</v>
+      </c>
+      <c r="L616" s="24">
+        <v>1</v>
+      </c>
+      <c r="M616" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N616" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O616" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L616=0,VLOOKUP(C616,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C616,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P616" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q616" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="617" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A617" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B617" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C617" s="3">
+        <v>1</v>
+      </c>
+      <c r="D617" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E617" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F617" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G617" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H617" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I617" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J617" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K617" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L617" s="24">
+        <v>1</v>
+      </c>
+      <c r="M617" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N617" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O617" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L617=0,VLOOKUP(C617,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C617,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P617" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q617" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="618" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A618" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B618" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C618" s="3">
+        <v>2</v>
+      </c>
+      <c r="D618" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E618" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F618" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G618" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H618" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I618" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J618" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K618" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L618" s="24">
+        <v>1</v>
+      </c>
+      <c r="M618" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N618" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O618" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L618=0,VLOOKUP(C618,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C618,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P618" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q618" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="619" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A619" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B619" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C619" s="3">
+        <v>3</v>
+      </c>
+      <c r="D619" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E619" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F619" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G619" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H619" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I619" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J619" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K619" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L619" s="24">
+        <v>1</v>
+      </c>
+      <c r="M619" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N619" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O619" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L619=0,VLOOKUP(C619,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C619,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P619" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q619" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="620" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A620" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B620" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C620" s="3">
+        <v>3</v>
+      </c>
+      <c r="D620" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E620" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F620" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G620" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H620" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I620" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J620" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K620" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>VIC</v>
+      </c>
+      <c r="L620" s="24">
+        <v>1</v>
+      </c>
+      <c r="M620" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N620" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O620" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L620=0,VLOOKUP(C620,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C620,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P620" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q620" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="621" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A621" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B621" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C621" s="3">
+        <v>5</v>
+      </c>
+      <c r="D621" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E621" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F621" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G621" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H621" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I621" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J621" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K621" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L621" s="24">
+        <v>1</v>
+      </c>
+      <c r="M621" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N621" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O621" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L621=0,VLOOKUP(C621,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C621,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P621" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q621" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="622" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A622" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B622" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C622" s="3">
+        <v>1</v>
+      </c>
+      <c r="D622" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E622" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F622" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G622" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H622" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I622" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J622" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K622" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L622" s="24">
+        <v>0</v>
+      </c>
+      <c r="M622" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N622" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O622" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L622=0,VLOOKUP(C622,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C622,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P622" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q622" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="623" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A623" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B623" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C623" s="3">
+        <v>2</v>
+      </c>
+      <c r="D623" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E623" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F623" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G623" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H623" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I623" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J623" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K623" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L623" s="24">
+        <v>0</v>
+      </c>
+      <c r="M623" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N623" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O623" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L623=0,VLOOKUP(C623,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C623,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P623" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q623" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="624" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A624" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B624" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C624" s="3">
+        <v>3</v>
+      </c>
+      <c r="D624" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E624" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F624" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G624" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H624" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I624" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J624" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K624" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L624" s="24">
+        <v>0</v>
+      </c>
+      <c r="M624" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N624" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O624" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L624=0,VLOOKUP(C624,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C624,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P624" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q624" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="625" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A625" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B625" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C625" s="3">
+        <v>1</v>
+      </c>
+      <c r="D625" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E625" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F625" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G625" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H625" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I625" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J625" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K625" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L625" s="24">
+        <v>0</v>
+      </c>
+      <c r="M625" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N625" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O625" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L625=0,VLOOKUP(C625,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C625,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P625" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q625" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="626" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A626" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B626" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C626" s="3">
+        <v>2</v>
+      </c>
+      <c r="D626" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E626" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F626" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G626" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H626" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I626" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J626" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K626" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L626" s="24">
+        <v>0</v>
+      </c>
+      <c r="M626" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N626" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O626" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L626=0,VLOOKUP(C626,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C626,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P626" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q626" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="627" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A627" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B627" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C627" s="3">
+        <v>3</v>
+      </c>
+      <c r="D627" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E627" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F627" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G627" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H627" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I627" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J627" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K627" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L627" s="24">
+        <v>0</v>
+      </c>
+      <c r="M627" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N627" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O627" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L627=0,VLOOKUP(C627,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C627,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P627" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q627" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="628" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A628" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B628" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C628" s="3">
+        <v>3</v>
+      </c>
+      <c r="D628" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E628" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F628" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G628" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H628" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I628" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J628" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K628" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>NSW</v>
+      </c>
+      <c r="L628" s="24">
+        <v>0</v>
+      </c>
+      <c r="M628" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N628" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O628" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L628=0,VLOOKUP(C628,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C628,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P628" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q628" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="629" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A629" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B629" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C629" s="3">
+        <v>5</v>
+      </c>
+      <c r="D629" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E629" s="30">
+        <v>44696</v>
+      </c>
+      <c r="F629" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G629" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H629" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I629" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J629" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K629" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L629" s="24">
+        <v>0</v>
+      </c>
+      <c r="M629" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N629" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O629" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L629=0,VLOOKUP(C629,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C629,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P629" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q629" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="630" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D630" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E630" s="30"/>
+      <c r="F630" s="31"/>
+      <c r="G630" s="10"/>
+      <c r="J630" s="13"/>
+      <c r="K630" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L630" s="24"/>
+      <c r="M630" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N630" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O630" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L630=0,VLOOKUP(C630,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C630,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P590" s="16" t="e">
+      <c r="P630" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q590" s="17" t="e">
+      <c r="Q630" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="591" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D591" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E591" s="30"/>
-      <c r="F591" s="31"/>
-      <c r="G591" s="10"/>
-      <c r="J591" s="13"/>
-      <c r="K591" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L591" s="24"/>
-      <c r="M591" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N591" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O591" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L591=0,VLOOKUP(C591,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C591,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="631" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D631" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E631" s="30"/>
+      <c r="F631" s="31"/>
+      <c r="G631" s="10"/>
+      <c r="J631" s="13"/>
+      <c r="K631" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L631" s="24"/>
+      <c r="M631" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N631" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O631" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L631=0,VLOOKUP(C631,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C631,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P591" s="16" t="e">
+      <c r="P631" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q591" s="17" t="e">
+      <c r="Q631" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D592" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E592" s="30"/>
-      <c r="F592" s="31"/>
-      <c r="G592" s="10"/>
-      <c r="J592" s="13"/>
-      <c r="K592" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L592" s="24"/>
-      <c r="M592" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N592" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O592" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L592=0,VLOOKUP(C592,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C592,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="632" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D632" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E632" s="30"/>
+      <c r="F632" s="31"/>
+      <c r="G632" s="10"/>
+      <c r="J632" s="13"/>
+      <c r="K632" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L632" s="24"/>
+      <c r="M632" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N632" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O632" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L632=0,VLOOKUP(C632,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C632,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P592" s="16" t="e">
+      <c r="P632" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q592" s="17" t="e">
+      <c r="Q632" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="593" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D593" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E593" s="30"/>
-      <c r="F593" s="31"/>
-      <c r="G593" s="10"/>
-      <c r="J593" s="13"/>
-      <c r="K593" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L593" s="24"/>
-      <c r="M593" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N593" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O593" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L593=0,VLOOKUP(C593,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C593,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="633" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D633" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E633" s="30"/>
+      <c r="F633" s="31"/>
+      <c r="G633" s="10"/>
+      <c r="J633" s="13"/>
+      <c r="K633" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L633" s="24"/>
+      <c r="M633" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N633" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O633" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L633=0,VLOOKUP(C633,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C633,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P593" s="16" t="e">
+      <c r="P633" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q593" s="17" t="e">
+      <c r="Q633" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="594" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D594" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E594" s="30"/>
-      <c r="F594" s="31"/>
-      <c r="G594" s="10"/>
-      <c r="J594" s="13"/>
-      <c r="K594" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L594" s="24"/>
-      <c r="M594" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N594" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O594" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L594=0,VLOOKUP(C594,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C594,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="634" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D634" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E634" s="30"/>
+      <c r="F634" s="31"/>
+      <c r="G634" s="10"/>
+      <c r="J634" s="13"/>
+      <c r="K634" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L634" s="24"/>
+      <c r="M634" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N634" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O634" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L634=0,VLOOKUP(C634,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C634,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P594" s="16" t="e">
+      <c r="P634" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q594" s="17" t="e">
+      <c r="Q634" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="595" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D595" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E595" s="30"/>
-      <c r="F595" s="31"/>
-      <c r="G595" s="10"/>
-      <c r="J595" s="13"/>
-      <c r="K595" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L595" s="24"/>
-      <c r="M595" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N595" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O595" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L595=0,VLOOKUP(C595,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C595,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="635" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D635" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E635" s="30"/>
+      <c r="F635" s="31"/>
+      <c r="G635" s="10"/>
+      <c r="J635" s="13"/>
+      <c r="K635" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L635" s="24"/>
+      <c r="M635" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N635" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O635" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L635=0,VLOOKUP(C635,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C635,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P595" s="16" t="e">
+      <c r="P635" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q595" s="17" t="e">
+      <c r="Q635" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="596" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D596" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E596" s="30"/>
-      <c r="F596" s="31"/>
-      <c r="G596" s="10"/>
-      <c r="J596" s="13"/>
-      <c r="K596" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L596" s="24"/>
-      <c r="M596" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N596" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O596" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L596=0,VLOOKUP(C596,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C596,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="636" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D636" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E636" s="30"/>
+      <c r="F636" s="31"/>
+      <c r="G636" s="10"/>
+      <c r="J636" s="13"/>
+      <c r="K636" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L636" s="24"/>
+      <c r="M636" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N636" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O636" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L636=0,VLOOKUP(C636,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C636,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P596" s="16" t="e">
+      <c r="P636" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q596" s="17" t="e">
+      <c r="Q636" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="597" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D597" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E597" s="30"/>
-      <c r="F597" s="31"/>
-      <c r="G597" s="10"/>
-      <c r="J597" s="13"/>
-      <c r="K597" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L597" s="24"/>
-      <c r="M597" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N597" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O597" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L597=0,VLOOKUP(C597,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C597,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="637" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D637" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E637" s="30"/>
+      <c r="F637" s="31"/>
+      <c r="G637" s="10"/>
+      <c r="J637" s="13"/>
+      <c r="K637" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L637" s="24"/>
+      <c r="M637" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N637" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O637" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L637=0,VLOOKUP(C637,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C637,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P597" s="16" t="e">
+      <c r="P637" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q597" s="17" t="e">
+      <c r="Q637" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="598" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D598" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E598" s="30"/>
-      <c r="F598" s="31"/>
-      <c r="G598" s="10"/>
-      <c r="J598" s="13"/>
-      <c r="K598" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L598" s="24"/>
-      <c r="M598" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N598" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O598" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L598=0,VLOOKUP(C598,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C598,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="638" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D638" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E638" s="30"/>
+      <c r="F638" s="31"/>
+      <c r="G638" s="10"/>
+      <c r="J638" s="13"/>
+      <c r="K638" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L638" s="24"/>
+      <c r="M638" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N638" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O638" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L638=0,VLOOKUP(C638,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C638,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P598" s="16" t="e">
+      <c r="P638" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q598" s="17" t="e">
+      <c r="Q638" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="599" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D599" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E599" s="30"/>
-      <c r="F599" s="31"/>
-      <c r="G599" s="10"/>
-      <c r="J599" s="13"/>
-      <c r="K599" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L599" s="24"/>
-      <c r="M599" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N599" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O599" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L599=0,VLOOKUP(C599,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C599,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="639" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D639" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E639" s="30"/>
+      <c r="F639" s="31"/>
+      <c r="G639" s="10"/>
+      <c r="J639" s="13"/>
+      <c r="K639" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L639" s="24"/>
+      <c r="M639" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N639" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O639" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L639=0,VLOOKUP(C639,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C639,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P599" s="16" t="e">
+      <c r="P639" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q599" s="17" t="e">
+      <c r="Q639" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="600" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D600" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E600" s="30"/>
-      <c r="F600" s="31"/>
-      <c r="G600" s="10"/>
-      <c r="J600" s="13"/>
-      <c r="K600" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L600" s="24"/>
-      <c r="M600" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N600" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O600" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L600=0,VLOOKUP(C600,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C600,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="640" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D640" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E640" s="30"/>
+      <c r="F640" s="31"/>
+      <c r="G640" s="10"/>
+      <c r="J640" s="13"/>
+      <c r="K640" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L640" s="24"/>
+      <c r="M640" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N640" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O640" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L640=0,VLOOKUP(C640,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C640,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P600" s="16" t="e">
+      <c r="P640" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q600" s="17" t="e">
+      <c r="Q640" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="601" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D601" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E601" s="30"/>
-      <c r="F601" s="31"/>
-      <c r="G601" s="10"/>
-      <c r="J601" s="13"/>
-      <c r="K601" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L601" s="24"/>
-      <c r="M601" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N601" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O601" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L601=0,VLOOKUP(C601,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C601,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="641" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D641" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E641" s="30"/>
+      <c r="F641" s="31"/>
+      <c r="G641" s="10"/>
+      <c r="J641" s="13"/>
+      <c r="K641" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L641" s="24"/>
+      <c r="M641" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N641" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O641" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L641=0,VLOOKUP(C641,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C641,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P601" s="16" t="e">
+      <c r="P641" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q601" s="17" t="e">
+      <c r="Q641" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="602" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D602" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E602" s="30"/>
-      <c r="F602" s="31"/>
-      <c r="G602" s="10"/>
-      <c r="J602" s="13"/>
-      <c r="K602" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L602" s="24"/>
-      <c r="M602" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N602" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O602" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L602=0,VLOOKUP(C602,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C602,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="642" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D642" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E642" s="30"/>
+      <c r="F642" s="31"/>
+      <c r="G642" s="10"/>
+      <c r="J642" s="13"/>
+      <c r="K642" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L642" s="24"/>
+      <c r="M642" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N642" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O642" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L642=0,VLOOKUP(C642,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C642,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P602" s="16" t="e">
+      <c r="P642" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q602" s="17" t="e">
+      <c r="Q642" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="603" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D603" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E603" s="30"/>
-      <c r="F603" s="31"/>
-      <c r="G603" s="10"/>
-      <c r="J603" s="13"/>
-      <c r="K603" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L603" s="24"/>
-      <c r="M603" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N603" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O603" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L603=0,VLOOKUP(C603,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C603,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="643" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D643" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E643" s="30"/>
+      <c r="F643" s="31"/>
+      <c r="G643" s="10"/>
+      <c r="J643" s="13"/>
+      <c r="K643" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L643" s="24"/>
+      <c r="M643" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N643" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O643" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L643=0,VLOOKUP(C643,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C643,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P603" s="16" t="e">
+      <c r="P643" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q603" s="17" t="e">
+      <c r="Q643" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="604" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D604" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E604" s="30"/>
-      <c r="F604" s="31"/>
-      <c r="G604" s="10"/>
-      <c r="J604" s="13"/>
-      <c r="K604" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L604" s="24"/>
-      <c r="M604" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N604" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O604" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L604=0,VLOOKUP(C604,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C604,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="644" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D644" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E644" s="30"/>
+      <c r="F644" s="31"/>
+      <c r="G644" s="10"/>
+      <c r="J644" s="13"/>
+      <c r="K644" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L644" s="24"/>
+      <c r="M644" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N644" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O644" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L644=0,VLOOKUP(C644,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C644,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P604" s="16" t="e">
+      <c r="P644" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q604" s="17" t="e">
+      <c r="Q644" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="605" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D605" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E605" s="30"/>
-      <c r="F605" s="31"/>
-      <c r="G605" s="10"/>
-      <c r="J605" s="13"/>
-      <c r="K605" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L605" s="24"/>
-      <c r="M605" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N605" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O605" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L605=0,VLOOKUP(C605,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C605,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="645" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D645" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E645" s="30"/>
+      <c r="F645" s="31"/>
+      <c r="G645" s="10"/>
+      <c r="J645" s="13"/>
+      <c r="K645" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L645" s="24"/>
+      <c r="M645" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N645" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O645" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L645=0,VLOOKUP(C645,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C645,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P605" s="16" t="e">
+      <c r="P645" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q605" s="17" t="e">
+      <c r="Q645" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="606" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D606" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E606" s="30"/>
-      <c r="F606" s="31"/>
-      <c r="G606" s="10"/>
-      <c r="J606" s="13"/>
-      <c r="K606" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L606" s="24"/>
-      <c r="M606" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N606" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O606" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L606=0,VLOOKUP(C606,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C606,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="646" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D646" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E646" s="30"/>
+      <c r="F646" s="31"/>
+      <c r="G646" s="10"/>
+      <c r="J646" s="13"/>
+      <c r="K646" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L646" s="24"/>
+      <c r="M646" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N646" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O646" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L646=0,VLOOKUP(C646,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C646,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P606" s="16" t="e">
+      <c r="P646" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q606" s="17" t="e">
+      <c r="Q646" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="607" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D607" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E607" s="30"/>
-      <c r="F607" s="31"/>
-      <c r="G607" s="10"/>
-      <c r="J607" s="13"/>
-      <c r="K607" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L607" s="24"/>
-      <c r="M607" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N607" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O607" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L607=0,VLOOKUP(C607,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C607,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="647" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D647" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E647" s="30"/>
+      <c r="F647" s="31"/>
+      <c r="G647" s="10"/>
+      <c r="J647" s="13"/>
+      <c r="K647" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L647" s="24"/>
+      <c r="M647" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N647" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O647" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L647=0,VLOOKUP(C647,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C647,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P607" s="16" t="e">
+      <c r="P647" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q607" s="17" t="e">
+      <c r="Q647" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="608" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D608" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E608" s="30"/>
-      <c r="F608" s="31"/>
-      <c r="G608" s="10"/>
-      <c r="J608" s="13"/>
-      <c r="K608" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L608" s="24"/>
-      <c r="M608" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N608" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O608" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L608=0,VLOOKUP(C608,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C608,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="648" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D648" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E648" s="30"/>
+      <c r="F648" s="31"/>
+      <c r="G648" s="10"/>
+      <c r="J648" s="13"/>
+      <c r="K648" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L648" s="24"/>
+      <c r="M648" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N648" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O648" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L648=0,VLOOKUP(C648,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C648,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P608" s="16" t="e">
+      <c r="P648" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q608" s="17" t="e">
+      <c r="Q648" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="609" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D609" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E609" s="30"/>
-      <c r="F609" s="31"/>
-      <c r="G609" s="10"/>
-      <c r="J609" s="13"/>
-      <c r="K609" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L609" s="24"/>
-      <c r="M609" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N609" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O609" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L609=0,VLOOKUP(C609,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C609,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="649" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D649" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E649" s="30"/>
+      <c r="F649" s="31"/>
+      <c r="G649" s="10"/>
+      <c r="J649" s="13"/>
+      <c r="K649" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L649" s="24"/>
+      <c r="M649" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N649" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O649" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L649=0,VLOOKUP(C649,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C649,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P609" s="16" t="e">
+      <c r="P649" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q609" s="17" t="e">
+      <c r="Q649" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="610" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D610" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E610" s="30"/>
-      <c r="F610" s="31"/>
-      <c r="G610" s="10"/>
-      <c r="J610" s="13"/>
-      <c r="K610" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L610" s="24"/>
-      <c r="M610" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N610" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O610" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L610=0,VLOOKUP(C610,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C610,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="650" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D650" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E650" s="30"/>
+      <c r="F650" s="31"/>
+      <c r="G650" s="10"/>
+      <c r="J650" s="13"/>
+      <c r="K650" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L650" s="24"/>
+      <c r="M650" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N650" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O650" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L650=0,VLOOKUP(C650,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C650,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P610" s="16" t="e">
+      <c r="P650" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q610" s="17" t="e">
+      <c r="Q650" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="611" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D611" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E611" s="30"/>
-      <c r="F611" s="31"/>
-      <c r="G611" s="10"/>
-      <c r="J611" s="13"/>
-      <c r="K611" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L611" s="24"/>
-      <c r="M611" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N611" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O611" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L611=0,VLOOKUP(C611,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C611,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="651" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D651" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E651" s="30"/>
+      <c r="F651" s="31"/>
+      <c r="G651" s="10"/>
+      <c r="J651" s="13"/>
+      <c r="K651" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L651" s="24"/>
+      <c r="M651" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N651" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O651" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L651=0,VLOOKUP(C651,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C651,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P611" s="16" t="e">
+      <c r="P651" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q611" s="17" t="e">
+      <c r="Q651" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="612" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D612" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E612" s="30"/>
-      <c r="F612" s="31"/>
-      <c r="G612" s="10"/>
-      <c r="J612" s="13"/>
-      <c r="K612" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L612" s="24"/>
-      <c r="M612" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N612" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O612" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L612=0,VLOOKUP(C612,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C612,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="652" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D652" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E652" s="30"/>
+      <c r="F652" s="31"/>
+      <c r="G652" s="10"/>
+      <c r="J652" s="13"/>
+      <c r="K652" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L652" s="24"/>
+      <c r="M652" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N652" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O652" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L652=0,VLOOKUP(C652,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C652,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P612" s="16" t="e">
+      <c r="P652" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q612" s="17" t="e">
+      <c r="Q652" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="613" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D613" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E613" s="30"/>
-      <c r="F613" s="31"/>
-      <c r="G613" s="10"/>
-      <c r="J613" s="13"/>
-      <c r="K613" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L613" s="24"/>
-      <c r="M613" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N613" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O613" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L613=0,VLOOKUP(C613,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C613,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="653" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D653" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E653" s="30"/>
+      <c r="F653" s="31"/>
+      <c r="G653" s="10"/>
+      <c r="J653" s="13"/>
+      <c r="K653" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L653" s="24"/>
+      <c r="M653" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N653" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O653" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L653=0,VLOOKUP(C653,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C653,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P613" s="16" t="e">
+      <c r="P653" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q613" s="17" t="e">
+      <c r="Q653" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="614" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D614" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E614" s="30"/>
-      <c r="F614" s="31"/>
-      <c r="G614" s="10"/>
-      <c r="J614" s="13"/>
-      <c r="K614" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L614" s="24"/>
-      <c r="M614" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N614" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O614" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L614=0,VLOOKUP(C614,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C614,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="654" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D654" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E654" s="30"/>
+      <c r="F654" s="31"/>
+      <c r="G654" s="10"/>
+      <c r="J654" s="13"/>
+      <c r="K654" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L654" s="24"/>
+      <c r="M654" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N654" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O654" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L654=0,VLOOKUP(C654,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C654,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P614" s="16" t="e">
+      <c r="P654" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q614" s="17" t="e">
+      <c r="Q654" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="615" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D615" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E615" s="30"/>
-      <c r="F615" s="31"/>
-      <c r="G615" s="10"/>
-      <c r="J615" s="13"/>
-      <c r="K615" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L615" s="24"/>
-      <c r="M615" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N615" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O615" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L615=0,VLOOKUP(C615,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C615,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="655" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D655" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E655" s="30"/>
+      <c r="F655" s="31"/>
+      <c r="G655" s="10"/>
+      <c r="J655" s="13"/>
+      <c r="K655" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L655" s="24"/>
+      <c r="M655" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N655" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O655" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L655=0,VLOOKUP(C655,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C655,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P615" s="16" t="e">
+      <c r="P655" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q615" s="17" t="e">
+      <c r="Q655" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="616" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D616" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E616" s="30"/>
-      <c r="F616" s="31"/>
-      <c r="G616" s="10"/>
-      <c r="J616" s="13"/>
-      <c r="K616" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L616" s="24"/>
-      <c r="M616" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N616" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O616" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L616=0,VLOOKUP(C616,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C616,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="656" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D656" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E656" s="30"/>
+      <c r="F656" s="31"/>
+      <c r="G656" s="10"/>
+      <c r="J656" s="13"/>
+      <c r="K656" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L656" s="24"/>
+      <c r="M656" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N656" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O656" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L656=0,VLOOKUP(C656,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C656,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P616" s="16" t="e">
+      <c r="P656" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q616" s="17" t="e">
+      <c r="Q656" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="617" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D617" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E617" s="30"/>
-      <c r="F617" s="31"/>
-      <c r="G617" s="10"/>
-      <c r="J617" s="13"/>
-      <c r="K617" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L617" s="24"/>
-      <c r="M617" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N617" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O617" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L617=0,VLOOKUP(C617,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C617,'Ranking Values'!A:C,3,FALSE))))</f>
+    <row r="657" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D657" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E657" s="30"/>
+      <c r="F657" s="31"/>
+      <c r="G657" s="10"/>
+      <c r="J657" s="13"/>
+      <c r="K657" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L657" s="24"/>
+      <c r="M657" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N657" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O657" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L657=0,VLOOKUP(C657,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C657,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P617" s="16" t="e">
+      <c r="P657" s="16" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q617" s="17" t="e">
+      <c r="Q657" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="658" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D658" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E658" s="30"/>
+      <c r="F658" s="31"/>
+      <c r="G658" s="10"/>
+      <c r="J658" s="13"/>
+      <c r="K658" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L658" s="24"/>
+      <c r="M658" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N658" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O658" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L658=0,VLOOKUP(C658,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C658,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P658" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q658" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="659" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D659" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E659" s="30"/>
+      <c r="F659" s="31"/>
+      <c r="G659" s="10"/>
+      <c r="J659" s="13"/>
+      <c r="K659" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L659" s="24"/>
+      <c r="M659" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N659" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O659" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L659=0,VLOOKUP(C659,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C659,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P659" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q659" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="660" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D660" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E660" s="30"/>
+      <c r="F660" s="31"/>
+      <c r="G660" s="10"/>
+      <c r="J660" s="13"/>
+      <c r="K660" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L660" s="24"/>
+      <c r="M660" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N660" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O660" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L660=0,VLOOKUP(C660,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C660,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P660" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q660" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="661" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D661" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E661" s="30"/>
+      <c r="F661" s="31"/>
+      <c r="G661" s="10"/>
+      <c r="J661" s="13"/>
+      <c r="K661" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L661" s="24"/>
+      <c r="M661" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N661" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O661" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L661=0,VLOOKUP(C661,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C661,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P661" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q661" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="662" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D662" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E662" s="30"/>
+      <c r="F662" s="31"/>
+      <c r="G662" s="10"/>
+      <c r="J662" s="13"/>
+      <c r="K662" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L662" s="24"/>
+      <c r="M662" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N662" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O662" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L662=0,VLOOKUP(C662,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C662,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P662" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q662" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="663" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D663" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E663" s="30"/>
+      <c r="F663" s="31"/>
+      <c r="G663" s="10"/>
+      <c r="J663" s="13"/>
+      <c r="K663" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L663" s="24"/>
+      <c r="M663" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N663" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O663" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L663=0,VLOOKUP(C663,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C663,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P663" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q663" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="664" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D664" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E664" s="30"/>
+      <c r="F664" s="31"/>
+      <c r="G664" s="10"/>
+      <c r="J664" s="13"/>
+      <c r="K664" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L664" s="24"/>
+      <c r="M664" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N664" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O664" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L664=0,VLOOKUP(C664,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C664,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P664" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q664" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="665" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D665" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E665" s="30"/>
+      <c r="F665" s="31"/>
+      <c r="G665" s="10"/>
+      <c r="J665" s="13"/>
+      <c r="K665" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L665" s="24"/>
+      <c r="M665" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N665" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O665" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L665=0,VLOOKUP(C665,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C665,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P665" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q665" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="666" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D666" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E666" s="30"/>
+      <c r="F666" s="31"/>
+      <c r="G666" s="10"/>
+      <c r="J666" s="13"/>
+      <c r="K666" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L666" s="24"/>
+      <c r="M666" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N666" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O666" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L666=0,VLOOKUP(C666,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C666,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P666" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q666" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="667" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D667" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E667" s="30"/>
+      <c r="F667" s="31"/>
+      <c r="G667" s="10"/>
+      <c r="J667" s="13"/>
+      <c r="K667" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L667" s="24"/>
+      <c r="M667" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N667" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O667" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L667=0,VLOOKUP(C667,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C667,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P667" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q667" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="668" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D668" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E668" s="30"/>
+      <c r="F668" s="31"/>
+      <c r="G668" s="10"/>
+      <c r="J668" s="13"/>
+      <c r="K668" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L668" s="24"/>
+      <c r="M668" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N668" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O668" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L668=0,VLOOKUP(C668,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C668,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P668" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q668" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="669" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D669" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E669" s="30"/>
+      <c r="F669" s="31"/>
+      <c r="G669" s="10"/>
+      <c r="J669" s="13"/>
+      <c r="K669" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L669" s="24"/>
+      <c r="M669" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N669" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O669" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L669=0,VLOOKUP(C669,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C669,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P669" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q669" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="670" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D670" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E670" s="30"/>
+      <c r="F670" s="31"/>
+      <c r="G670" s="10"/>
+      <c r="J670" s="13"/>
+      <c r="K670" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L670" s="24"/>
+      <c r="M670" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N670" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O670" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L670=0,VLOOKUP(C670,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C670,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P670" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q670" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="671" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D671" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E671" s="30"/>
+      <c r="F671" s="31"/>
+      <c r="G671" s="10"/>
+      <c r="J671" s="13"/>
+      <c r="K671" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L671" s="24"/>
+      <c r="M671" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N671" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O671" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L671=0,VLOOKUP(C671,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C671,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P671" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q671" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="672" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D672" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E672" s="30"/>
+      <c r="F672" s="31"/>
+      <c r="G672" s="10"/>
+      <c r="J672" s="13"/>
+      <c r="K672" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L672" s="24"/>
+      <c r="M672" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N672" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O672" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L672=0,VLOOKUP(C672,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C672,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P672" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q672" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="673" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D673" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E673" s="30"/>
+      <c r="F673" s="31"/>
+      <c r="G673" s="10"/>
+      <c r="J673" s="13"/>
+      <c r="K673" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L673" s="24"/>
+      <c r="M673" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N673" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O673" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L673=0,VLOOKUP(C673,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C673,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P673" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q673" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="674" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D674" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E674" s="30"/>
+      <c r="F674" s="31"/>
+      <c r="G674" s="10"/>
+      <c r="J674" s="13"/>
+      <c r="K674" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L674" s="24"/>
+      <c r="M674" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N674" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O674" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L674=0,VLOOKUP(C674,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C674,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P674" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q674" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="675" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D675" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E675" s="30"/>
+      <c r="F675" s="31"/>
+      <c r="G675" s="10"/>
+      <c r="J675" s="13"/>
+      <c r="K675" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L675" s="24"/>
+      <c r="M675" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N675" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O675" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L675=0,VLOOKUP(C675,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C675,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P675" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q675" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="676" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D676" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E676" s="30"/>
+      <c r="F676" s="31"/>
+      <c r="G676" s="10"/>
+      <c r="J676" s="13"/>
+      <c r="K676" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L676" s="24"/>
+      <c r="M676" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N676" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O676" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L676=0,VLOOKUP(C676,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C676,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P676" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q676" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="677" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D677" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E677" s="30"/>
+      <c r="F677" s="31"/>
+      <c r="G677" s="10"/>
+      <c r="J677" s="13"/>
+      <c r="K677" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L677" s="24"/>
+      <c r="M677" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N677" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O677" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L677=0,VLOOKUP(C677,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C677,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P677" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q677" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="678" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D678" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E678" s="30"/>
+      <c r="F678" s="31"/>
+      <c r="G678" s="10"/>
+      <c r="J678" s="13"/>
+      <c r="K678" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L678" s="24"/>
+      <c r="M678" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N678" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O678" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L678=0,VLOOKUP(C678,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C678,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P678" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q678" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="679" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D679" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E679" s="30"/>
+      <c r="F679" s="31"/>
+      <c r="G679" s="10"/>
+      <c r="J679" s="13"/>
+      <c r="K679" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L679" s="24"/>
+      <c r="M679" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N679" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O679" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L679=0,VLOOKUP(C679,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C679,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P679" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q679" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="680" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D680" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E680" s="30"/>
+      <c r="F680" s="31"/>
+      <c r="G680" s="10"/>
+      <c r="J680" s="13"/>
+      <c r="K680" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L680" s="24"/>
+      <c r="M680" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N680" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O680" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L680=0,VLOOKUP(C680,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C680,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P680" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q680" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="681" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D681" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E681" s="30"/>
+      <c r="F681" s="31"/>
+      <c r="G681" s="10"/>
+      <c r="J681" s="13"/>
+      <c r="K681" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L681" s="24"/>
+      <c r="M681" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N681" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O681" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L681=0,VLOOKUP(C681,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C681,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P681" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q681" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="682" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D682" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E682" s="30"/>
+      <c r="F682" s="31"/>
+      <c r="G682" s="10"/>
+      <c r="J682" s="13"/>
+      <c r="K682" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L682" s="24"/>
+      <c r="M682" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N682" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O682" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L682=0,VLOOKUP(C682,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C682,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P682" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q682" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="683" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D683" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E683" s="30"/>
+      <c r="F683" s="31"/>
+      <c r="G683" s="10"/>
+      <c r="J683" s="13"/>
+      <c r="K683" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L683" s="24"/>
+      <c r="M683" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N683" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O683" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L683=0,VLOOKUP(C683,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C683,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P683" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q683" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="684" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D684" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E684" s="30"/>
+      <c r="F684" s="31"/>
+      <c r="G684" s="10"/>
+      <c r="J684" s="13"/>
+      <c r="K684" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L684" s="24"/>
+      <c r="M684" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N684" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O684" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L684=0,VLOOKUP(C684,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C684,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P684" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q684" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="685" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D685" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E685" s="30"/>
+      <c r="F685" s="31"/>
+      <c r="G685" s="10"/>
+      <c r="J685" s="13"/>
+      <c r="K685" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L685" s="24"/>
+      <c r="M685" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N685" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O685" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L685=0,VLOOKUP(C685,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C685,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P685" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q685" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="686" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D686" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E686" s="30"/>
+      <c r="F686" s="31"/>
+      <c r="G686" s="10"/>
+      <c r="J686" s="13"/>
+      <c r="K686" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L686" s="24"/>
+      <c r="M686" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N686" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O686" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L686=0,VLOOKUP(C686,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C686,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P686" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q686" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="687" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D687" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E687" s="30"/>
+      <c r="F687" s="31"/>
+      <c r="G687" s="10"/>
+      <c r="J687" s="13"/>
+      <c r="K687" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L687" s="24"/>
+      <c r="M687" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N687" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O687" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L687=0,VLOOKUP(C687,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C687,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P687" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q687" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="688" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D688" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E688" s="30"/>
+      <c r="F688" s="31"/>
+      <c r="G688" s="10"/>
+      <c r="J688" s="13"/>
+      <c r="K688" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L688" s="24"/>
+      <c r="M688" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N688" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O688" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L688=0,VLOOKUP(C688,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C688,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P688" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q688" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="689" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D689" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E689" s="30"/>
+      <c r="F689" s="31"/>
+      <c r="G689" s="10"/>
+      <c r="J689" s="13"/>
+      <c r="K689" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L689" s="24"/>
+      <c r="M689" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N689" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O689" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L689=0,VLOOKUP(C689,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C689,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P689" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q689" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="690" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D690" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E690" s="30"/>
+      <c r="F690" s="31"/>
+      <c r="G690" s="10"/>
+      <c r="J690" s="13"/>
+      <c r="K690" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L690" s="24"/>
+      <c r="M690" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N690" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O690" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L690=0,VLOOKUP(C690,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C690,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P690" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q690" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="691" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D691" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E691" s="30"/>
+      <c r="F691" s="31"/>
+      <c r="G691" s="10"/>
+      <c r="J691" s="13"/>
+      <c r="K691" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L691" s="24"/>
+      <c r="M691" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N691" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O691" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L691=0,VLOOKUP(C691,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C691,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P691" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q691" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="692" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D692" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E692" s="30"/>
+      <c r="F692" s="31"/>
+      <c r="G692" s="10"/>
+      <c r="J692" s="13"/>
+      <c r="K692" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L692" s="24"/>
+      <c r="M692" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N692" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O692" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L692=0,VLOOKUP(C692,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C692,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P692" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q692" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="693" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D693" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E693" s="30"/>
+      <c r="F693" s="31"/>
+      <c r="G693" s="10"/>
+      <c r="J693" s="13"/>
+      <c r="K693" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L693" s="24"/>
+      <c r="M693" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N693" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O693" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L693=0,VLOOKUP(C693,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C693,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P693" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q693" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="694" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D694" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E694" s="30"/>
+      <c r="F694" s="31"/>
+      <c r="G694" s="10"/>
+      <c r="J694" s="13"/>
+      <c r="K694" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L694" s="24"/>
+      <c r="M694" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N694" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O694" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L694=0,VLOOKUP(C694,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C694,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P694" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q694" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="695" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D695" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E695" s="30"/>
+      <c r="F695" s="31"/>
+      <c r="G695" s="10"/>
+      <c r="J695" s="13"/>
+      <c r="K695" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L695" s="24"/>
+      <c r="M695" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N695" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O695" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L695=0,VLOOKUP(C695,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C695,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P695" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q695" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="696" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D696" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E696" s="30"/>
+      <c r="F696" s="31"/>
+      <c r="G696" s="10"/>
+      <c r="J696" s="13"/>
+      <c r="K696" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L696" s="24"/>
+      <c r="M696" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N696" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O696" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L696=0,VLOOKUP(C696,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C696,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P696" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q696" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="697" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D697" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E697" s="30"/>
+      <c r="F697" s="31"/>
+      <c r="G697" s="10"/>
+      <c r="J697" s="13"/>
+      <c r="K697" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L697" s="24"/>
+      <c r="M697" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N697" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O697" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L697=0,VLOOKUP(C697,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C697,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P697" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q697" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="698" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D698" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E698" s="30"/>
+      <c r="F698" s="31"/>
+      <c r="G698" s="10"/>
+      <c r="J698" s="13"/>
+      <c r="K698" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L698" s="24"/>
+      <c r="M698" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N698" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O698" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L698=0,VLOOKUP(C698,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C698,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P698" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q698" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="699" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D699" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E699" s="30"/>
+      <c r="F699" s="31"/>
+      <c r="G699" s="10"/>
+      <c r="J699" s="13"/>
+      <c r="K699" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L699" s="24"/>
+      <c r="M699" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N699" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O699" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L699=0,VLOOKUP(C699,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C699,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P699" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q699" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="700" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D700" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E700" s="30"/>
+      <c r="F700" s="31"/>
+      <c r="G700" s="10"/>
+      <c r="J700" s="13"/>
+      <c r="K700" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L700" s="24"/>
+      <c r="M700" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N700" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O700" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L700=0,VLOOKUP(C700,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C700,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P700" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q700" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="701" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D701" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E701" s="30"/>
+      <c r="F701" s="31"/>
+      <c r="G701" s="10"/>
+      <c r="J701" s="13"/>
+      <c r="K701" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L701" s="24"/>
+      <c r="M701" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N701" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O701" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L701=0,VLOOKUP(C701,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C701,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P701" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q701" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="702" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D702" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E702" s="30"/>
+      <c r="F702" s="31"/>
+      <c r="G702" s="10"/>
+      <c r="J702" s="13"/>
+      <c r="K702" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L702" s="24"/>
+      <c r="M702" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N702" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O702" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L702=0,VLOOKUP(C702,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C702,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P702" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q702" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="703" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D703" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E703" s="30"/>
+      <c r="F703" s="31"/>
+      <c r="G703" s="10"/>
+      <c r="J703" s="13"/>
+      <c r="K703" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L703" s="24"/>
+      <c r="M703" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N703" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O703" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L703=0,VLOOKUP(C703,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C703,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P703" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q703" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="704" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D704" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E704" s="30"/>
+      <c r="F704" s="31"/>
+      <c r="G704" s="10"/>
+      <c r="J704" s="13"/>
+      <c r="K704" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L704" s="24"/>
+      <c r="M704" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N704" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O704" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L704=0,VLOOKUP(C704,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C704,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P704" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q704" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="705" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D705" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E705" s="30"/>
+      <c r="F705" s="31"/>
+      <c r="G705" s="10"/>
+      <c r="J705" s="13"/>
+      <c r="K705" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L705" s="24"/>
+      <c r="M705" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N705" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O705" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L705=0,VLOOKUP(C705,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C705,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P705" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q705" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="706" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D706" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E706" s="30"/>
+      <c r="F706" s="31"/>
+      <c r="G706" s="10"/>
+      <c r="J706" s="13"/>
+      <c r="K706" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L706" s="24"/>
+      <c r="M706" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N706" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O706" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L706=0,VLOOKUP(C706,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C706,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P706" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q706" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="707" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D707" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E707" s="30"/>
+      <c r="F707" s="31"/>
+      <c r="G707" s="10"/>
+      <c r="J707" s="13"/>
+      <c r="K707" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L707" s="24"/>
+      <c r="M707" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N707" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O707" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L707=0,VLOOKUP(C707,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C707,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P707" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q707" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="708" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D708" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E708" s="30"/>
+      <c r="F708" s="31"/>
+      <c r="G708" s="10"/>
+      <c r="J708" s="13"/>
+      <c r="K708" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L708" s="24"/>
+      <c r="M708" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N708" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O708" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L708=0,VLOOKUP(C708,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C708,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P708" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q708" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="709" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D709" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E709" s="30"/>
+      <c r="F709" s="31"/>
+      <c r="G709" s="10"/>
+      <c r="J709" s="13"/>
+      <c r="K709" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L709" s="24"/>
+      <c r="M709" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N709" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O709" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L709=0,VLOOKUP(C709,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C709,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P709" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q709" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="710" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D710" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E710" s="30"/>
+      <c r="F710" s="31"/>
+      <c r="G710" s="10"/>
+      <c r="J710" s="13"/>
+      <c r="K710" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L710" s="24"/>
+      <c r="M710" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N710" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O710" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L710=0,VLOOKUP(C710,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C710,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P710" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q710" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="711" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D711" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E711" s="30"/>
+      <c r="F711" s="31"/>
+      <c r="G711" s="10"/>
+      <c r="J711" s="13"/>
+      <c r="K711" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L711" s="24"/>
+      <c r="M711" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N711" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O711" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L711=0,VLOOKUP(C711,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C711,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P711" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q711" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="712" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D712" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E712" s="30"/>
+      <c r="F712" s="31"/>
+      <c r="G712" s="10"/>
+      <c r="J712" s="13"/>
+      <c r="K712" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L712" s="24"/>
+      <c r="M712" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N712" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O712" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L712=0,VLOOKUP(C712,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C712,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P712" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q712" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="713" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D713" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E713" s="30"/>
+      <c r="F713" s="31"/>
+      <c r="G713" s="10"/>
+      <c r="J713" s="13"/>
+      <c r="K713" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L713" s="24"/>
+      <c r="M713" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N713" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O713" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L713=0,VLOOKUP(C713,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C713,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P713" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q713" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="714" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D714" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E714" s="30"/>
+      <c r="F714" s="31"/>
+      <c r="G714" s="10"/>
+      <c r="J714" s="13"/>
+      <c r="K714" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L714" s="24"/>
+      <c r="M714" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N714" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O714" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L714=0,VLOOKUP(C714,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C714,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P714" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q714" s="17" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="715" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D715" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
+      <c r="E715" s="30"/>
+      <c r="F715" s="31"/>
+      <c r="G715" s="10"/>
+      <c r="J715" s="13"/>
+      <c r="K715" s="32">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L715" s="24"/>
+      <c r="M715" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N715" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O715" s="16" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L715=0,VLOOKUP(C715,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C715,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P715" s="16" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q715" s="17" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
@@ -38757,10 +43202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
-  <dimension ref="A1:L255"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45683,30 +50128,30 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>84</v>
+        <v>479</v>
       </c>
       <c r="B193" t="s">
-        <v>85</v>
-      </c>
-      <c r="C193" t="str">
+        <v>480</v>
+      </c>
+      <c r="C193" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Rendo.Carlos</v>
-      </c>
-      <c r="D193" s="1">
-        <v>25841</v>
+        <v>Ramage.Benita</v>
+      </c>
+      <c r="D193" s="29">
+        <v>25569</v>
       </c>
       <c r="E193" s="2">
-        <f>ROUNDDOWN((K179-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>51</v>
+        <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>52</v>
       </c>
       <c r="F193" t="s">
-        <v>50</v>
+        <v>481</v>
       </c>
       <c r="G193" t="s">
         <v>197</v>
       </c>
       <c r="H193" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K193" s="1">
         <f t="shared" si="3"/>
@@ -45714,7 +50159,7 @@
       </c>
       <c r="L193" s="2">
         <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -45722,18 +50167,18 @@
         <v>84</v>
       </c>
       <c r="B194" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C194" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Rendo.Lucas</v>
+        <v>Rendo.Carlos</v>
       </c>
       <c r="D194" s="1">
-        <v>39286</v>
+        <v>25841</v>
       </c>
       <c r="E194" s="2">
-        <f>ROUNDDOWN((K180-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K179-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>51</v>
       </c>
       <c r="F194" t="s">
         <v>50</v>
@@ -45750,35 +50195,35 @@
       </c>
       <c r="L194" s="2">
         <f>ROUNDDOWN((K194-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B195" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C195" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Roberts.Alisha</v>
+        <v>Rendo.Lucas</v>
       </c>
       <c r="D195" s="1">
-        <v>38786</v>
+        <v>39286</v>
       </c>
       <c r="E195" s="2">
-        <f>ROUNDDOWN((K181-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K180-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G195" t="s">
         <v>197</v>
       </c>
       <c r="H195" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K195" s="1">
         <f t="shared" si="3"/>
@@ -45786,29 +50231,29 @@
       </c>
       <c r="L195" s="2">
         <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="B196" t="s">
-        <v>432</v>
+        <v>192</v>
       </c>
       <c r="C196" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ryntjes.Amon</v>
-      </c>
-      <c r="D196" s="1">
-        <v>40136</v>
+        <v>Reynolds.Adam</v>
+      </c>
+      <c r="D196" s="29">
+        <v>23012</v>
       </c>
       <c r="E196" s="2">
-        <f>ROUNDDOWN((K180-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>59</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>478</v>
       </c>
       <c r="G196" t="s">
         <v>197</v>
@@ -45822,29 +50267,29 @@
       </c>
       <c r="L196" s="2">
         <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>417</v>
+        <v>130</v>
       </c>
       <c r="B197" t="s">
-        <v>416</v>
-      </c>
-      <c r="C197" s="8" t="str">
+        <v>141</v>
+      </c>
+      <c r="C197" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Sage-Hoff.Quinn</v>
+        <v>Roberts.Alisha</v>
       </c>
       <c r="D197" s="1">
-        <v>39580</v>
+        <v>38786</v>
       </c>
       <c r="E197" s="2">
         <f>ROUNDDOWN((K181-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F197" t="s">
-        <v>418</v>
+        <v>49</v>
       </c>
       <c r="G197" t="s">
         <v>197</v>
@@ -45858,29 +50303,29 @@
       </c>
       <c r="L197" s="2">
         <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>291</v>
+        <v>431</v>
       </c>
       <c r="B198" t="s">
-        <v>293</v>
-      </c>
-      <c r="C198" t="str">
+        <v>432</v>
+      </c>
+      <c r="C198" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Saifuddin S Mohd Ezanie Fikrie.Muhammad</v>
+        <v>Ryntjes.Amon</v>
       </c>
       <c r="D198" s="1">
-        <v>39938</v>
+        <v>40136</v>
       </c>
       <c r="E198" s="2">
-        <f>ROUNDDOWN((K184-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K180-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="G198" t="s">
         <v>197</v>
@@ -45899,30 +50344,30 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="B199" t="s">
-        <v>339</v>
+        <v>416</v>
       </c>
       <c r="C199" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Sayed Ahmed.Yassin</v>
+        <v>Sage-Hoff.Quinn</v>
       </c>
       <c r="D199" s="1">
-        <v>40760</v>
+        <v>39580</v>
       </c>
       <c r="E199" s="2">
-        <f>ROUNDDOWN((K185-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K181-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F199" t="s">
-        <v>207</v>
+        <v>418</v>
       </c>
       <c r="G199" t="s">
         <v>197</v>
       </c>
       <c r="H199" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K199" s="1">
         <f t="shared" si="3"/>
@@ -45930,29 +50375,29 @@
       </c>
       <c r="L199" s="2">
         <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
-        <v>337</v>
-      </c>
-      <c r="C200" s="8" t="str">
+        <v>293</v>
+      </c>
+      <c r="C200" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Schembri.Emile</v>
+        <v>Saifuddin S Mohd Ezanie Fikrie.Muhammad</v>
       </c>
       <c r="D200" s="1">
-        <v>40240</v>
+        <v>39938</v>
       </c>
       <c r="E200" s="2">
-        <f>ROUNDDOWN((K186-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K184-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="G200" t="s">
         <v>197</v>
@@ -45966,29 +50411,29 @@
       </c>
       <c r="L200" s="2">
         <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B201" t="s">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="C201" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Schembri.Milan</v>
+        <v>Sayed Ahmed.Yassin</v>
       </c>
       <c r="D201" s="1">
-        <v>40240</v>
+        <v>40760</v>
       </c>
       <c r="E201" s="2">
-        <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K185-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="G201" t="s">
         <v>197</v>
@@ -46002,29 +50447,29 @@
       </c>
       <c r="L201" s="2">
         <f>ROUNDDOWN((K201-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>467</v>
+        <v>336</v>
       </c>
       <c r="B202" t="s">
-        <v>468</v>
+        <v>337</v>
       </c>
       <c r="C202" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Schimpf.Ferdinand</v>
-      </c>
-      <c r="D202" s="29">
-        <v>38600</v>
+        <v>Schembri.Emile</v>
+      </c>
+      <c r="D202" s="1">
+        <v>40240</v>
       </c>
       <c r="E202" s="2">
-        <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <f>ROUNDDOWN((K186-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G202" t="s">
         <v>197</v>
@@ -46038,29 +50483,29 @@
       </c>
       <c r="L202" s="2">
         <f>ROUNDDOWN((K202-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="B203" t="s">
-        <v>409</v>
+        <v>139</v>
       </c>
       <c r="C203" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Scully.Mark</v>
+        <v>Schembri.Milan</v>
       </c>
       <c r="D203" s="1">
-        <v>25027</v>
+        <v>40240</v>
       </c>
       <c r="E203" s="2">
-        <f>ROUNDDOWN((K188-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>53</v>
+        <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="G203" t="s">
         <v>197</v>
@@ -46074,26 +50519,26 @@
       </c>
       <c r="L203" s="2">
         <f>ROUNDDOWN((K203-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="B204" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="C204" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Sinclair.Edison</v>
-      </c>
-      <c r="D204" s="1">
-        <v>40871</v>
+        <v>Schimpf.Ferdinand</v>
+      </c>
+      <c r="D204" s="29">
+        <v>38600</v>
       </c>
       <c r="E204" s="2">
-        <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F204" t="s">
         <v>50</v>
@@ -46110,35 +50555,35 @@
       </c>
       <c r="L204" s="2">
         <f>ROUNDDOWN((K204-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>173</v>
+        <v>408</v>
       </c>
       <c r="B205" t="s">
-        <v>176</v>
-      </c>
-      <c r="C205" t="str">
+        <v>409</v>
+      </c>
+      <c r="C205" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Skrabanich.Sunday</v>
+        <v>Scully.Mark</v>
       </c>
       <c r="D205" s="1">
-        <v>40742</v>
+        <v>25027</v>
       </c>
       <c r="E205" s="2">
-        <f>ROUNDDOWN((K189-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K188-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>53</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
+        <v>414</v>
       </c>
       <c r="G205" t="s">
         <v>197</v>
       </c>
       <c r="H205" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K205" s="1">
         <f t="shared" si="3"/>
@@ -46146,32 +50591,32 @@
       </c>
       <c r="L205" s="2">
         <f>ROUNDDOWN((K205-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="B206" t="s">
-        <v>271</v>
-      </c>
-      <c r="C206" t="str">
+        <v>439</v>
+      </c>
+      <c r="C206" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Smith.Jacob</v>
+        <v>Sinclair.Edison</v>
       </c>
       <c r="D206" s="1">
-        <v>39567</v>
+        <v>40871</v>
       </c>
       <c r="E206" s="2">
-        <f>ROUNDDOWN((K190-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G206" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="H206" t="s">
         <v>316</v>
@@ -46182,35 +50627,35 @@
       </c>
       <c r="L206" s="2">
         <f>ROUNDDOWN((K206-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B207" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C207" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Sollars.Alan</v>
+        <v>Skrabanich.Sunday</v>
       </c>
       <c r="D207" s="1">
-        <v>16615</v>
+        <v>40742</v>
       </c>
       <c r="E207" s="2">
-        <f>ROUNDDOWN((K191-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>76</v>
+        <f>ROUNDDOWN((K189-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G207" t="s">
         <v>197</v>
       </c>
       <c r="H207" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K207" s="1">
         <f t="shared" si="3"/>
@@ -46218,35 +50663,35 @@
       </c>
       <c r="L207" s="2">
         <f>ROUNDDOWN((K207-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="B208" t="s">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="C208" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Sopru.Coraine</v>
+        <v>Smith.Jacob</v>
       </c>
       <c r="D208" s="1">
-        <v>17487</v>
+        <v>39567</v>
       </c>
       <c r="E208" s="2">
-        <f>ROUNDDOWN((K192-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>74</v>
+        <f>ROUNDDOWN((K190-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F208" t="s">
         <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H208" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K208" s="1">
         <f t="shared" si="3"/>
@@ -46254,29 +50699,29 @@
       </c>
       <c r="L208" s="2">
         <f>ROUNDDOWN((K208-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="B209" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="C209" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Spangler.Ashton</v>
+        <v>Sollars.Alan</v>
       </c>
       <c r="D209" s="1">
-        <v>32198</v>
+        <v>16615</v>
       </c>
       <c r="E209" s="2">
-        <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>33</v>
+        <f>ROUNDDOWN((K191-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>76</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G209" t="s">
         <v>197</v>
@@ -46290,35 +50735,35 @@
       </c>
       <c r="L209" s="2">
         <f>ROUNDDOWN((K209-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B210" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C210" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Spinks.Dov</v>
+        <v>Sopru.Coraine</v>
       </c>
       <c r="D210" s="1">
-        <v>28067</v>
+        <v>17487</v>
       </c>
       <c r="E210" s="2">
-        <f>ROUNDDOWN((K194-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>45</v>
+        <f>ROUNDDOWN((K192-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>74</v>
       </c>
       <c r="F210" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G210" t="s">
         <v>197</v>
       </c>
       <c r="H210" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K210" s="1">
         <f t="shared" si="3"/>
@@ -46326,26 +50771,26 @@
       </c>
       <c r="L210" s="2">
         <f>ROUNDDOWN((K210-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B211" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C211" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Spinks.Ranger</v>
+        <v>Spangler.Ashton</v>
       </c>
       <c r="D211" s="1">
-        <v>39299</v>
+        <v>32198</v>
       </c>
       <c r="E211" s="2">
-        <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>33</v>
       </c>
       <c r="F211" t="s">
         <v>50</v>
@@ -46362,29 +50807,29 @@
       </c>
       <c r="L211" s="2">
         <f>ROUNDDOWN((K211-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="B212" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="C212" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Staehr.Craig</v>
+        <v>Spinks.Dov</v>
       </c>
       <c r="D212" s="1">
-        <v>26410</v>
+        <v>28067</v>
       </c>
       <c r="E212" s="2">
-        <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>49</v>
+        <f>ROUNDDOWN((K194-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>45</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G212" t="s">
         <v>197</v>
@@ -46398,29 +50843,29 @@
       </c>
       <c r="L212" s="2">
         <f>ROUNDDOWN((K212-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="B213" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="C213" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Stewart.Alex</v>
-      </c>
-      <c r="D213" s="28">
-        <v>24576</v>
+        <v>Spinks.Ranger</v>
+      </c>
+      <c r="D213" s="1">
+        <v>39299</v>
       </c>
       <c r="E213" s="2">
-        <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>54</v>
+        <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G213" t="s">
         <v>197</v>
@@ -46434,29 +50879,29 @@
       </c>
       <c r="L213" s="2">
         <f>ROUNDDOWN((K213-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="B214" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="C214" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Strangis.Cesidio</v>
-      </c>
-      <c r="D214" s="28">
-        <v>40676</v>
+        <v>Staehr.Craig</v>
+      </c>
+      <c r="D214" s="1">
+        <v>26410</v>
       </c>
       <c r="E214" s="2">
-        <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>49</v>
       </c>
       <c r="F214" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G214" t="s">
         <v>197</v>
@@ -46470,29 +50915,29 @@
       </c>
       <c r="L214" s="2">
         <f>ROUNDDOWN((K214-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="B215" t="s">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="C215" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Stratton.Ben</v>
-      </c>
-      <c r="D215" s="1">
-        <v>28944</v>
+        <v>Stewart.Alex</v>
+      </c>
+      <c r="D215" s="28">
+        <v>24576</v>
       </c>
       <c r="E215" s="2">
-        <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>42</v>
+        <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>54</v>
       </c>
       <c r="F215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G215" t="s">
         <v>197</v>
@@ -46506,26 +50951,26 @@
       </c>
       <c r="L215" s="2">
         <f>ROUNDDOWN((K215-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="B216" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="C216" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Stratton.Oliver</v>
-      </c>
-      <c r="D216" s="1">
-        <v>38925</v>
+        <v>Strangis.Cesidio</v>
+      </c>
+      <c r="D216" s="28">
+        <v>40676</v>
       </c>
       <c r="E216" s="2">
-        <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F216" t="s">
         <v>50</v>
@@ -46542,29 +50987,29 @@
       </c>
       <c r="L216" s="2">
         <f>ROUNDDOWN((K216-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>334</v>
+        <v>98</v>
       </c>
       <c r="B217" t="s">
-        <v>335</v>
-      </c>
-      <c r="C217" s="8" t="str">
+        <v>102</v>
+      </c>
+      <c r="C217" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Swift-Turtur.Samson</v>
+        <v>Stratton.Ben</v>
       </c>
       <c r="D217" s="1">
-        <v>39808</v>
+        <v>28944</v>
       </c>
       <c r="E217" s="2">
-        <f>ROUNDDOWN((K201-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>42</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G217" t="s">
         <v>197</v>
@@ -46578,29 +51023,29 @@
       </c>
       <c r="L217" s="2">
         <f>ROUNDDOWN((K217-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>292</v>
+        <v>98</v>
       </c>
       <c r="B218" t="s">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="C218" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Tajuddin Sh Mohd Ezanie Fikrie.Muhammad</v>
+        <v>Stratton.Oliver</v>
       </c>
       <c r="D218" s="1">
-        <v>40524</v>
+        <v>38925</v>
       </c>
       <c r="E218" s="2">
-        <f>ROUNDDOWN((K202-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
       </c>
       <c r="F218" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="G218" t="s">
         <v>197</v>
@@ -46614,35 +51059,35 @@
       </c>
       <c r="L218" s="2">
         <f>ROUNDDOWN((K218-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>198</v>
+        <v>334</v>
       </c>
       <c r="B219" t="s">
-        <v>199</v>
-      </c>
-      <c r="C219" t="str">
+        <v>335</v>
+      </c>
+      <c r="C219" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Tang.Chin Ton Naomi</v>
+        <v>Swift-Turtur.Samson</v>
       </c>
       <c r="D219" s="1">
-        <v>37418</v>
+        <v>39808</v>
       </c>
       <c r="E219" s="2">
-        <f>ROUNDDOWN((K203-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>19</v>
+        <f>ROUNDDOWN((K201-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F219" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G219" t="s">
         <v>197</v>
       </c>
       <c r="H219" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K219" s="1">
         <f t="shared" si="3"/>
@@ -46650,29 +51095,29 @@
       </c>
       <c r="L219" s="2">
         <f>ROUNDDOWN((K219-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="B220" t="s">
-        <v>172</v>
+        <v>293</v>
       </c>
       <c r="C220" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Taylor.Blake</v>
-      </c>
-      <c r="D220" s="28">
-        <v>39384</v>
+        <v>Tajuddin Sh Mohd Ezanie Fikrie.Muhammad</v>
+      </c>
+      <c r="D220" s="1">
+        <v>40524</v>
       </c>
       <c r="E220" s="2">
-        <f>ROUNDDOWN((K204-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K202-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G220" t="s">
         <v>197</v>
@@ -46686,35 +51131,35 @@
       </c>
       <c r="L220" s="2">
         <f>ROUNDDOWN((K220-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="B221" t="s">
-        <v>150</v>
-      </c>
-      <c r="C221" s="8" t="str">
+        <v>199</v>
+      </c>
+      <c r="C221" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Taylor.Henry</v>
+        <v>Tang.Chin Ton Naomi</v>
       </c>
       <c r="D221" s="1">
-        <v>39489</v>
+        <v>37418</v>
       </c>
       <c r="E221" s="2">
-        <f>ROUNDDOWN((K205-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K203-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>19</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G221" t="s">
         <v>197</v>
       </c>
       <c r="H221" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K221" s="1">
         <f t="shared" ref="K221:K242" si="4">$K$1</f>
@@ -46722,29 +51167,29 @@
       </c>
       <c r="L221" s="2">
         <f>ROUNDDOWN((K221-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="B222" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="C222" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Angus</v>
-      </c>
-      <c r="D222" s="1">
-        <v>37883</v>
+        <v>Taylor.Blake</v>
+      </c>
+      <c r="D222" s="28">
+        <v>39384</v>
       </c>
       <c r="E222" s="2">
-        <f>ROUNDDOWN((K206-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K204-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="G222" t="s">
         <v>197</v>
@@ -46758,26 +51203,26 @@
       </c>
       <c r="L222" s="2">
         <f>ROUNDDOWN((K222-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="B223" t="s">
-        <v>276</v>
-      </c>
-      <c r="C223" t="str">
+        <v>150</v>
+      </c>
+      <c r="C223" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Leon</v>
+        <v>Taylor.Henry</v>
       </c>
       <c r="D223" s="1">
-        <v>20700</v>
+        <v>39489</v>
       </c>
       <c r="E223" s="2">
-        <f>ROUNDDOWN((K207-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>65</v>
+        <f>ROUNDDOWN((K205-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F223" t="s">
         <v>11</v>
@@ -46794,7 +51239,7 @@
       </c>
       <c r="L223" s="2">
         <f>ROUNDDOWN((K223-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -46802,21 +51247,21 @@
         <v>31</v>
       </c>
       <c r="B224" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C224" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Max</v>
+        <v>Thomas.Angus</v>
       </c>
       <c r="D224" s="1">
-        <v>37303</v>
+        <v>37883</v>
       </c>
       <c r="E224" s="2">
-        <f>ROUNDDOWN((K208-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>19</v>
+        <f>ROUNDDOWN((K206-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G224" t="s">
         <v>197</v>
@@ -46830,7 +51275,7 @@
       </c>
       <c r="L224" s="2">
         <f>ROUNDDOWN((K224-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -46838,21 +51283,21 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>46</v>
+        <v>276</v>
       </c>
       <c r="C225" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Rob</v>
+        <v>Thomas.Leon</v>
       </c>
       <c r="D225" s="1">
-        <v>23857</v>
+        <v>20700</v>
       </c>
       <c r="E225" s="2">
-        <f>ROUNDDOWN((K209-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>56</v>
+        <f>ROUNDDOWN((K207-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>65</v>
       </c>
       <c r="F225" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G225" t="s">
         <v>197</v>
@@ -46866,29 +51311,29 @@
       </c>
       <c r="L225" s="2">
         <f>ROUNDDOWN((K225-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="B226" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="C226" s="8" t="str">
+      <c r="A226" t="s">
+        <v>31</v>
+      </c>
+      <c r="B226" t="s">
+        <v>47</v>
+      </c>
+      <c r="C226" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Toronjo Urquiza.Luis</v>
+        <v>Thomas.Max</v>
       </c>
       <c r="D226" s="1">
-        <v>32091</v>
+        <v>37303</v>
       </c>
       <c r="E226" s="2">
-        <f>ROUNDDOWN((K207-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>34</v>
+        <f>ROUNDDOWN((K208-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>19</v>
       </c>
       <c r="F226" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G226" t="s">
         <v>197</v>
@@ -46902,29 +51347,29 @@
       </c>
       <c r="L226" s="2">
         <f>ROUNDDOWN((K226-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="B227" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C227" s="8" t="str">
+      <c r="A227" t="s">
+        <v>31</v>
+      </c>
+      <c r="B227" t="s">
+        <v>46</v>
+      </c>
+      <c r="C227" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Upton.Adrian</v>
-      </c>
-      <c r="D227" s="29">
-        <v>37919</v>
+        <v>Thomas.Rob</v>
+      </c>
+      <c r="D227" s="1">
+        <v>23857</v>
       </c>
       <c r="E227" s="2">
-        <f>ROUNDDOWN((K225-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K209-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>56</v>
       </c>
       <c r="F227" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G227" t="s">
         <v>197</v>
@@ -46938,26 +51383,26 @@
       </c>
       <c r="L227" s="2">
         <f>ROUNDDOWN((K227-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>277</v>
-      </c>
-      <c r="B228" t="s">
-        <v>278</v>
-      </c>
-      <c r="C228" t="str">
+      <c r="A228" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="C228" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Veaney.Gabriel</v>
+        <v>Toronjo Urquiza.Luis</v>
       </c>
       <c r="D228" s="1">
-        <v>38450</v>
+        <v>32091</v>
       </c>
       <c r="E228" s="2">
-        <f>ROUNDDOWN((K211-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <f>ROUNDDOWN((K207-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>34</v>
       </c>
       <c r="F228" t="s">
         <v>49</v>
@@ -46974,29 +51419,29 @@
       </c>
       <c r="L228" s="2">
         <f>ROUNDDOWN((K228-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>107</v>
-      </c>
-      <c r="B229" t="s">
-        <v>143</v>
-      </c>
-      <c r="C229" t="str">
+      <c r="A229" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C229" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Vingelis-Plant.Arky</v>
-      </c>
-      <c r="D229" s="1">
-        <v>40326</v>
+        <v>Upton.Adrian</v>
+      </c>
+      <c r="D229" s="29">
+        <v>37919</v>
       </c>
       <c r="E229" s="2">
-        <f>ROUNDDOWN((K212-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K225-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G229" t="s">
         <v>197</v>
@@ -47010,29 +51455,29 @@
       </c>
       <c r="L229" s="2">
         <f>ROUNDDOWN((K229-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="B230" t="s">
-        <v>114</v>
+        <v>278</v>
       </c>
       <c r="C230" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Vingelis-Plant.Keith</v>
+        <v>Veaney.Gabriel</v>
       </c>
       <c r="D230" s="1">
-        <v>25771</v>
+        <v>38450</v>
       </c>
       <c r="E230" s="2">
-        <f>ROUNDDOWN((K213-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>51</v>
+        <f>ROUNDDOWN((K211-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F230" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G230" t="s">
         <v>197</v>
@@ -47046,7 +51491,7 @@
       </c>
       <c r="L230" s="2">
         <f>ROUNDDOWN((K230-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -47054,18 +51499,18 @@
         <v>107</v>
       </c>
       <c r="B231" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C231" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Vingelis-Plant.Myka</v>
+        <v>Vingelis-Plant.Arky</v>
       </c>
       <c r="D231" s="1">
-        <v>38849</v>
+        <v>40326</v>
       </c>
       <c r="E231" s="2">
-        <f>ROUNDDOWN((K214-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K212-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
         <v>11</v>
@@ -47082,26 +51527,26 @@
       </c>
       <c r="L231" s="2">
         <f>ROUNDDOWN((K231-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="B232" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="C232" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Walmsley.Amelia</v>
-      </c>
-      <c r="D232" s="28">
-        <v>35641</v>
+        <v>Vingelis-Plant.Keith</v>
+      </c>
+      <c r="D232" s="1">
+        <v>25771</v>
       </c>
       <c r="E232" s="2">
-        <f>ROUNDDOWN((K215-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <f>ROUNDDOWN((K213-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>51</v>
       </c>
       <c r="F232" t="s">
         <v>11</v>
@@ -47110,7 +51555,7 @@
         <v>197</v>
       </c>
       <c r="H232" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K232" s="1">
         <f t="shared" si="4"/>
@@ -47118,35 +51563,35 @@
       </c>
       <c r="L232" s="2">
         <f>ROUNDDOWN((K232-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C233" s="8" t="str">
+      <c r="A233" t="s">
+        <v>107</v>
+      </c>
+      <c r="B233" t="s">
+        <v>142</v>
+      </c>
+      <c r="C233" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Walters.Emma</v>
-      </c>
-      <c r="D233" s="28">
-        <v>38830</v>
+        <v>Vingelis-Plant.Myka</v>
+      </c>
+      <c r="D233" s="1">
+        <v>38849</v>
       </c>
       <c r="E233" s="2">
-        <f>ROUNDDOWN((K216-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K214-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>15</v>
       </c>
       <c r="F233" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G233" t="s">
         <v>197</v>
       </c>
       <c r="H233" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K233" s="1">
         <f t="shared" si="4"/>
@@ -47158,31 +51603,31 @@
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C234" s="8" t="str">
+      <c r="A234" t="s">
+        <v>178</v>
+      </c>
+      <c r="B234" t="s">
+        <v>179</v>
+      </c>
+      <c r="C234" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wallace.Edward</v>
-      </c>
-      <c r="D234" s="29">
-        <v>39050</v>
+        <v>Walmsley.Amelia</v>
+      </c>
+      <c r="D234" s="28">
+        <v>35641</v>
       </c>
       <c r="E234" s="2">
-        <f>ROUNDDOWN((K229-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K215-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
       </c>
       <c r="F234" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G234" t="s">
         <v>197</v>
       </c>
       <c r="H234" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K234" s="1">
         <f t="shared" si="4"/>
@@ -47190,35 +51635,35 @@
       </c>
       <c r="L234" s="2">
         <f>ROUNDDOWN((K234-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C235" s="8" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Walters.Emma</v>
+      </c>
+      <c r="D235" s="28">
+        <v>38830</v>
+      </c>
+      <c r="E235" s="2">
+        <f>ROUNDDOWN((K216-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>131</v>
-      </c>
-      <c r="B235" t="s">
-        <v>60</v>
-      </c>
-      <c r="C235" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wells.Samuel</v>
-      </c>
-      <c r="D235" s="28">
-        <v>29892</v>
-      </c>
-      <c r="E235" s="2">
-        <f>ROUNDDOWN((K217-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>40</v>
-      </c>
       <c r="F235" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G235" t="s">
         <v>197</v>
       </c>
       <c r="H235" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K235" s="28">
         <f t="shared" si="4"/>
@@ -47226,29 +51671,29 @@
       </c>
       <c r="L235" s="2">
         <f>ROUNDDOWN((K235-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>90</v>
-      </c>
-      <c r="B236" t="s">
-        <v>91</v>
-      </c>
-      <c r="C236" t="str">
+      <c r="A236" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C236" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wheeler.Hugh</v>
-      </c>
-      <c r="D236" s="28">
-        <v>26124</v>
+        <v>Wallace.Edward</v>
+      </c>
+      <c r="D236" s="29">
+        <v>39050</v>
       </c>
       <c r="E236" s="2">
-        <f>ROUNDDOWN((K218-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K229-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F236" t="s">
         <v>50</v>
-      </c>
-      <c r="F236" t="s">
-        <v>51</v>
       </c>
       <c r="G236" t="s">
         <v>197</v>
@@ -47262,35 +51707,35 @@
       </c>
       <c r="L236" s="2">
         <f>ROUNDDOWN((K236-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B237" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C237" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wilson.Evelyn</v>
+        <v>Wells.Samuel</v>
       </c>
       <c r="D237" s="28">
-        <v>39128</v>
+        <v>29892</v>
       </c>
       <c r="E237" s="2">
-        <f>ROUNDDOWN((K219-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K217-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>40</v>
       </c>
       <c r="F237" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G237" t="s">
         <v>197</v>
       </c>
       <c r="H237" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K237" s="28">
         <f t="shared" si="4"/>
@@ -47298,35 +51743,35 @@
       </c>
       <c r="L237" s="2">
         <f>ROUNDDOWN((K237-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B238" t="s">
-        <v>449</v>
-      </c>
-      <c r="C238" s="8" t="str">
+        <v>91</v>
+      </c>
+      <c r="C238" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wilson.Seri</v>
+        <v>Wheeler.Hugh</v>
       </c>
       <c r="D238" s="28">
-        <v>32459</v>
+        <v>26124</v>
       </c>
       <c r="E238" s="2">
-        <f>ROUNDDOWN((K226-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>33</v>
+        <f>ROUNDDOWN((K218-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>50</v>
       </c>
       <c r="F238" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G238" t="s">
         <v>197</v>
       </c>
       <c r="H238" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K238" s="28">
         <f t="shared" si="4"/>
@@ -47334,35 +51779,35 @@
       </c>
       <c r="L238" s="2">
         <f>ROUNDDOWN((K238-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>457</v>
+        <v>116</v>
       </c>
       <c r="B239" t="s">
-        <v>458</v>
-      </c>
-      <c r="C239" s="8" t="str">
+        <v>117</v>
+      </c>
+      <c r="C239" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wisselink.Casper</v>
-      </c>
-      <c r="D239" s="29">
-        <v>41523</v>
+        <v>Wilson.Evelyn</v>
+      </c>
+      <c r="D239" s="28">
+        <v>39128</v>
       </c>
       <c r="E239" s="2">
-        <f>ROUNDDOWN((K230-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <f>ROUNDDOWN((K219-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G239" t="s">
         <v>197</v>
       </c>
       <c r="H239" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K239" s="28">
         <f t="shared" si="4"/>
@@ -47370,26 +51815,26 @@
       </c>
       <c r="L239" s="2">
         <f>ROUNDDOWN((K239-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B240" t="s">
-        <v>115</v>
-      </c>
-      <c r="C240" t="str">
+        <v>449</v>
+      </c>
+      <c r="C240" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wotherspoon.Alison</v>
+        <v>Wilson.Seri</v>
       </c>
       <c r="D240" s="28">
-        <v>22085</v>
+        <v>32459</v>
       </c>
       <c r="E240" s="2">
-        <f>ROUNDDOWN((K220-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>61</v>
+        <f>ROUNDDOWN((K226-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>33</v>
       </c>
       <c r="F240" t="s">
         <v>11</v>
@@ -47406,26 +51851,26 @@
       </c>
       <c r="L240" s="2">
         <f>ROUNDDOWN((K240-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>366</v>
+      <c r="A241" t="s">
+        <v>457</v>
+      </c>
+      <c r="B241" t="s">
+        <v>458</v>
       </c>
       <c r="C241" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Xiao.Edward</v>
-      </c>
-      <c r="D241" s="28">
-        <v>38742</v>
+        <v>Wisselink.Casper</v>
+      </c>
+      <c r="D241" s="29">
+        <v>41523</v>
       </c>
       <c r="E241" s="2">
-        <f>ROUNDDOWN((K221-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K230-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
       </c>
       <c r="F241" t="s">
         <v>11</v>
@@ -47442,35 +51887,35 @@
       </c>
       <c r="L241" s="2">
         <f>ROUNDDOWN((K241-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A242" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C242" s="8" t="str">
+      <c r="A242" t="s">
+        <v>108</v>
+      </c>
+      <c r="B242" t="s">
+        <v>115</v>
+      </c>
+      <c r="C242" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Xiao.Zhaoxuan</v>
+        <v>Wotherspoon.Alison</v>
       </c>
       <c r="D242" s="28">
-        <v>38742</v>
+        <v>22085</v>
       </c>
       <c r="E242" s="2">
-        <f>ROUNDDOWN((K222-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K220-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>61</v>
       </c>
       <c r="F242" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G242" t="s">
         <v>197</v>
       </c>
       <c r="H242" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K242" s="28">
         <f t="shared" si="4"/>
@@ -47478,197 +51923,231 @@
       </c>
       <c r="L242" s="2">
         <f>ROUNDDOWN((K242-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C243" s="8" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Xiao.Edward</v>
+      </c>
+      <c r="D243" s="28">
+        <v>38742</v>
+      </c>
+      <c r="E243" s="2">
+        <f>ROUNDDOWN((K221-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="F243" t="s">
+        <v>11</v>
+      </c>
+      <c r="G243" t="s">
+        <v>197</v>
+      </c>
+      <c r="H243" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C244" s="8" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Xiao.Zhaoxuan</v>
+      </c>
+      <c r="D244" s="28">
+        <v>38742</v>
+      </c>
+      <c r="E244" s="2">
+        <f>ROUNDDOWN((K222-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F244" t="s">
+        <v>49</v>
+      </c>
+      <c r="G244" t="s">
+        <v>197</v>
+      </c>
+      <c r="H244" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>174</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B245" t="s">
         <v>132</v>
       </c>
-      <c r="C243" t="str">
+      <c r="C245" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Yang.Luke</v>
       </c>
-      <c r="D243" s="28">
+      <c r="D245" s="28">
         <v>40399</v>
       </c>
-      <c r="E243" s="2">
+      <c r="E245" s="2">
         <f>ROUNDDOWN((K223-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>11</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G245" t="s">
         <v>197</v>
       </c>
-      <c r="H243" t="s">
+      <c r="H245" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>279</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B246" t="s">
         <v>280</v>
       </c>
-      <c r="C244" t="str">
+      <c r="C246" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Yeo.Doyoon</v>
       </c>
-      <c r="D244" s="28">
+      <c r="D246" s="28">
         <v>40454</v>
       </c>
-      <c r="E244" s="2">
+      <c r="E246" s="2">
         <f>ROUNDDOWN((K224-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>11</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G246" t="s">
         <v>197</v>
       </c>
-      <c r="H244" t="s">
+      <c r="H246" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>459</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B247" t="s">
         <v>460</v>
       </c>
-      <c r="C245" s="8" t="str">
+      <c r="C247" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Yoo.Hayome</v>
       </c>
-      <c r="D245" s="29">
+      <c r="D247" s="29">
         <v>41946</v>
       </c>
-      <c r="E245" s="2">
+      <c r="E247" s="2">
         <f>ROUNDDOWN((K236-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>7</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G247" t="s">
         <v>197</v>
       </c>
-      <c r="H245" t="s">
+      <c r="H247" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="9" t="s">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B248" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C246" s="8" t="str">
+      <c r="C248" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Yu.Jerry</v>
       </c>
-      <c r="D246" s="28">
+      <c r="D248" s="28">
         <v>37149</v>
       </c>
-      <c r="E246" s="2">
+      <c r="E248" s="2">
         <f>ROUNDDOWN((K225-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>20</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G248" t="s">
         <v>197</v>
       </c>
-      <c r="H246" t="s">
+      <c r="H248" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>92</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B249" t="s">
         <v>93</v>
       </c>
-      <c r="C247" t="str">
+      <c r="C249" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Zhang.Jiarui</v>
       </c>
-      <c r="D247" s="28">
+      <c r="D249" s="28">
         <v>38124</v>
       </c>
-      <c r="E247" s="2">
+      <c r="E249" s="2">
         <f>ROUNDDOWN((K226-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>17</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F249" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G249" t="s">
         <v>197</v>
       </c>
-      <c r="H247" t="s">
+      <c r="H249" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>303</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B250" t="s">
         <v>304</v>
       </c>
-      <c r="C248" t="str">
+      <c r="C250" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Zhdanovich.Maria</v>
       </c>
-      <c r="D248" s="28">
+      <c r="D250" s="28">
         <v>36468</v>
       </c>
-      <c r="E248" s="2">
+      <c r="E250" s="2">
         <f>ROUNDDOWN((K227-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>22</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G250" t="s">
         <v>197</v>
       </c>
-      <c r="H248" t="s">
+      <c r="H250" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C249" s="8" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>.</v>
-      </c>
-      <c r="D249" s="28"/>
-      <c r="E249" s="2">
-        <f>ROUNDDOWN((K230-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C250" s="8" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>.</v>
-      </c>
-      <c r="D250" s="28"/>
-      <c r="E250" s="2">
-        <f>ROUNDDOWN((K231-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>122</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -47678,7 +52157,7 @@
       </c>
       <c r="D251" s="28"/>
       <c r="E251" s="2">
-        <f>ROUNDDOWN((K232-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K230-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>122</v>
       </c>
     </row>
@@ -47689,7 +52168,7 @@
       </c>
       <c r="D252" s="28"/>
       <c r="E252" s="2">
-        <f>ROUNDDOWN((K233-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K231-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>122</v>
       </c>
     </row>
@@ -47700,7 +52179,7 @@
       </c>
       <c r="D253" s="28"/>
       <c r="E253" s="2">
-        <f>ROUNDDOWN((K234-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K232-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>122</v>
       </c>
     </row>
@@ -47711,7 +52190,7 @@
       </c>
       <c r="D254" s="28"/>
       <c r="E254" s="2">
-        <f>ROUNDDOWN((K235-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K233-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>122</v>
       </c>
     </row>
@@ -47722,6 +52201,28 @@
       </c>
       <c r="D255" s="28"/>
       <c r="E255" s="2">
+        <f>ROUNDDOWN((K234-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C256" s="8" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>.</v>
+      </c>
+      <c r="D256" s="28"/>
+      <c r="E256" s="2">
+        <f>ROUNDDOWN((K235-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="257" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C257" s="8" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>.</v>
+      </c>
+      <c r="D257" s="28"/>
+      <c r="E257" s="2">
         <f>ROUNDDOWN((K236-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>122</v>
       </c>

--- a/2022/FSARanking2022.xlsx
+++ b/2022/FSARanking2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED82C261-9203-4EBC-9CBD-6CB327CEF896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78194366-7AD1-46AD-997B-AA136F901EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9636" yWindow="1284" windowWidth="13404" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4987" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5191" uniqueCount="492">
   <si>
     <t>Ranking</t>
   </si>
@@ -2304,9 +2304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q574"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R557" sqref="R557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="M48" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="M49" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="M51" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N51" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="M52" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N52" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="M56" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N56" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="M66" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N66" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -10659,7 +10659,7 @@
       </c>
       <c r="M137" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N137" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -10718,7 +10718,7 @@
       </c>
       <c r="M138" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N138" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="M139" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N139" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="M143" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N143" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="M144" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N144" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="M145" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N145" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -11371,7 +11371,7 @@
       </c>
       <c r="M149" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N149" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="M153" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N153" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="M163" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N163" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="M164" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N164" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -12787,7 +12787,7 @@
       </c>
       <c r="M173" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N173" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="M177" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N177" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19127,7 +19127,7 @@
       </c>
       <c r="M279" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N279" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19246,7 +19246,7 @@
       </c>
       <c r="M281" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N281" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="M282" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N282" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19546,7 +19546,7 @@
       </c>
       <c r="M286" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N286" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="M287" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N287" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19666,7 +19666,7 @@
       </c>
       <c r="M288" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N288" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -19786,7 +19786,7 @@
       </c>
       <c r="M290" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N290" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -20206,7 +20206,7 @@
       </c>
       <c r="M297" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N297" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -20982,7 +20982,7 @@
       </c>
       <c r="M310" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N310" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21042,7 +21042,7 @@
       </c>
       <c r="M311" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N311" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21162,7 +21162,7 @@
       </c>
       <c r="M313" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N313" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21402,7 +21402,7 @@
       </c>
       <c r="M317" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N317" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21462,7 +21462,7 @@
       </c>
       <c r="M318" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N318" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21582,7 +21582,7 @@
       </c>
       <c r="M320" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N320" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21642,7 +21642,7 @@
       </c>
       <c r="M321" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N321" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21702,7 +21702,7 @@
       </c>
       <c r="M322" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N322" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21822,7 +21822,7 @@
       </c>
       <c r="M324" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N324" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21882,7 +21882,7 @@
       </c>
       <c r="M325" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N325" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22122,7 +22122,7 @@
       </c>
       <c r="M329" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N329" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22242,7 +22242,7 @@
       </c>
       <c r="M331" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N331" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22482,7 +22482,7 @@
       </c>
       <c r="M335" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N335" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22842,7 +22842,7 @@
       </c>
       <c r="M341" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N341" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -23082,7 +23082,7 @@
       </c>
       <c r="M345" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N345" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -23377,11 +23377,11 @@
       </c>
       <c r="M350" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N350" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O350" s="16">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L350=0,VLOOKUP(C350,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C350,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -23393,7 +23393,7 @@
       </c>
       <c r="Q350" s="17">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.3">
@@ -23436,7 +23436,7 @@
       </c>
       <c r="M351" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N351" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -23613,11 +23613,11 @@
       </c>
       <c r="M354" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N354" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O354" s="16">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L354=0,VLOOKUP(C354,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C354,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -23629,7 +23629,7 @@
       </c>
       <c r="Q354" s="17">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.3">
@@ -23849,7 +23849,7 @@
       </c>
       <c r="M358" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N358" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28582,7 +28582,7 @@
       </c>
       <c r="M437" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N437" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28641,7 +28641,7 @@
       </c>
       <c r="M438" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N438" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28877,11 +28877,11 @@
       </c>
       <c r="M442" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N442" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O442" s="16">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L442=0,VLOOKUP(C442,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C442,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -28893,7 +28893,7 @@
       </c>
       <c r="Q442" s="17">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="443" spans="1:17" x14ac:dyDescent="0.3">
@@ -28995,7 +28995,7 @@
       </c>
       <c r="M444" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N444" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29054,7 +29054,7 @@
       </c>
       <c r="M445" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N445" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29172,7 +29172,7 @@
       </c>
       <c r="M447" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N447" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29351,7 +29351,7 @@
       </c>
       <c r="M450" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N450" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29411,7 +29411,7 @@
       </c>
       <c r="M451" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N451" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29471,7 +29471,7 @@
       </c>
       <c r="M452" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N452" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29711,7 +29711,7 @@
       </c>
       <c r="M456" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N456" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29771,7 +29771,7 @@
       </c>
       <c r="M457" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N457" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29831,7 +29831,7 @@
       </c>
       <c r="M458" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N458" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29891,7 +29891,7 @@
       </c>
       <c r="M459" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N459" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30191,7 +30191,7 @@
       </c>
       <c r="M464" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N464" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30251,7 +30251,7 @@
       </c>
       <c r="M465" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N465" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30311,7 +30311,7 @@
       </c>
       <c r="M466" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N466" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30371,7 +30371,7 @@
       </c>
       <c r="M467" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N467" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30551,7 +30551,7 @@
       </c>
       <c r="M470" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N470" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30791,7 +30791,7 @@
       </c>
       <c r="M474" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N474" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30911,7 +30911,7 @@
       </c>
       <c r="M476" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N476" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30971,7 +30971,7 @@
       </c>
       <c r="M477" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N477" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31331,7 +31331,7 @@
       </c>
       <c r="M483" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N483" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31631,7 +31631,7 @@
       </c>
       <c r="M488" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N488" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -33931,993 +33931,1699 @@
       </c>
     </row>
     <row r="527" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A527" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B527" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C527" s="3">
+        <v>1</v>
+      </c>
       <c r="D527" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E527" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F527" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G527" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H527" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I527" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J527" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K527" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L527" s="24">
         <v>0</v>
       </c>
-      <c r="E527" s="30"/>
-      <c r="F527" s="31"/>
-      <c r="G527" s="10"/>
-      <c r="J527" s="13"/>
-      <c r="K527" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="M527" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N527" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O527" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L527=0,VLOOKUP(C527,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C527,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P527" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q527" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="528" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A528" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B528" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C528" s="3">
+        <v>2</v>
+      </c>
+      <c r="D528" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E528" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F528" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G528" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H528" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I528" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J528" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K528" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L528" s="24">
         <v>0</v>
       </c>
-      <c r="L527" s="24"/>
-      <c r="M527" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+      <c r="M528" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N528" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O528" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L528=0,VLOOKUP(C528,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C528,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P528" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q528" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="529" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A529" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B529" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C529" s="3">
+        <v>3</v>
+      </c>
+      <c r="D529" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E529" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F529" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G529" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H529" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I529" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J529" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K529" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L529" s="24">
         <v>0</v>
       </c>
-      <c r="N527" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O527" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L527=0,VLOOKUP(C527,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C527,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P527" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q527" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D528" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+      <c r="M529" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N529" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O529" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L529=0,VLOOKUP(C529,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C529,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P529" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q529" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="530" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A530" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B530" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C530" s="3">
+        <v>3</v>
+      </c>
+      <c r="D530" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E530" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F530" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G530" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H530" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I530" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J530" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K530" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L530" s="24">
         <v>0</v>
       </c>
-      <c r="E528" s="30"/>
-      <c r="F528" s="31"/>
-      <c r="G528" s="10"/>
-      <c r="J528" s="13"/>
-      <c r="K528" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="M530" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N530" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O530" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L530=0,VLOOKUP(C530,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C530,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P530" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q530" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="531" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A531" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B531" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C531" s="3">
+        <v>5</v>
+      </c>
+      <c r="D531" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E531" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F531" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G531" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H531" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I531" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J531" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K531" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L531" s="24">
         <v>0</v>
       </c>
-      <c r="L528" s="24"/>
-      <c r="M528" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+      <c r="M531" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N531" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O531" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L531=0,VLOOKUP(C531,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C531,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P531" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q531" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="532" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A532" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B532" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C532" s="3">
+        <v>6</v>
+      </c>
+      <c r="D532" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E532" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F532" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G532" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H532" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I532" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J532" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K532" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L532" s="24">
         <v>0</v>
       </c>
-      <c r="N528" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O528" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L528=0,VLOOKUP(C528,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C528,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P528" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q528" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="529" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D529" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+      <c r="M532" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N532" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O532" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L532=0,VLOOKUP(C532,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C532,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P532" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q532" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A533" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B533" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C533" s="3">
+        <v>7</v>
+      </c>
+      <c r="D533" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E533" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F533" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G533" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H533" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I533" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J533" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K533" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L533" s="24">
         <v>0</v>
       </c>
-      <c r="E529" s="30"/>
-      <c r="F529" s="31"/>
-      <c r="G529" s="10"/>
-      <c r="J529" s="13"/>
-      <c r="K529" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="M533" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N533" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O533" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L533=0,VLOOKUP(C533,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C533,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P533" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q533" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="534" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A534" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B534" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C534" s="3">
+        <v>8</v>
+      </c>
+      <c r="D534" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E534" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F534" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G534" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H534" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I534" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J534" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K534" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L534" s="24">
         <v>0</v>
       </c>
-      <c r="L529" s="24"/>
-      <c r="M529" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+      <c r="M534" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N534" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O534" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L534=0,VLOOKUP(C534,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C534,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P534" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q534" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="535" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A535" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B535" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C535" s="3">
+        <v>9</v>
+      </c>
+      <c r="D535" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E535" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F535" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G535" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H535" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I535" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J535" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K535" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L535" s="24">
         <v>0</v>
       </c>
-      <c r="N529" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O529" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L529=0,VLOOKUP(C529,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C529,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P529" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q529" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="530" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D530" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+      <c r="M535" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N535" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O535" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L535=0,VLOOKUP(C535,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C535,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>7</v>
+      </c>
+      <c r="P535" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q535" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A536" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B536" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C536" s="3">
+        <v>10</v>
+      </c>
+      <c r="D536" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>10</v>
+      </c>
+      <c r="E536" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F536" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G536" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H536" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I536" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J536" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K536" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L536" s="24">
         <v>0</v>
       </c>
-      <c r="E530" s="30"/>
-      <c r="F530" s="31"/>
-      <c r="G530" s="10"/>
-      <c r="J530" s="13"/>
-      <c r="K530" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="M536" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N536" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O536" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L536=0,VLOOKUP(C536,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C536,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>7</v>
+      </c>
+      <c r="P536" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q536" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A537" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B537" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C537" s="3">
+        <v>1</v>
+      </c>
+      <c r="D537" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E537" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F537" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G537" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H537" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I537" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J537" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K537" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L537" s="24">
         <v>0</v>
       </c>
-      <c r="L530" s="24"/>
-      <c r="M530" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+      <c r="M537" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N537" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O537" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L537=0,VLOOKUP(C537,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C537,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P537" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q537" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A538" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B538" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C538" s="3">
+        <v>2</v>
+      </c>
+      <c r="D538" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E538" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F538" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G538" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H538" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I538" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J538" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K538" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L538" s="24">
         <v>0</v>
       </c>
-      <c r="N530" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O530" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L530=0,VLOOKUP(C530,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C530,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P530" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q530" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="531" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D531" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+      <c r="M538" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N538" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O538" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L538=0,VLOOKUP(C538,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C538,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P538" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q538" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="539" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A539" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B539" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C539" s="3">
+        <v>3</v>
+      </c>
+      <c r="D539" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E539" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F539" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G539" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H539" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I539" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J539" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K539" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L539" s="24">
         <v>0</v>
       </c>
-      <c r="E531" s="30"/>
-      <c r="F531" s="31"/>
-      <c r="G531" s="10"/>
-      <c r="J531" s="13"/>
-      <c r="K531" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="M539" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N539" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O539" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L539=0,VLOOKUP(C539,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C539,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P539" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q539" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A540" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B540" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C540" s="3">
+        <v>1</v>
+      </c>
+      <c r="D540" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E540" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F540" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G540" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H540" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I540" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J540" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K540" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L540" s="24">
         <v>0</v>
       </c>
-      <c r="L531" s="24"/>
-      <c r="M531" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+      <c r="M540" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N540" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O540" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L540=0,VLOOKUP(C540,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C540,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P540" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q540" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>11.200000000000001</v>
+      </c>
+    </row>
+    <row r="541" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A541" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B541" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C541" s="3">
+        <v>2</v>
+      </c>
+      <c r="D541" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E541" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F541" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G541" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H541" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I541" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J541" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K541" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L541" s="24">
         <v>0</v>
       </c>
-      <c r="N531" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O531" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L531=0,VLOOKUP(C531,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C531,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P531" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q531" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="532" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D532" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+      <c r="M541" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N541" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O541" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L541=0,VLOOKUP(C541,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C541,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P541" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q541" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>9.2000000000000011</v>
+      </c>
+    </row>
+    <row r="542" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A542" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B542" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C542" s="3">
+        <v>1</v>
+      </c>
+      <c r="D542" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E542" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F542" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G542" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H542" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I542" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J542" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K542" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L542" s="24">
         <v>0</v>
       </c>
-      <c r="E532" s="30"/>
-      <c r="F532" s="31"/>
-      <c r="G532" s="10"/>
-      <c r="J532" s="13"/>
-      <c r="K532" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="M542" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N542" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O542" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L542=0,VLOOKUP(C542,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C542,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P542" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q542" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="543" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A543" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B543" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C543" s="3">
+        <v>2</v>
+      </c>
+      <c r="D543" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E543" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F543" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G543" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H543" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I543" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J543" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K543" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L543" s="24">
         <v>0</v>
       </c>
-      <c r="L532" s="24"/>
-      <c r="M532" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+      <c r="M543" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N543" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O543" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L543=0,VLOOKUP(C543,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C543,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P543" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q543" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="544" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A544" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B544" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C544" s="3">
+        <v>3</v>
+      </c>
+      <c r="D544" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E544" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F544" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G544" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H544" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I544" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J544" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K544" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>TPFC</v>
+      </c>
+      <c r="L544" s="24">
         <v>0</v>
       </c>
-      <c r="N532" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O532" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L532=0,VLOOKUP(C532,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C532,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P532" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q532" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="533" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D533" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+      <c r="M544" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N544" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O544" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L544=0,VLOOKUP(C544,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C544,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P544" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q544" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="545" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A545" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B545" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C545" s="3">
+        <v>3</v>
+      </c>
+      <c r="D545" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E545" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F545" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G545" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H545" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I545" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J545" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K545" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L545" s="24">
         <v>0</v>
       </c>
-      <c r="E533" s="30"/>
-      <c r="F533" s="31"/>
-      <c r="G533" s="10"/>
-      <c r="J533" s="13"/>
-      <c r="K533" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="M545" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N545" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O545" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P545" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q545" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="546" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A546" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B546" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C546" s="3">
+        <v>5</v>
+      </c>
+      <c r="D546" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E546" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F546" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G546" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H546" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I546" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J546" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K546" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L546" s="24">
         <v>0</v>
       </c>
-      <c r="L533" s="24"/>
-      <c r="M533" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+      <c r="M546" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N546" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O546" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P546" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q546" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A547" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B547" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C547" s="3">
+        <v>1</v>
+      </c>
+      <c r="D547" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E547" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F547" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G547" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H547" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I547" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J547" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K547" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L547" s="24">
         <v>0</v>
       </c>
-      <c r="N533" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O533" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L533=0,VLOOKUP(C533,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C533,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P533" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q533" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="534" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D534" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+      <c r="M547" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N547" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O547" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P547" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q547" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="548" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A548" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B548" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C548" s="3">
+        <v>2</v>
+      </c>
+      <c r="D548" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E548" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F548" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G548" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H548" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I548" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J548" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K548" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L548" s="24">
         <v>0</v>
       </c>
-      <c r="E534" s="30"/>
-      <c r="F534" s="31"/>
-      <c r="G534" s="10"/>
-      <c r="J534" s="13"/>
-      <c r="K534" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="M548" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N548" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O548" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L548=0,VLOOKUP(C548,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C548,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P548" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q548" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="549" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A549" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B549" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C549" s="3">
+        <v>3</v>
+      </c>
+      <c r="D549" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E549" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F549" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G549" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H549" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I549" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J549" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K549" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L549" s="24">
         <v>0</v>
       </c>
-      <c r="L534" s="24"/>
-      <c r="M534" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+      <c r="M549" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N549" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O549" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L549=0,VLOOKUP(C549,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C549,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P549" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q549" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A550" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B550" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C550" s="3">
+        <v>3</v>
+      </c>
+      <c r="D550" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E550" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F550" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G550" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H550" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I550" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J550" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K550" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L550" s="24">
         <v>0</v>
       </c>
-      <c r="N534" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O534" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L534=0,VLOOKUP(C534,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C534,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P534" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q534" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="535" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D535" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+      <c r="M550" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N550" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O550" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L550=0,VLOOKUP(C550,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C550,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P550" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q550" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A551" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B551" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C551" s="3">
+        <v>1</v>
+      </c>
+      <c r="D551" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E551" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F551" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G551" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H551" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I551" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J551" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K551" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L551" s="24">
         <v>0</v>
       </c>
-      <c r="E535" s="30"/>
-      <c r="F535" s="31"/>
-      <c r="G535" s="10"/>
-      <c r="J535" s="13"/>
-      <c r="K535" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="M551" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N551" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O551" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L551=0,VLOOKUP(C551,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C551,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P551" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q551" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A552" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B552" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C552" s="3">
+        <v>2</v>
+      </c>
+      <c r="D552" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E552" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F552" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G552" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H552" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I552" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J552" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K552" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L552" s="24">
         <v>0</v>
       </c>
-      <c r="L535" s="24"/>
-      <c r="M535" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+      <c r="M552" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N552" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O552" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L552=0,VLOOKUP(C552,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C552,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P552" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q552" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="553" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A553" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B553" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C553" s="3">
+        <v>3</v>
+      </c>
+      <c r="D553" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>1</v>
+      </c>
+      <c r="E553" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F553" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G553" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H553" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I553" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J553" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K553" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L553" s="24">
         <v>0</v>
       </c>
-      <c r="N535" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O535" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L535=0,VLOOKUP(C535,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C535,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P535" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q535" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="536" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D536" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+      <c r="M553" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N553" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O553" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L553=0,VLOOKUP(C553,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C553,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P553" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q553" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A554" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B554" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C554" s="3">
+        <v>3</v>
+      </c>
+      <c r="D554" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E554" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F554" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G554" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H554" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I554" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J554" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K554" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L554" s="24">
         <v>0</v>
       </c>
-      <c r="E536" s="30"/>
-      <c r="F536" s="31"/>
-      <c r="G536" s="10"/>
-      <c r="J536" s="13"/>
-      <c r="K536" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="M554" s="19">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N554" s="19">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O554" s="16">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L554=0,VLOOKUP(C554,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C554,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P554" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q554" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="555" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D555" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="L536" s="24"/>
-      <c r="M536" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N536" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O536" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L536=0,VLOOKUP(C536,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C536,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P536" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q536" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="537" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D537" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E537" s="30"/>
-      <c r="F537" s="31"/>
-      <c r="G537" s="10"/>
-      <c r="J537" s="13"/>
-      <c r="K537" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L537" s="24"/>
-      <c r="M537" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N537" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O537" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L537=0,VLOOKUP(C537,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C537,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P537" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q537" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="538" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D538" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E538" s="30"/>
-      <c r="F538" s="31"/>
-      <c r="G538" s="10"/>
-      <c r="J538" s="13"/>
-      <c r="K538" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L538" s="24"/>
-      <c r="M538" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N538" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O538" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L538=0,VLOOKUP(C538,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C538,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P538" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q538" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="539" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D539" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E539" s="30"/>
-      <c r="F539" s="31"/>
-      <c r="G539" s="10"/>
-      <c r="J539" s="13"/>
-      <c r="K539" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L539" s="24"/>
-      <c r="M539" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N539" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O539" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L539=0,VLOOKUP(C539,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C539,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P539" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q539" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="540" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D540" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E540" s="30"/>
-      <c r="F540" s="31"/>
-      <c r="G540" s="10"/>
-      <c r="J540" s="13"/>
-      <c r="K540" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L540" s="24"/>
-      <c r="M540" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N540" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O540" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L540=0,VLOOKUP(C540,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C540,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P540" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q540" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="541" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D541" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E541" s="30"/>
-      <c r="F541" s="31"/>
-      <c r="G541" s="10"/>
-      <c r="J541" s="13"/>
-      <c r="K541" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L541" s="24"/>
-      <c r="M541" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N541" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O541" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L541=0,VLOOKUP(C541,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C541,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P541" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q541" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="542" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D542" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E542" s="30"/>
-      <c r="F542" s="31"/>
-      <c r="G542" s="10"/>
-      <c r="J542" s="13"/>
-      <c r="K542" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L542" s="24"/>
-      <c r="M542" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N542" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O542" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L542=0,VLOOKUP(C542,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C542,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P542" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q542" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="543" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D543" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E543" s="30"/>
-      <c r="F543" s="31"/>
-      <c r="G543" s="10"/>
-      <c r="J543" s="13"/>
-      <c r="K543" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L543" s="24"/>
-      <c r="M543" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N543" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O543" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L543=0,VLOOKUP(C543,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C543,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P543" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q543" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="544" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D544" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E544" s="30"/>
-      <c r="F544" s="31"/>
-      <c r="G544" s="10"/>
-      <c r="J544" s="13"/>
-      <c r="K544" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L544" s="24"/>
-      <c r="M544" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N544" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O544" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L544=0,VLOOKUP(C544,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C544,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P544" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q544" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="545" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D545" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E545" s="30"/>
-      <c r="F545" s="31"/>
-      <c r="G545" s="10"/>
-      <c r="J545" s="13"/>
-      <c r="K545" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L545" s="24"/>
-      <c r="M545" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N545" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O545" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P545" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q545" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="546" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D546" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E546" s="30"/>
-      <c r="F546" s="31"/>
-      <c r="G546" s="10"/>
-      <c r="J546" s="13"/>
-      <c r="K546" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L546" s="24"/>
-      <c r="M546" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N546" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O546" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P546" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q546" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="547" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D547" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E547" s="30"/>
-      <c r="F547" s="31"/>
-      <c r="G547" s="10"/>
-      <c r="J547" s="13"/>
-      <c r="K547" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L547" s="24"/>
-      <c r="M547" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N547" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O547" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P547" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q547" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="548" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D548" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E548" s="30"/>
-      <c r="F548" s="31"/>
-      <c r="G548" s="10"/>
-      <c r="J548" s="13"/>
-      <c r="K548" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L548" s="24"/>
-      <c r="M548" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N548" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O548" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L548=0,VLOOKUP(C548,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C548,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P548" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q548" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="549" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D549" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E549" s="30"/>
-      <c r="F549" s="31"/>
-      <c r="G549" s="10"/>
-      <c r="J549" s="13"/>
-      <c r="K549" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L549" s="24"/>
-      <c r="M549" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N549" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O549" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L549=0,VLOOKUP(C549,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C549,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P549" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q549" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="550" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D550" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E550" s="30"/>
-      <c r="F550" s="31"/>
-      <c r="G550" s="10"/>
-      <c r="J550" s="13"/>
-      <c r="K550" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L550" s="24"/>
-      <c r="M550" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N550" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O550" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L550=0,VLOOKUP(C550,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C550,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P550" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q550" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="551" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D551" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E551" s="30"/>
-      <c r="F551" s="31"/>
-      <c r="G551" s="10"/>
-      <c r="J551" s="13"/>
-      <c r="K551" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L551" s="24"/>
-      <c r="M551" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N551" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O551" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L551=0,VLOOKUP(C551,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C551,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P551" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q551" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="552" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D552" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E552" s="30"/>
-      <c r="F552" s="31"/>
-      <c r="G552" s="10"/>
-      <c r="J552" s="13"/>
-      <c r="K552" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L552" s="24"/>
-      <c r="M552" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N552" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O552" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L552=0,VLOOKUP(C552,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C552,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P552" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q552" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="553" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D553" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E553" s="30"/>
-      <c r="F553" s="31"/>
-      <c r="G553" s="10"/>
-      <c r="J553" s="13"/>
-      <c r="K553" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L553" s="24"/>
-      <c r="M553" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N553" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O553" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L553=0,VLOOKUP(C553,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C553,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P553" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q553" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="554" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D554" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E554" s="30"/>
-      <c r="F554" s="31"/>
-      <c r="G554" s="10"/>
-      <c r="J554" s="13"/>
-      <c r="K554" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L554" s="24"/>
-      <c r="M554" s="19">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N554" s="19">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O554" s="16" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L554=0,VLOOKUP(C554,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C554,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P554" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q554" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="555" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D555" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E555" s="30"/>
-      <c r="F555" s="31"/>
-      <c r="G555" s="10"/>
+      <c r="E555" s="30">
+        <v>44780</v>
+      </c>
+      <c r="F555" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G555" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="J555" s="13"/>
       <c r="K555" s="32">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -34945,14 +35651,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="556" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D556" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
       <c r="E556" s="30"/>
-      <c r="F556" s="31"/>
-      <c r="G556" s="10"/>
+      <c r="F556" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G556" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="J556" s="13"/>
       <c r="K556" s="32">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -34980,14 +35690,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="557" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D557" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
       <c r="E557" s="30"/>
-      <c r="F557" s="31"/>
-      <c r="G557" s="10"/>
+      <c r="F557" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G557" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="J557" s="13"/>
       <c r="K557" s="32">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -35015,14 +35729,18 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="558" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D558" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
       <c r="E558" s="30"/>
-      <c r="F558" s="31"/>
-      <c r="G558" s="10"/>
+      <c r="F558" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G558" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="J558" s="13"/>
       <c r="K558" s="32">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -35050,7 +35768,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="559" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D559" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
@@ -35085,7 +35803,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="560" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D560" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>

--- a/2022/FSARanking2022.xlsx
+++ b/2022/FSARanking2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2088792D-639C-40A5-BBDF-990E88F3A0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BF4D14-0AF0-494E-AB1F-851EB6ABEC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5244" uniqueCount="518">
   <si>
     <t>Ranking</t>
   </si>
@@ -2383,8 +2383,8 @@
   <dimension ref="A1:Q564"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D413" sqref="D413"/>
+      <pane ySplit="1" topLeftCell="A525" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L539" sqref="L539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32035,7 +32035,7 @@
         <v>383</v>
       </c>
       <c r="G496" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H496" s="9" t="s">
         <v>319</v>
@@ -32095,7 +32095,7 @@
         <v>383</v>
       </c>
       <c r="G497" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H497" s="9" t="s">
         <v>319</v>
@@ -32155,7 +32155,7 @@
         <v>383</v>
       </c>
       <c r="G498" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H498" s="9" t="s">
         <v>319</v>
@@ -32215,7 +32215,7 @@
         <v>383</v>
       </c>
       <c r="G499" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H499" s="9" t="s">
         <v>319</v>
@@ -32275,7 +32275,7 @@
         <v>383</v>
       </c>
       <c r="G500" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H500" s="9" t="s">
         <v>319</v>
@@ -32335,7 +32335,7 @@
         <v>383</v>
       </c>
       <c r="G501" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H501" s="9" t="s">
         <v>320</v>
@@ -32395,7 +32395,7 @@
         <v>383</v>
       </c>
       <c r="G502" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H502" s="9" t="s">
         <v>320</v>
@@ -32455,7 +32455,7 @@
         <v>383</v>
       </c>
       <c r="G503" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H503" s="9" t="s">
         <v>320</v>
@@ -32515,7 +32515,7 @@
         <v>383</v>
       </c>
       <c r="G504" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H504" s="9" t="s">
         <v>320</v>
@@ -32575,7 +32575,7 @@
         <v>383</v>
       </c>
       <c r="G505" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H505" s="9" t="s">
         <v>322</v>
@@ -32635,7 +32635,7 @@
         <v>383</v>
       </c>
       <c r="G506" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H506" s="9" t="s">
         <v>322</v>
@@ -32695,7 +32695,7 @@
         <v>383</v>
       </c>
       <c r="G507" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H507" s="9" t="s">
         <v>322</v>
@@ -32755,7 +32755,7 @@
         <v>383</v>
       </c>
       <c r="G508" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H508" s="9" t="s">
         <v>322</v>
@@ -32815,7 +32815,7 @@
         <v>383</v>
       </c>
       <c r="G509" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H509" s="9" t="s">
         <v>322</v>
@@ -32875,7 +32875,7 @@
         <v>383</v>
       </c>
       <c r="G510" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H510" s="9" t="s">
         <v>322</v>
@@ -32935,7 +32935,7 @@
         <v>383</v>
       </c>
       <c r="G511" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H511" s="9" t="s">
         <v>322</v>
@@ -32995,7 +32995,7 @@
         <v>383</v>
       </c>
       <c r="G512" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H512" s="9" t="s">
         <v>322</v>
@@ -33055,7 +33055,7 @@
         <v>383</v>
       </c>
       <c r="G513" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H513" s="9" t="s">
         <v>322</v>
@@ -33115,7 +33115,7 @@
         <v>383</v>
       </c>
       <c r="G514" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H514" s="9" t="s">
         <v>322</v>
@@ -33175,7 +33175,7 @@
         <v>383</v>
       </c>
       <c r="G515" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H515" s="9" t="s">
         <v>322</v>
@@ -33235,7 +33235,7 @@
         <v>383</v>
       </c>
       <c r="G516" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H516" s="9" t="s">
         <v>322</v>
@@ -33295,7 +33295,7 @@
         <v>383</v>
       </c>
       <c r="G517" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H517" s="9" t="s">
         <v>322</v>
@@ -33355,7 +33355,7 @@
         <v>383</v>
       </c>
       <c r="G518" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H518" s="9" t="s">
         <v>322</v>
@@ -33415,7 +33415,7 @@
         <v>383</v>
       </c>
       <c r="G519" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H519" s="9" t="s">
         <v>322</v>
@@ -33475,7 +33475,7 @@
         <v>383</v>
       </c>
       <c r="G520" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H520" s="9" t="s">
         <v>322</v>
@@ -33535,7 +33535,7 @@
         <v>383</v>
       </c>
       <c r="G521" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H521" s="9" t="s">
         <v>322</v>
@@ -33595,7 +33595,7 @@
         <v>383</v>
       </c>
       <c r="G522" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H522" s="9" t="s">
         <v>322</v>
@@ -33655,7 +33655,7 @@
         <v>383</v>
       </c>
       <c r="G523" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H523" s="9" t="s">
         <v>322</v>
@@ -33715,7 +33715,7 @@
         <v>383</v>
       </c>
       <c r="G524" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H524" s="9" t="s">
         <v>322</v>
@@ -33775,7 +33775,7 @@
         <v>383</v>
       </c>
       <c r="G525" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H525" s="9" t="s">
         <v>319</v>
@@ -33835,7 +33835,7 @@
         <v>383</v>
       </c>
       <c r="G526" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H526" s="9" t="s">
         <v>319</v>
@@ -33895,7 +33895,7 @@
         <v>383</v>
       </c>
       <c r="G527" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H527" s="9" t="s">
         <v>319</v>
@@ -33955,7 +33955,7 @@
         <v>383</v>
       </c>
       <c r="G528" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H528" s="9" t="s">
         <v>319</v>
@@ -34015,7 +34015,7 @@
         <v>383</v>
       </c>
       <c r="G529" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H529" s="9" t="s">
         <v>320</v>
@@ -34075,7 +34075,7 @@
         <v>383</v>
       </c>
       <c r="G530" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H530" s="9" t="s">
         <v>320</v>
@@ -34135,7 +34135,7 @@
         <v>383</v>
       </c>
       <c r="G531" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H531" s="9" t="s">
         <v>320</v>
@@ -34195,7 +34195,7 @@
         <v>383</v>
       </c>
       <c r="G532" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H532" s="9" t="s">
         <v>320</v>
@@ -34255,7 +34255,7 @@
         <v>383</v>
       </c>
       <c r="G533" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H533" s="9" t="s">
         <v>322</v>
@@ -34315,7 +34315,7 @@
         <v>383</v>
       </c>
       <c r="G534" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H534" s="9" t="s">
         <v>322</v>
@@ -34375,7 +34375,7 @@
         <v>383</v>
       </c>
       <c r="G535" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H535" s="9" t="s">
         <v>322</v>
@@ -34435,7 +34435,7 @@
         <v>383</v>
       </c>
       <c r="G536" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H536" s="9" t="s">
         <v>322</v>
@@ -34495,7 +34495,7 @@
         <v>383</v>
       </c>
       <c r="G537" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H537" s="9" t="s">
         <v>322</v>
@@ -34535,38 +34535,62 @@
       </c>
     </row>
     <row r="538" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A538" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B538" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C538" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D538" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E538" s="30"/>
-      <c r="F538" s="31"/>
-      <c r="G538" s="10"/>
-      <c r="J538" s="13"/>
-      <c r="K538" s="32">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L538" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="E538" s="30">
+        <v>44822</v>
+      </c>
+      <c r="F538" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G538" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H538" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I538" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J538" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K538" s="32" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L538" s="24">
+        <v>1</v>
+      </c>
       <c r="M538" s="19">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N538" s="19">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
-      <c r="O538" s="16" t="e">
+      <c r="O538" s="16">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L538=0,VLOOKUP(C538,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C538,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P538" s="16" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q538" s="17" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="P538" s="16">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q538" s="17">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:17" x14ac:dyDescent="0.3">

--- a/2022/FSARanking2022.xlsx
+++ b/2022/FSARanking2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814FD47F-16D0-4418-B19A-6DA3DF6AA50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650523B0-3BA9-42C0-9941-62F9B8157050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9888" yWindow="2808" windowWidth="13404" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5069" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5127" uniqueCount="520">
   <si>
     <t>Ranking</t>
   </si>
@@ -1605,6 +1605,9 @@
   </si>
   <si>
     <t>Pring</t>
+  </si>
+  <si>
+    <t>AFC 3</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1684,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1715,6 +1718,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Bold text" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1949,8 +1953,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q524" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:Q524" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q547" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:Q547" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{23BBF0BD-A33F-49F8-8541-D359B73C9AAA}" uniqueName="LastName" name="LastName">
       <xmlColumnPr mapId="6" xpath="/results/result/LastName" xmlDataType="string"/>
@@ -2370,11 +2374,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q674"/>
+  <dimension ref="A1:Q682"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K502" sqref="K502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29223,29 +29227,28 @@
     </row>
     <row r="449" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A449" s="9" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C449" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D449" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E449" s="26">
-        <v>44822</v>
+        <v>44800</v>
       </c>
       <c r="F449" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G449" s="10" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="H449" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I449" s="9" t="s">
         <v>285</v>
@@ -29255,57 +29258,56 @@
       </c>
       <c r="K449" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AUFeC</v>
       </c>
       <c r="L449" s="22">
         <v>1</v>
       </c>
       <c r="M449" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N449" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O449" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L449=0,VLOOKUP(C449,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C449,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P449" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q449" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A450" s="9" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C450" s="3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D450" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E450" s="26">
-        <v>44822</v>
+        <v>44800</v>
       </c>
       <c r="F450" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G450" s="10" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="H450" s="9" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="I450" s="9" t="s">
         <v>285</v>
@@ -29315,67 +29317,66 @@
       </c>
       <c r="K450" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AUFeC</v>
       </c>
       <c r="L450" s="22">
         <v>1</v>
       </c>
       <c r="M450" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N450" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O450" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L450=0,VLOOKUP(C450,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C450,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="P450" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q450" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A451" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C451" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D451" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E451" s="26">
-        <v>44822</v>
+        <v>44800</v>
       </c>
       <c r="F451" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G451" s="10" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="H451" s="9" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="I451" s="9" t="s">
         <v>285</v>
       </c>
       <c r="J451" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K451" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L451" s="22">
         <v>1</v>
@@ -29390,59 +29391,58 @@
       </c>
       <c r="O451" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L451=0,VLOOKUP(C451,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C451,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="P451" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q451" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>19.2</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="452" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A452" s="9" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>444</v>
+        <v>115</v>
       </c>
       <c r="C452" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D452" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E452" s="26">
-        <v>44822</v>
+        <v>44800</v>
       </c>
       <c r="F452" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G452" s="10" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="H452" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I452" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J452" s="14" t="s">
         <v>315</v>
       </c>
       <c r="K452" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L452" s="22">
         <v>1</v>
       </c>
       <c r="M452" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N452" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29450,59 +29450,58 @@
       </c>
       <c r="O452" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L452=0,VLOOKUP(C452,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C452,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P452" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Q452" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>15.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="453" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A453" s="9" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C453" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D453" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E453" s="26">
-        <v>44822</v>
+        <v>44800</v>
       </c>
       <c r="F453" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G453" s="10" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="H453" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I453" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J453" s="14" t="s">
         <v>315</v>
       </c>
       <c r="K453" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>ASC</v>
       </c>
       <c r="L453" s="22">
         <v>1</v>
       </c>
       <c r="M453" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N453" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29510,42 +29509,41 @@
       </c>
       <c r="O453" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L453=0,VLOOKUP(C453,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C453,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P453" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="Q453" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="454" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A454" s="9" t="s">
-        <v>373</v>
+        <v>145</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="C454" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D454" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E454" s="26">
-        <v>44822</v>
+        <v>44800</v>
       </c>
       <c r="F454" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G454" s="10" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="H454" s="9" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="I454" s="9" t="s">
         <v>285</v>
@@ -29555,74 +29553,73 @@
       </c>
       <c r="K454" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L454" s="22">
         <v>1</v>
       </c>
       <c r="M454" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N454" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O454" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L454=0,VLOOKUP(C454,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C454,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="P454" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="Q454" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>25.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A455" s="9" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>444</v>
+        <v>32</v>
       </c>
       <c r="C455" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D455" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E455" s="26">
-        <v>44822</v>
+        <v>44800</v>
       </c>
       <c r="F455" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G455" s="10" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="H455" s="9" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="I455" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J455" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K455" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L455" s="22">
         <v>1</v>
       </c>
       <c r="M455" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N455" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29630,59 +29627,58 @@
       </c>
       <c r="O455" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L455=0,VLOOKUP(C455,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C455,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P455" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q455" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>20.8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="456" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A456" s="9" t="s">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="C456" s="3">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D456" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E456" s="26">
-        <v>44822</v>
+        <v>44800</v>
       </c>
       <c r="F456" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G456" s="10" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="H456" s="9" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="I456" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J456" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K456" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L456" s="22">
         <v>1</v>
       </c>
       <c r="M456" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N456" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29690,30 +29686,30 @@
       </c>
       <c r="O456" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L456=0,VLOOKUP(C456,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C456,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P456" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q456" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>16</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="457" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A457" s="9" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C457" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D457" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E457" s="26">
         <v>44822</v>
@@ -29725,17 +29721,17 @@
         <v>390</v>
       </c>
       <c r="H457" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I457" s="9" t="s">
         <v>285</v>
       </c>
       <c r="J457" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K457" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>ASC</v>
       </c>
       <c r="L457" s="22">
         <v>1</v>
@@ -29750,30 +29746,30 @@
       </c>
       <c r="O457" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L457=0,VLOOKUP(C457,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C457,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="P457" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q457" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>16</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="458" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A458" s="9" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="C458" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D458" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E458" s="26">
         <v>44822</v>
@@ -29785,24 +29781,24 @@
         <v>390</v>
       </c>
       <c r="H458" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I458" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J458" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K458" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>FUFC</v>
+        <v>ASC</v>
       </c>
       <c r="L458" s="22">
         <v>1</v>
       </c>
       <c r="M458" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N458" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29810,30 +29806,30 @@
       </c>
       <c r="O458" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L458=0,VLOOKUP(C458,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C458,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P458" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q458" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>32</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="459" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A459" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>507</v>
+        <v>373</v>
+      </c>
+      <c r="B459" s="9" t="s">
+        <v>374</v>
       </c>
       <c r="C459" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D459" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E459" s="26">
         <v>44822</v>
@@ -29845,24 +29841,24 @@
         <v>390</v>
       </c>
       <c r="H459" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I459" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J459" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K459" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>FUFC</v>
+        <v>CSFC</v>
       </c>
       <c r="L459" s="22">
         <v>1</v>
       </c>
       <c r="M459" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N459" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29870,30 +29866,30 @@
       </c>
       <c r="O459" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L459=0,VLOOKUP(C459,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C459,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P459" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Q459" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>26</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="460" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A460" s="9" t="s">
-        <v>375</v>
+        <v>123</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="C460" s="3">
+        <v>2</v>
+      </c>
+      <c r="D460" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>3</v>
-      </c>
-      <c r="D460" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>9</v>
       </c>
       <c r="E460" s="26">
         <v>44822</v>
@@ -29905,17 +29901,17 @@
         <v>390</v>
       </c>
       <c r="H460" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I460" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J460" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K460" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L460" s="22">
         <v>1</v>
@@ -29930,30 +29926,30 @@
       </c>
       <c r="O460" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L460=0,VLOOKUP(C460,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C460,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P460" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Q460" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>20</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="461" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A461" s="9" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="C461" s="3">
         <v>3</v>
       </c>
       <c r="D461" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E461" s="26">
         <v>44822</v>
@@ -29965,13 +29961,13 @@
         <v>390</v>
       </c>
       <c r="H461" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I461" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J461" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K461" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -29982,7 +29978,7 @@
       </c>
       <c r="M461" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N461" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29994,26 +29990,26 @@
       </c>
       <c r="P461" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Q461" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="462" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A462" s="9" t="s">
-        <v>464</v>
+        <v>373</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C462" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D462" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E462" s="26">
         <v>44822</v>
@@ -30025,24 +30021,24 @@
         <v>390</v>
       </c>
       <c r="H462" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I462" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J462" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K462" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>CSFC</v>
       </c>
       <c r="L462" s="22">
         <v>1</v>
       </c>
       <c r="M462" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N462" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30050,30 +30046,30 @@
       </c>
       <c r="O462" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L462=0,VLOOKUP(C462,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C462,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="P462" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q462" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="463" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A463" s="9" t="s">
-        <v>509</v>
+        <v>123</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>140</v>
+        <v>444</v>
       </c>
       <c r="C463" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D463" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E463" s="26">
         <v>44822</v>
@@ -30085,24 +30081,24 @@
         <v>390</v>
       </c>
       <c r="H463" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I463" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J463" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K463" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L463" s="22">
         <v>1</v>
       </c>
       <c r="M463" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N463" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30110,30 +30106,30 @@
       </c>
       <c r="O463" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L463=0,VLOOKUP(C463,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C463,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P463" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q463" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="464" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A464" s="9" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="C464" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D464" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E464" s="26">
         <v>44822</v>
@@ -30145,24 +30141,24 @@
         <v>390</v>
       </c>
       <c r="H464" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I464" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J464" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K464" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L464" s="22">
         <v>1</v>
       </c>
       <c r="M464" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N464" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30170,30 +30166,30 @@
       </c>
       <c r="O464" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L464=0,VLOOKUP(C464,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C464,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P464" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q464" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="465" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A465" s="9" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="C465" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D465" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E465" s="26">
         <v>44822</v>
@@ -30205,17 +30201,17 @@
         <v>390</v>
       </c>
       <c r="H465" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I465" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J465" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K465" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AHFC</v>
       </c>
       <c r="L465" s="22">
         <v>1</v>
@@ -30230,26 +30226,26 @@
       </c>
       <c r="O465" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L465=0,VLOOKUP(C465,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C465,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P465" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q465" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="466" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A466" s="9" t="s">
-        <v>438</v>
+        <v>201</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>510</v>
+        <v>203</v>
       </c>
       <c r="C466" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D466" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -30275,14 +30271,14 @@
       </c>
       <c r="K466" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>FUFC</v>
       </c>
       <c r="L466" s="22">
         <v>1</v>
       </c>
       <c r="M466" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N466" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30290,7 +30286,7 @@
       </c>
       <c r="O466" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L466=0,VLOOKUP(C466,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C466,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="P466" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -30298,22 +30294,22 @@
       </c>
       <c r="Q466" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="467" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A467" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B467" s="9" t="s">
-        <v>135</v>
+        <v>508</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="C467" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D467" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E467" s="26">
         <v>44822</v>
@@ -30331,18 +30327,18 @@
         <v>287</v>
       </c>
       <c r="J467" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K467" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>FUFC</v>
       </c>
       <c r="L467" s="22">
         <v>1</v>
       </c>
       <c r="M467" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N467" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30350,30 +30346,30 @@
       </c>
       <c r="O467" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L467=0,VLOOKUP(C467,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C467,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P467" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q467" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>25.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="468" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A468" s="9" t="s">
-        <v>165</v>
+        <v>375</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>171</v>
+        <v>376</v>
       </c>
       <c r="C468" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D468" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E468" s="26">
         <v>44822</v>
@@ -30391,18 +30387,18 @@
         <v>287</v>
       </c>
       <c r="J468" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K468" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>ASC</v>
       </c>
       <c r="L468" s="22">
         <v>1</v>
       </c>
       <c r="M468" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N468" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30410,30 +30406,30 @@
       </c>
       <c r="O468" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L468=0,VLOOKUP(C468,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C468,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P468" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q468" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>20.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="469" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A469" s="9" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C469" s="3">
         <v>3</v>
       </c>
       <c r="D469" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E469" s="26">
         <v>44822</v>
@@ -30451,18 +30447,18 @@
         <v>287</v>
       </c>
       <c r="J469" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K469" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AHFC</v>
       </c>
       <c r="L469" s="22">
         <v>1</v>
       </c>
       <c r="M469" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N469" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30474,26 +30470,26 @@
       </c>
       <c r="P469" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q469" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="470" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A470" s="9" t="s">
-        <v>55</v>
+        <v>464</v>
       </c>
       <c r="B470" s="9" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="C470" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D470" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E470" s="26">
         <v>44822</v>
@@ -30511,18 +30507,18 @@
         <v>287</v>
       </c>
       <c r="J470" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K470" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AHFC</v>
       </c>
       <c r="L470" s="22">
         <v>1</v>
       </c>
       <c r="M470" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N470" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30530,30 +30526,30 @@
       </c>
       <c r="O470" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L470=0,VLOOKUP(C470,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C470,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P470" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q470" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="471" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A471" s="9" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="B471" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C471" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D471" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E471" s="26">
         <v>44822</v>
@@ -30568,7 +30564,7 @@
         <v>322</v>
       </c>
       <c r="I471" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J471" s="14" t="s">
         <v>316</v>
@@ -30582,7 +30578,7 @@
       </c>
       <c r="M471" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N471" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30590,30 +30586,30 @@
       </c>
       <c r="O471" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L471=0,VLOOKUP(C471,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C471,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="P471" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Q471" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>19.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="472" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A472" s="9" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C472" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D472" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E472" s="26">
         <v>44822</v>
@@ -30628,14 +30624,14 @@
         <v>322</v>
       </c>
       <c r="I472" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J472" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K472" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>TPFC</v>
+        <v>ASC</v>
       </c>
       <c r="L472" s="22">
         <v>1</v>
@@ -30650,30 +30646,30 @@
       </c>
       <c r="O472" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L472=0,VLOOKUP(C472,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C472,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P472" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Q472" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>15.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="473" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A473" s="9" t="s">
-        <v>375</v>
+        <v>129</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="C473" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D473" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E473" s="26">
         <v>44822</v>
@@ -30688,7 +30684,7 @@
         <v>322</v>
       </c>
       <c r="I473" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J473" s="14" t="s">
         <v>316</v>
@@ -30710,30 +30706,30 @@
       </c>
       <c r="O473" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L473=0,VLOOKUP(C473,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C473,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P473" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Q473" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="474" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A474" s="9" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>374</v>
+        <v>510</v>
       </c>
       <c r="C474" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D474" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E474" s="26">
         <v>44822</v>
@@ -30748,21 +30744,21 @@
         <v>322</v>
       </c>
       <c r="I474" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J474" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K474" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>AHFC</v>
       </c>
       <c r="L474" s="22">
         <v>1</v>
       </c>
       <c r="M474" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N474" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30770,26 +30766,26 @@
       </c>
       <c r="O474" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L474=0,VLOOKUP(C474,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C474,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="P474" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q474" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>25.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="475" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A475" s="9" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="C475" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D475" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -30808,21 +30804,21 @@
         <v>322</v>
       </c>
       <c r="I475" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J475" s="14" t="s">
         <v>315</v>
       </c>
       <c r="K475" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L475" s="22">
         <v>1</v>
       </c>
       <c r="M475" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N475" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30830,7 +30826,7 @@
       </c>
       <c r="O475" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L475=0,VLOOKUP(C475,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C475,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P475" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -30838,18 +30834,18 @@
       </c>
       <c r="Q475" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>20.8</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="476" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A476" s="9" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>444</v>
+        <v>171</v>
       </c>
       <c r="C476" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D476" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -30868,14 +30864,14 @@
         <v>322</v>
       </c>
       <c r="I476" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J476" s="14" t="s">
         <v>315</v>
       </c>
       <c r="K476" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>AHFC</v>
       </c>
       <c r="L476" s="22">
         <v>1</v>
@@ -30890,7 +30886,7 @@
       </c>
       <c r="O476" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L476=0,VLOOKUP(C476,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C476,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P476" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -30898,15 +30894,15 @@
       </c>
       <c r="Q476" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>16</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="477" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A477" s="9" t="s">
-        <v>512</v>
+        <v>108</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>511</v>
+        <v>115</v>
       </c>
       <c r="C477" s="3">
         <v>3</v>
@@ -30928,21 +30924,21 @@
         <v>322</v>
       </c>
       <c r="I477" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J477" s="14" t="s">
         <v>315</v>
       </c>
       <c r="K477" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>ASC</v>
       </c>
       <c r="L477" s="22">
         <v>1</v>
       </c>
       <c r="M477" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N477" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -30963,17 +30959,17 @@
     </row>
     <row r="478" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A478" s="9" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>135</v>
+        <v>448</v>
       </c>
       <c r="C478" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D478" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E478" s="26">
         <v>44822</v>
@@ -30985,7 +30981,7 @@
         <v>390</v>
       </c>
       <c r="H478" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I478" s="9" t="s">
         <v>287</v>
@@ -31010,30 +31006,30 @@
       </c>
       <c r="O478" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L478=0,VLOOKUP(C478,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C478,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P478" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Q478" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="479" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A479" s="9" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C479" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D479" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E479" s="26">
         <v>44822</v>
@@ -31045,17 +31041,17 @@
         <v>390</v>
       </c>
       <c r="H479" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I479" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J479" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K479" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>ASC</v>
       </c>
       <c r="L479" s="22">
         <v>1</v>
@@ -31070,30 +31066,30 @@
       </c>
       <c r="O479" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L479=0,VLOOKUP(C479,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C479,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P479" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Q479" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>10.4</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="480" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A480" s="9" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C480" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D480" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E480" s="26">
         <v>44822</v>
@@ -31105,24 +31101,24 @@
         <v>390</v>
       </c>
       <c r="H480" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I480" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J480" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K480" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>TPFC</v>
       </c>
       <c r="L480" s="22">
         <v>1</v>
       </c>
       <c r="M480" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N480" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31130,30 +31126,30 @@
       </c>
       <c r="O480" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L480=0,VLOOKUP(C480,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C480,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P480" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Q480" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12.8</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="481" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A481" s="9" t="s">
-        <v>129</v>
+        <v>375</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="C481" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D481" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E481" s="26">
         <v>44822</v>
@@ -31165,10 +31161,10 @@
         <v>390</v>
       </c>
       <c r="H481" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I481" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J481" s="14" t="s">
         <v>316</v>
@@ -31190,23 +31186,23 @@
       </c>
       <c r="O481" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L481=0,VLOOKUP(C481,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C481,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P481" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Q481" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>10.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="482" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A482" s="9" t="s">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c r="B482" s="9" t="s">
-        <v>32</v>
+        <v>374</v>
       </c>
       <c r="C482" s="3">
         <v>1</v>
@@ -31225,24 +31221,24 @@
         <v>390</v>
       </c>
       <c r="H482" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I482" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J482" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K482" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L482" s="22">
         <v>1</v>
       </c>
       <c r="M482" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N482" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31263,10 +31259,10 @@
     </row>
     <row r="483" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A483" s="9" t="s">
-        <v>508</v>
+        <v>180</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>507</v>
+        <v>181</v>
       </c>
       <c r="C483" s="3">
         <v>2</v>
@@ -31285,24 +31281,24 @@
         <v>390</v>
       </c>
       <c r="H483" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I483" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J483" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K483" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>FUFC</v>
+        <v>CSFC</v>
       </c>
       <c r="L483" s="22">
         <v>1</v>
       </c>
       <c r="M483" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N483" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31323,10 +31319,10 @@
     </row>
     <row r="484" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A484" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="C484" s="3">
         <v>3</v>
@@ -31345,24 +31341,24 @@
         <v>390</v>
       </c>
       <c r="H484" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I484" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J484" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K484" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L484" s="22">
         <v>1</v>
       </c>
       <c r="M484" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N484" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31383,10 +31379,10 @@
     </row>
     <row r="485" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A485" s="9" t="s">
-        <v>30</v>
+        <v>512</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>89</v>
+        <v>511</v>
       </c>
       <c r="C485" s="3">
         <v>3</v>
@@ -31405,13 +31401,13 @@
         <v>390</v>
       </c>
       <c r="H485" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I485" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J485" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K485" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -31422,7 +31418,7 @@
       </c>
       <c r="M485" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N485" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31443,17 +31439,17 @@
     </row>
     <row r="486" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A486" s="9" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C486" s="3">
         <v>1</v>
       </c>
       <c r="D486" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E486" s="26">
         <v>44822</v>
@@ -31465,17 +31461,17 @@
         <v>390</v>
       </c>
       <c r="H486" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I486" s="9" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="J486" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K486" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L486" s="22">
         <v>1</v>
@@ -31494,26 +31490,26 @@
       </c>
       <c r="P486" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q486" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>32</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="487" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A487" s="9" t="s">
-        <v>469</v>
+        <v>165</v>
       </c>
       <c r="B487" s="9" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="C487" s="3">
         <v>2</v>
       </c>
       <c r="D487" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E487" s="26">
         <v>44822</v>
@@ -31525,24 +31521,24 @@
         <v>390</v>
       </c>
       <c r="H487" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I487" s="9" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="J487" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K487" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>TPFC</v>
+        <v>AHFC</v>
       </c>
       <c r="L487" s="22">
         <v>1</v>
       </c>
       <c r="M487" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N487" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31554,26 +31550,26 @@
       </c>
       <c r="P487" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q487" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>26</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="488" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A488" s="9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B488" s="9" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C488" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D488" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E488" s="26">
         <v>44822</v>
@@ -31585,10 +31581,10 @@
         <v>390</v>
       </c>
       <c r="H488" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I488" s="9" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="J488" s="14" t="s">
         <v>316</v>
@@ -31602,7 +31598,7 @@
       </c>
       <c r="M488" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N488" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31610,30 +31606,30 @@
       </c>
       <c r="O488" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L488=0,VLOOKUP(C488,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C488,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="P488" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q488" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>20</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="489" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A489" s="9" t="s">
-        <v>513</v>
+        <v>129</v>
       </c>
       <c r="B489" s="9" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="C489" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D489" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E489" s="26">
         <v>44822</v>
@@ -31645,17 +31641,17 @@
         <v>390</v>
       </c>
       <c r="H489" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I489" s="9" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="J489" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K489" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L489" s="22">
         <v>1</v>
@@ -31670,30 +31666,30 @@
       </c>
       <c r="O489" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L489=0,VLOOKUP(C489,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C489,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P489" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q489" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>20</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A490" s="9" t="s">
-        <v>514</v>
+        <v>19</v>
       </c>
       <c r="B490" s="9" t="s">
-        <v>515</v>
+        <v>32</v>
       </c>
       <c r="C490" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D490" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E490" s="26">
         <v>44822</v>
@@ -31705,24 +31701,24 @@
         <v>390</v>
       </c>
       <c r="H490" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I490" s="9" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="J490" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K490" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>FUFC</v>
+        <v>ASC</v>
       </c>
       <c r="L490" s="22">
         <v>1</v>
       </c>
       <c r="M490" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N490" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31730,29 +31726,30 @@
       </c>
       <c r="O490" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L490=0,VLOOKUP(C490,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C490,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="P490" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q490" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="491" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A491" s="9" t="s">
-        <v>61</v>
+        <v>508</v>
       </c>
       <c r="B491" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C491" s="9" t="s">
-        <v>17</v>
+        <v>507</v>
+      </c>
+      <c r="C491" s="3">
+        <v>2</v>
       </c>
       <c r="D491" s="12">
-        <v>1</v>
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
       </c>
       <c r="E491" s="26">
         <v>44822</v>
@@ -31764,17 +31761,17 @@
         <v>390</v>
       </c>
       <c r="H491" s="9" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="I491" s="9" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="J491" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K491" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>FUFC</v>
       </c>
       <c r="L491" s="22">
         <v>1</v>
@@ -31789,42 +31786,42 @@
       </c>
       <c r="O491" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L491=0,VLOOKUP(C491,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C491,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="P491" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q491" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="492" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A492" s="9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C492" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D492" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E492" s="26">
-        <v>44842</v>
+        <v>44822</v>
       </c>
       <c r="F492" s="27" t="s">
         <v>383</v>
       </c>
       <c r="G492" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H492" s="9" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="I492" s="9" t="s">
         <v>287</v>
@@ -31837,11 +31834,11 @@
         <v>ASC</v>
       </c>
       <c r="L492" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M492" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N492" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31849,42 +31846,42 @@
       </c>
       <c r="O492" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L492=0,VLOOKUP(C492,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C492,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P492" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q492" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="493" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A493" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B493" s="9" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C493" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D493" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E493" s="26">
-        <v>44842</v>
+        <v>44822</v>
       </c>
       <c r="F493" s="27" t="s">
         <v>383</v>
       </c>
       <c r="G493" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H493" s="9" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="I493" s="9" t="s">
         <v>287</v>
@@ -31894,14 +31891,14 @@
       </c>
       <c r="K493" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AHFC</v>
       </c>
       <c r="L493" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M493" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N493" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31909,59 +31906,59 @@
       </c>
       <c r="O493" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L493=0,VLOOKUP(C493,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C493,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P493" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q493" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="494" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A494" s="9" t="s">
-        <v>329</v>
+        <v>61</v>
       </c>
       <c r="B494" s="9" t="s">
-        <v>318</v>
+        <v>65</v>
       </c>
       <c r="C494" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D494" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E494" s="26">
-        <v>44842</v>
+        <v>44822</v>
       </c>
       <c r="F494" s="27" t="s">
         <v>383</v>
       </c>
       <c r="G494" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H494" s="9" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="I494" s="9" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="J494" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K494" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L494" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M494" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N494" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -31969,7 +31966,7 @@
       </c>
       <c r="O494" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L494=0,VLOOKUP(C494,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C494,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="P494" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31977,51 +31974,51 @@
       </c>
       <c r="Q494" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="495" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A495" s="9" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="B495" s="9" t="s">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C495" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D495" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E495" s="26">
-        <v>44842</v>
+        <v>44822</v>
       </c>
       <c r="F495" s="27" t="s">
         <v>383</v>
       </c>
       <c r="G495" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H495" s="9" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="I495" s="9" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="J495" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K495" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>TPFC</v>
       </c>
       <c r="L495" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M495" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N495" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32029,7 +32026,7 @@
       </c>
       <c r="O495" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L495=0,VLOOKUP(C495,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C495,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P495" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32037,51 +32034,51 @@
       </c>
       <c r="Q495" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="496" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A496" s="9" t="s">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="B496" s="9" t="s">
-        <v>310</v>
+        <v>71</v>
       </c>
       <c r="C496" s="3">
+        <v>3</v>
+      </c>
+      <c r="D496" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>5</v>
       </c>
-      <c r="D496" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>10</v>
-      </c>
       <c r="E496" s="26">
-        <v>44842</v>
+        <v>44822</v>
       </c>
       <c r="F496" s="27" t="s">
         <v>383</v>
       </c>
       <c r="G496" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H496" s="9" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="I496" s="9" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="J496" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K496" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AHFC</v>
       </c>
       <c r="L496" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M496" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N496" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32089,7 +32086,7 @@
       </c>
       <c r="O496" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L496=0,VLOOKUP(C496,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C496,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P496" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32097,51 +32094,51 @@
       </c>
       <c r="Q496" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="497" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A497" s="9" t="s">
-        <v>375</v>
+        <v>513</v>
       </c>
       <c r="B497" s="9" t="s">
-        <v>376</v>
+        <v>150</v>
       </c>
       <c r="C497" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D497" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E497" s="26">
-        <v>44842</v>
+        <v>44822</v>
       </c>
       <c r="F497" s="27" t="s">
         <v>383</v>
       </c>
       <c r="G497" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H497" s="9" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="I497" s="9" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="J497" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K497" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L497" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M497" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N497" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32149,7 +32146,7 @@
       </c>
       <c r="O497" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L497=0,VLOOKUP(C497,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C497,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P497" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32157,47 +32154,47 @@
       </c>
       <c r="Q497" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="498" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A498" s="9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B498" s="9" t="s">
-        <v>41</v>
+        <v>515</v>
       </c>
       <c r="C498" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D498" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E498" s="26">
-        <v>44842</v>
+        <v>44822</v>
       </c>
       <c r="F498" s="27" t="s">
         <v>383</v>
       </c>
       <c r="G498" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H498" s="9" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="I498" s="9" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="J498" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="K498" s="28" t="e">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>316</v>
+      </c>
+      <c r="K498" s="28" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>FUFC</v>
       </c>
       <c r="L498" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M498" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
@@ -32209,59 +32206,58 @@
       </c>
       <c r="O498" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L498=0,VLOOKUP(C498,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C498,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P498" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q498" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>4.8000000000000007</v>
+        <v>14</v>
       </c>
     </row>
     <row r="499" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A499" s="9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B499" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C499" s="3">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="C499" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D499" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E499" s="26">
-        <v>44842</v>
+        <v>44822</v>
       </c>
       <c r="F499" s="27" t="s">
         <v>383</v>
       </c>
       <c r="G499" s="10" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="H499" s="9" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="I499" s="9" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="J499" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K499" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L499" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M499" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N499" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32269,7 +32265,7 @@
       </c>
       <c r="O499" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L499=0,VLOOKUP(C499,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C499,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P499" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32277,18 +32273,18 @@
       </c>
       <c r="Q499" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A500" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B500" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C500" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D500" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -32329,7 +32325,7 @@
       </c>
       <c r="O500" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L500=0,VLOOKUP(C500,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C500,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="P500" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32337,18 +32333,18 @@
       </c>
       <c r="Q500" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="501" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A501" s="9" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="B501" s="9" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="C501" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D501" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -32381,7 +32377,7 @@
       </c>
       <c r="M501" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N501" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32389,7 +32385,7 @@
       </c>
       <c r="O501" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L501=0,VLOOKUP(C501,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C501,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="P501" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32397,18 +32393,18 @@
       </c>
       <c r="Q501" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="502" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A502" s="9" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="C502" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D502" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -32449,7 +32445,7 @@
       </c>
       <c r="O502" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L502=0,VLOOKUP(C502,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C502,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P502" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32457,22 +32453,22 @@
       </c>
       <c r="Q502" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="503" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A503" s="9" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C503" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D503" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E503" s="26">
         <v>44842</v>
@@ -32490,11 +32486,11 @@
         <v>287</v>
       </c>
       <c r="J503" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K503" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L503" s="22">
         <v>0</v>
@@ -32509,30 +32505,30 @@
       </c>
       <c r="O503" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L503=0,VLOOKUP(C503,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C503,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P503" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q503" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>2.8000000000000003</v>
+        <v>18</v>
       </c>
     </row>
     <row r="504" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A504" s="9" t="s">
-        <v>518</v>
+        <v>309</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="C504" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D504" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E504" s="26">
         <v>44842</v>
@@ -32547,21 +32543,21 @@
         <v>305</v>
       </c>
       <c r="I504" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J504" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="K504" s="28" t="e">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>#N/A</v>
+      <c r="K504" s="28" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
       </c>
       <c r="L504" s="22">
         <v>0</v>
       </c>
       <c r="M504" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N504" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32569,7 +32565,7 @@
       </c>
       <c r="O504" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L504=0,VLOOKUP(C504,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C504,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="P504" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32577,22 +32573,22 @@
       </c>
       <c r="Q504" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="505" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A505" s="9" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C505" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D505" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E505" s="26">
         <v>44842</v>
@@ -32607,7 +32603,7 @@
         <v>305</v>
       </c>
       <c r="I505" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J505" s="14" t="s">
         <v>316</v>
@@ -32621,7 +32617,7 @@
       </c>
       <c r="M505" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N505" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32629,7 +32625,7 @@
       </c>
       <c r="O505" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L505=0,VLOOKUP(C505,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C505,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="P505" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32637,22 +32633,22 @@
       </c>
       <c r="Q505" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="506" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A506" s="9" t="s">
-        <v>54</v>
+        <v>517</v>
       </c>
       <c r="B506" s="9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C506" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D506" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E506" s="26">
         <v>44842</v>
@@ -32667,14 +32663,13 @@
         <v>305</v>
       </c>
       <c r="I506" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J506" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="K506" s="28" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>315</v>
+      </c>
+      <c r="K506" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="L506" s="22">
         <v>0</v>
@@ -32689,30 +32684,30 @@
       </c>
       <c r="O506" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L506=0,VLOOKUP(C506,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C506,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P506" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q506" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="507" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A507" s="9" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B507" s="9" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="C507" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D507" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E507" s="26">
         <v>44842</v>
@@ -32727,7 +32722,7 @@
         <v>305</v>
       </c>
       <c r="I507" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J507" s="14" t="s">
         <v>316</v>
@@ -32741,7 +32736,7 @@
       </c>
       <c r="M507" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N507" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32749,7 +32744,7 @@
       </c>
       <c r="O507" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L507=0,VLOOKUP(C507,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C507,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P507" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32757,22 +32752,22 @@
       </c>
       <c r="Q507" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="508" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A508" s="9" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="B508" s="9" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C508" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D508" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E508" s="26">
         <v>44842</v>
@@ -32787,21 +32782,21 @@
         <v>305</v>
       </c>
       <c r="I508" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J508" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K508" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L508" s="22">
         <v>0</v>
       </c>
       <c r="M508" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N508" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32809,7 +32804,7 @@
       </c>
       <c r="O508" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L508=0,VLOOKUP(C508,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C508,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P508" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32817,22 +32812,22 @@
       </c>
       <c r="Q508" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="509" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A509" s="9" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B509" s="9" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C509" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D509" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E509" s="26">
         <v>44842</v>
@@ -32847,21 +32842,21 @@
         <v>305</v>
       </c>
       <c r="I509" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J509" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K509" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>TPFC</v>
+        <v>ASC</v>
       </c>
       <c r="L509" s="22">
         <v>0</v>
       </c>
       <c r="M509" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N509" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32869,7 +32864,7 @@
       </c>
       <c r="O509" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L509=0,VLOOKUP(C509,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C509,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P509" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32877,22 +32872,22 @@
       </c>
       <c r="Q509" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="510" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A510" s="9" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B510" s="9" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="C510" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D510" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E510" s="26">
         <v>44842</v>
@@ -32907,10 +32902,10 @@
         <v>305</v>
       </c>
       <c r="I510" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J510" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K510" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -32921,7 +32916,7 @@
       </c>
       <c r="M510" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N510" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32929,7 +32924,7 @@
       </c>
       <c r="O510" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L510=0,VLOOKUP(C510,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C510,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="P510" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32937,22 +32932,22 @@
       </c>
       <c r="Q510" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="511" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A511" s="9" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B511" s="9" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="C511" s="3">
+        <v>12</v>
+      </c>
+      <c r="D511" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>2</v>
-      </c>
-      <c r="D511" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
       </c>
       <c r="E511" s="26">
         <v>44842</v>
@@ -32967,7 +32962,7 @@
         <v>305</v>
       </c>
       <c r="I511" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J511" s="14" t="s">
         <v>315</v>
@@ -32989,30 +32984,30 @@
       </c>
       <c r="O511" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L511=0,VLOOKUP(C511,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C511,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="P511" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q511" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>23</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="512" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A512" s="9" t="s">
-        <v>180</v>
+        <v>518</v>
       </c>
       <c r="B512" s="9" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="C512" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D512" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E512" s="26">
         <v>44842</v>
@@ -33030,18 +33025,17 @@
         <v>285</v>
       </c>
       <c r="J512" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="K512" s="28" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>316</v>
+      </c>
+      <c r="K512" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="L512" s="22">
         <v>0</v>
       </c>
       <c r="M512" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N512" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -33049,7 +33043,7 @@
       </c>
       <c r="O512" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L512=0,VLOOKUP(C512,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C512,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P512" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33057,22 +33051,22 @@
       </c>
       <c r="Q512" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="513" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A513" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B513" s="9" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C513" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D513" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E513" s="26">
         <v>44842</v>
@@ -33090,18 +33084,18 @@
         <v>285</v>
       </c>
       <c r="J513" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K513" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L513" s="22">
         <v>0</v>
       </c>
       <c r="M513" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N513" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -33109,7 +33103,7 @@
       </c>
       <c r="O513" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L513=0,VLOOKUP(C513,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C513,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P513" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33117,22 +33111,22 @@
       </c>
       <c r="Q513" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="514" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A514" s="9" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="B514" s="9" t="s">
-        <v>444</v>
+        <v>55</v>
       </c>
       <c r="C514" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D514" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E514" s="26">
         <v>44842</v>
@@ -33150,18 +33144,18 @@
         <v>285</v>
       </c>
       <c r="J514" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K514" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L514" s="22">
         <v>0</v>
       </c>
       <c r="M514" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N514" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -33169,7 +33163,7 @@
       </c>
       <c r="O514" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L514=0,VLOOKUP(C514,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C514,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P514" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33177,22 +33171,22 @@
       </c>
       <c r="Q514" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="515" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A515" s="9" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B515" s="9" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="C515" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D515" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E515" s="26">
         <v>44842</v>
@@ -33204,17 +33198,17 @@
         <v>283</v>
       </c>
       <c r="H515" s="9" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I515" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J515" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K515" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L515" s="22">
         <v>0</v>
@@ -33229,30 +33223,30 @@
       </c>
       <c r="O515" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L515=0,VLOOKUP(C515,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C515,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P515" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q515" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>22.400000000000002</v>
+        <v>18</v>
       </c>
     </row>
     <row r="516" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A516" s="9" t="s">
-        <v>329</v>
+        <v>61</v>
       </c>
       <c r="B516" s="9" t="s">
-        <v>318</v>
+        <v>65</v>
       </c>
       <c r="C516" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D516" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E516" s="26">
         <v>44842</v>
@@ -33264,24 +33258,24 @@
         <v>283</v>
       </c>
       <c r="H516" s="9" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I516" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J516" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K516" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L516" s="22">
         <v>0</v>
       </c>
       <c r="M516" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N516" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -33289,30 +33283,30 @@
       </c>
       <c r="O516" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L516=0,VLOOKUP(C516,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C516,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="P516" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q516" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18.400000000000002</v>
+        <v>12</v>
       </c>
     </row>
     <row r="517" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A517" s="9" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="B517" s="9" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="C517" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D517" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E517" s="26">
         <v>44842</v>
@@ -33324,24 +33318,24 @@
         <v>283</v>
       </c>
       <c r="H517" s="9" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I517" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J517" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K517" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>TPFC</v>
       </c>
       <c r="L517" s="22">
         <v>0</v>
       </c>
       <c r="M517" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N517" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -33349,30 +33343,30 @@
       </c>
       <c r="O517" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L517=0,VLOOKUP(C517,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C517,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P517" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q517" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="518" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A518" s="9" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B518" s="9" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C518" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D518" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E518" s="26">
         <v>44842</v>
@@ -33384,13 +33378,13 @@
         <v>283</v>
       </c>
       <c r="H518" s="9" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I518" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J518" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K518" s="28" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -33401,7 +33395,7 @@
       </c>
       <c r="M518" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N518" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -33409,30 +33403,30 @@
       </c>
       <c r="O518" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L518=0,VLOOKUP(C518,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C518,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P518" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q518" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14.4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="519" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A519" s="9" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B519" s="9" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C519" s="3">
+        <v>2</v>
+      </c>
+      <c r="D519" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>5</v>
-      </c>
-      <c r="D519" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>1</v>
       </c>
       <c r="E519" s="26">
         <v>44842</v>
@@ -33444,10 +33438,10 @@
         <v>283</v>
       </c>
       <c r="H519" s="9" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I519" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J519" s="14" t="s">
         <v>315</v>
@@ -33469,513 +33463,1196 @@
       </c>
       <c r="O519" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L519=0,VLOOKUP(C519,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C519,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P519" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q519" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="520" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A520" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B520" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C520" s="3">
+        <v>3</v>
+      </c>
+      <c r="D520" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E520" s="26">
+        <v>44842</v>
+      </c>
+      <c r="F520" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G520" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H520" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I520" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J520" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K520" s="28" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L520" s="22">
+        <v>0</v>
+      </c>
+      <c r="M520" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N520" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O520" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L520=0,VLOOKUP(C520,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C520,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P520" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q520" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="521" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A521" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B521" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C521" s="3">
+        <v>3</v>
+      </c>
+      <c r="D521" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E521" s="26">
+        <v>44842</v>
+      </c>
+      <c r="F521" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G521" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H521" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I521" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J521" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K521" s="28" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L521" s="22">
+        <v>0</v>
+      </c>
+      <c r="M521" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N521" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O521" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L521=0,VLOOKUP(C521,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C521,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P521" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q521" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="522" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A522" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B522" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C522" s="3">
+        <v>5</v>
+      </c>
+      <c r="D522" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E522" s="26">
+        <v>44842</v>
+      </c>
+      <c r="F522" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G522" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H522" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I522" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J522" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K522" s="28" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L522" s="22">
+        <v>0</v>
+      </c>
+      <c r="M522" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N522" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O522" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L522=0,VLOOKUP(C522,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C522,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>12</v>
       </c>
-      <c r="P519" s="15">
+      <c r="P522" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q522" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="523" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A523" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B523" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C523" s="3">
+        <v>1</v>
+      </c>
+      <c r="D523" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E523" s="26">
+        <v>44842</v>
+      </c>
+      <c r="F523" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G523" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H523" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I523" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J523" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K523" s="28" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L523" s="22">
+        <v>0</v>
+      </c>
+      <c r="M523" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N523" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O523" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L523=0,VLOOKUP(C523,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C523,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P523" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q523" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="524" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A524" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B524" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C524" s="3">
+        <v>2</v>
+      </c>
+      <c r="D524" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E524" s="26">
+        <v>44842</v>
+      </c>
+      <c r="F524" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G524" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H524" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I524" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J524" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K524" s="28" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L524" s="22">
+        <v>0</v>
+      </c>
+      <c r="M524" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N524" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O524" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L524=0,VLOOKUP(C524,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C524,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P524" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q524" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="525" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A525" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B525" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C525" s="3">
+        <v>3</v>
+      </c>
+      <c r="D525" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E525" s="26">
+        <v>44842</v>
+      </c>
+      <c r="F525" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G525" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H525" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I525" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J525" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K525" s="28" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L525" s="22">
+        <v>0</v>
+      </c>
+      <c r="M525" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N525" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O525" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L525=0,VLOOKUP(C525,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C525,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P525" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q525" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A526" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B526" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C526" s="3">
+        <v>3</v>
+      </c>
+      <c r="D526" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E526" s="26">
+        <v>44842</v>
+      </c>
+      <c r="F526" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G526" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H526" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I526" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J526" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K526" s="28" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L526" s="22">
+        <v>0</v>
+      </c>
+      <c r="M526" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N526" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O526" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L526=0,VLOOKUP(C526,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C526,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P526" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q526" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A527" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B527" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C527" s="3">
+        <v>5</v>
+      </c>
+      <c r="D527" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>1</v>
+      </c>
+      <c r="E527" s="26">
+        <v>44842</v>
+      </c>
+      <c r="F527" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G527" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H527" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I527" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J527" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K527" s="28" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L527" s="22">
+        <v>0</v>
+      </c>
+      <c r="M527" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N527" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O527" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L527=0,VLOOKUP(C527,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C527,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P527" s="15">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>0.2</v>
       </c>
-      <c r="Q519" s="16">
+      <c r="Q527" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D520" s="12">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D528" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E520" s="26"/>
-      <c r="F520" s="27"/>
-      <c r="G520" s="10"/>
-      <c r="J520" s="13"/>
-      <c r="K520" s="28">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L520" s="22"/>
-      <c r="M520" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N520" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O520" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L520=0,VLOOKUP(C520,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C520,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P520" s="15" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q520" s="16" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D521" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E521" s="26"/>
-      <c r="F521" s="27"/>
-      <c r="G521" s="10"/>
-      <c r="J521" s="13"/>
-      <c r="K521" s="28">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L521" s="22"/>
-      <c r="M521" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N521" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O521" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L521=0,VLOOKUP(C521,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C521,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P521" s="15" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q521" s="16" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D522" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E522" s="26"/>
-      <c r="F522" s="27"/>
-      <c r="G522" s="10"/>
-      <c r="J522" s="13"/>
-      <c r="K522" s="28">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L522" s="22"/>
-      <c r="M522" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N522" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O522" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L522=0,VLOOKUP(C522,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C522,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P522" s="15" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q522" s="16" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D523" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E523" s="26"/>
-      <c r="F523" s="27"/>
-      <c r="G523" s="10"/>
-      <c r="J523" s="13"/>
-      <c r="K523" s="28">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L523" s="22"/>
-      <c r="M523" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N523" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O523" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L523=0,VLOOKUP(C523,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C523,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P523" s="15" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q523" s="16" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D524" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E524" s="26"/>
-      <c r="F524" s="27"/>
-      <c r="G524" s="10"/>
-      <c r="J524" s="13"/>
-      <c r="K524" s="28">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L524" s="22"/>
-      <c r="M524" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N524" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O524" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L524=0,VLOOKUP(C524,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C524,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P524" s="15" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q524" s="16" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D525" s="12"/>
-      <c r="E525" s="26"/>
-      <c r="F525" s="27"/>
-      <c r="G525" s="10"/>
-      <c r="J525" s="13"/>
-      <c r="K525" s="28"/>
-      <c r="L525" s="22"/>
-      <c r="M525" s="18"/>
-      <c r="N525" s="18"/>
-      <c r="O525" s="15"/>
-      <c r="P525" s="15"/>
-      <c r="Q525" s="16"/>
-    </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D526" s="12"/>
-      <c r="E526" s="26"/>
-      <c r="F526" s="27"/>
-      <c r="G526" s="10"/>
-      <c r="J526" s="13"/>
-      <c r="K526" s="28"/>
-      <c r="L526" s="22"/>
-      <c r="M526" s="18"/>
-      <c r="N526" s="18"/>
-      <c r="O526" s="15"/>
-      <c r="P526" s="15"/>
-      <c r="Q526" s="16"/>
-    </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D527" s="12"/>
-      <c r="E527" s="26"/>
-      <c r="F527" s="27"/>
-      <c r="G527" s="10"/>
-      <c r="J527" s="13"/>
-      <c r="K527" s="28"/>
-      <c r="L527" s="22"/>
-      <c r="M527" s="18"/>
-      <c r="N527" s="18"/>
-      <c r="O527" s="15"/>
-      <c r="P527" s="15"/>
-      <c r="Q527" s="16"/>
-    </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D528" s="12"/>
       <c r="E528" s="26"/>
       <c r="F528" s="27"/>
       <c r="G528" s="10"/>
       <c r="J528" s="13"/>
-      <c r="K528" s="28"/>
+      <c r="K528" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L528" s="22"/>
-      <c r="M528" s="18"/>
-      <c r="N528" s="18"/>
-      <c r="O528" s="15"/>
-      <c r="P528" s="15"/>
-      <c r="Q528" s="16"/>
+      <c r="M528" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N528" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O528" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L528=0,VLOOKUP(C528,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C528,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P528" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q528" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="529" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D529" s="12"/>
+      <c r="D529" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E529" s="26"/>
       <c r="F529" s="27"/>
       <c r="G529" s="10"/>
       <c r="J529" s="13"/>
-      <c r="K529" s="28"/>
+      <c r="K529" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L529" s="22"/>
-      <c r="M529" s="18"/>
-      <c r="N529" s="18"/>
-      <c r="O529" s="15"/>
-      <c r="P529" s="15"/>
-      <c r="Q529" s="16"/>
+      <c r="M529" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N529" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O529" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L529=0,VLOOKUP(C529,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C529,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P529" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q529" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="530" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D530" s="12"/>
+      <c r="D530" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E530" s="26"/>
       <c r="F530" s="27"/>
       <c r="G530" s="10"/>
       <c r="J530" s="13"/>
-      <c r="K530" s="28"/>
+      <c r="K530" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L530" s="22"/>
-      <c r="M530" s="18"/>
-      <c r="N530" s="18"/>
-      <c r="O530" s="15"/>
-      <c r="P530" s="15"/>
-      <c r="Q530" s="16"/>
+      <c r="M530" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N530" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O530" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L530=0,VLOOKUP(C530,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C530,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P530" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q530" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="531" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D531" s="12"/>
+      <c r="D531" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E531" s="26"/>
       <c r="F531" s="27"/>
       <c r="G531" s="10"/>
       <c r="J531" s="13"/>
-      <c r="K531" s="28"/>
+      <c r="K531" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L531" s="22"/>
-      <c r="M531" s="18"/>
-      <c r="N531" s="18"/>
-      <c r="O531" s="15"/>
-      <c r="P531" s="15"/>
-      <c r="Q531" s="16"/>
+      <c r="M531" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N531" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O531" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L531=0,VLOOKUP(C531,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C531,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P531" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q531" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="532" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D532" s="12"/>
+      <c r="D532" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E532" s="26"/>
       <c r="F532" s="27"/>
       <c r="G532" s="10"/>
       <c r="J532" s="13"/>
-      <c r="K532" s="28"/>
+      <c r="K532" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L532" s="22"/>
-      <c r="M532" s="18"/>
-      <c r="N532" s="18"/>
-      <c r="O532" s="15"/>
-      <c r="P532" s="15"/>
-      <c r="Q532" s="16"/>
+      <c r="M532" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N532" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O532" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L532=0,VLOOKUP(C532,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C532,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P532" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q532" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="533" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D533" s="12"/>
+      <c r="D533" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E533" s="26"/>
       <c r="F533" s="27"/>
       <c r="G533" s="10"/>
       <c r="J533" s="13"/>
-      <c r="K533" s="28"/>
+      <c r="K533" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L533" s="22"/>
-      <c r="M533" s="18"/>
-      <c r="N533" s="18"/>
-      <c r="O533" s="15"/>
-      <c r="P533" s="15"/>
-      <c r="Q533" s="16"/>
+      <c r="M533" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N533" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O533" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L533=0,VLOOKUP(C533,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C533,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P533" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q533" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="534" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D534" s="12"/>
+      <c r="D534" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E534" s="26"/>
       <c r="F534" s="27"/>
       <c r="G534" s="10"/>
       <c r="J534" s="13"/>
-      <c r="K534" s="28"/>
+      <c r="K534" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L534" s="22"/>
-      <c r="M534" s="18"/>
-      <c r="N534" s="18"/>
-      <c r="O534" s="15"/>
-      <c r="P534" s="15"/>
-      <c r="Q534" s="16"/>
+      <c r="M534" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N534" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O534" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L534=0,VLOOKUP(C534,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C534,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P534" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q534" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="535" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D535" s="12"/>
+      <c r="D535" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E535" s="26"/>
       <c r="F535" s="27"/>
       <c r="G535" s="10"/>
       <c r="J535" s="13"/>
-      <c r="K535" s="28"/>
+      <c r="K535" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L535" s="22"/>
-      <c r="M535" s="18"/>
-      <c r="N535" s="18"/>
-      <c r="O535" s="15"/>
-      <c r="P535" s="15"/>
-      <c r="Q535" s="16"/>
+      <c r="M535" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N535" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O535" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L535=0,VLOOKUP(C535,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C535,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P535" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q535" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="536" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D536" s="12"/>
+      <c r="D536" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E536" s="26"/>
       <c r="F536" s="27"/>
       <c r="G536" s="10"/>
       <c r="J536" s="13"/>
-      <c r="K536" s="28"/>
+      <c r="K536" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L536" s="22"/>
-      <c r="M536" s="18"/>
-      <c r="N536" s="18"/>
-      <c r="O536" s="15"/>
-      <c r="P536" s="15"/>
-      <c r="Q536" s="16"/>
+      <c r="M536" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N536" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O536" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L536=0,VLOOKUP(C536,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C536,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P536" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q536" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="537" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D537" s="12"/>
+      <c r="D537" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E537" s="26"/>
       <c r="F537" s="27"/>
       <c r="G537" s="10"/>
       <c r="J537" s="13"/>
-      <c r="K537" s="28"/>
+      <c r="K537" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L537" s="22"/>
-      <c r="M537" s="18"/>
-      <c r="N537" s="18"/>
-      <c r="O537" s="15"/>
-      <c r="P537" s="15"/>
-      <c r="Q537" s="16"/>
+      <c r="M537" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N537" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O537" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L537=0,VLOOKUP(C537,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C537,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P537" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q537" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="538" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D538" s="12"/>
+      <c r="D538" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E538" s="26"/>
       <c r="F538" s="27"/>
       <c r="G538" s="10"/>
       <c r="J538" s="13"/>
-      <c r="K538" s="28"/>
+      <c r="K538" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L538" s="22"/>
-      <c r="M538" s="18"/>
-      <c r="N538" s="18"/>
-      <c r="O538" s="15"/>
-      <c r="P538" s="15"/>
-      <c r="Q538" s="16"/>
+      <c r="M538" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N538" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O538" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L538=0,VLOOKUP(C538,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C538,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P538" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q538" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="539" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D539" s="12"/>
+      <c r="D539" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E539" s="26"/>
       <c r="F539" s="27"/>
       <c r="G539" s="10"/>
       <c r="J539" s="13"/>
-      <c r="K539" s="28"/>
+      <c r="K539" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L539" s="22"/>
-      <c r="M539" s="18"/>
-      <c r="N539" s="18"/>
-      <c r="O539" s="15"/>
-      <c r="P539" s="15"/>
-      <c r="Q539" s="16"/>
+      <c r="M539" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N539" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O539" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L539=0,VLOOKUP(C539,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C539,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P539" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q539" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="540" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D540" s="12"/>
+      <c r="D540" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E540" s="26"/>
       <c r="F540" s="27"/>
       <c r="G540" s="10"/>
       <c r="J540" s="13"/>
-      <c r="K540" s="28"/>
+      <c r="K540" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L540" s="22"/>
-      <c r="M540" s="18"/>
-      <c r="N540" s="18"/>
-      <c r="O540" s="15"/>
-      <c r="P540" s="15"/>
-      <c r="Q540" s="16"/>
+      <c r="M540" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N540" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O540" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L540=0,VLOOKUP(C540,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C540,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P540" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q540" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="541" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D541" s="12"/>
+      <c r="D541" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E541" s="26"/>
       <c r="F541" s="27"/>
       <c r="G541" s="10"/>
       <c r="J541" s="13"/>
-      <c r="K541" s="28"/>
+      <c r="K541" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L541" s="22"/>
-      <c r="M541" s="18"/>
-      <c r="N541" s="18"/>
-      <c r="O541" s="15"/>
-      <c r="P541" s="15"/>
-      <c r="Q541" s="16"/>
+      <c r="M541" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N541" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O541" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L541=0,VLOOKUP(C541,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C541,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P541" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q541" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="542" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D542" s="12"/>
+      <c r="D542" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E542" s="26"/>
       <c r="F542" s="27"/>
       <c r="G542" s="10"/>
       <c r="J542" s="13"/>
-      <c r="K542" s="28"/>
+      <c r="K542" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L542" s="22"/>
-      <c r="M542" s="18"/>
-      <c r="N542" s="18"/>
-      <c r="O542" s="15"/>
-      <c r="P542" s="15"/>
-      <c r="Q542" s="16"/>
+      <c r="M542" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N542" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O542" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L542=0,VLOOKUP(C542,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C542,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P542" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q542" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="543" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D543" s="12"/>
+      <c r="D543" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E543" s="26"/>
       <c r="F543" s="27"/>
       <c r="G543" s="10"/>
       <c r="J543" s="13"/>
-      <c r="K543" s="28"/>
+      <c r="K543" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L543" s="22"/>
-      <c r="M543" s="18"/>
-      <c r="N543" s="18"/>
-      <c r="O543" s="15"/>
-      <c r="P543" s="15"/>
-      <c r="Q543" s="16"/>
+      <c r="M543" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N543" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O543" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L543=0,VLOOKUP(C543,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C543,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P543" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q543" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="544" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D544" s="12"/>
+      <c r="D544" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E544" s="26"/>
       <c r="F544" s="27"/>
       <c r="G544" s="10"/>
       <c r="J544" s="13"/>
-      <c r="K544" s="28"/>
+      <c r="K544" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L544" s="22"/>
-      <c r="M544" s="18"/>
-      <c r="N544" s="18"/>
-      <c r="O544" s="15"/>
-      <c r="P544" s="15"/>
-      <c r="Q544" s="16"/>
+      <c r="M544" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N544" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O544" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L544=0,VLOOKUP(C544,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C544,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P544" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q544" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="545" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D545" s="12"/>
+      <c r="D545" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E545" s="26"/>
       <c r="F545" s="27"/>
       <c r="G545" s="10"/>
       <c r="J545" s="13"/>
-      <c r="K545" s="28"/>
+      <c r="K545" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L545" s="22"/>
-      <c r="M545" s="18"/>
-      <c r="N545" s="18"/>
-      <c r="O545" s="15"/>
-      <c r="P545" s="15"/>
-      <c r="Q545" s="16"/>
+      <c r="M545" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N545" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O545" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P545" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q545" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="546" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D546" s="12"/>
+      <c r="D546" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E546" s="26"/>
       <c r="F546" s="27"/>
       <c r="G546" s="10"/>
       <c r="J546" s="13"/>
-      <c r="K546" s="28"/>
+      <c r="K546" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L546" s="22"/>
-      <c r="M546" s="18"/>
-      <c r="N546" s="18"/>
-      <c r="O546" s="15"/>
-      <c r="P546" s="15"/>
-      <c r="Q546" s="16"/>
+      <c r="M546" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N546" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O546" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P546" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q546" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="547" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D547" s="12"/>
+      <c r="D547" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>0</v>
+      </c>
       <c r="E547" s="26"/>
       <c r="F547" s="27"/>
       <c r="G547" s="10"/>
       <c r="J547" s="13"/>
-      <c r="K547" s="28"/>
+      <c r="K547" s="28">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="L547" s="22"/>
-      <c r="M547" s="18"/>
-      <c r="N547" s="18"/>
-      <c r="O547" s="15"/>
-      <c r="P547" s="15"/>
-      <c r="Q547" s="16"/>
+      <c r="M547" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N547" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O547" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P547" s="15" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q547" s="16" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="548" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D548" s="12"/>
@@ -35754,6 +36431,118 @@
       <c r="O674" s="15"/>
       <c r="P674" s="15"/>
       <c r="Q674" s="16"/>
+    </row>
+    <row r="675" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D675" s="12"/>
+      <c r="E675" s="26"/>
+      <c r="F675" s="27"/>
+      <c r="G675" s="10"/>
+      <c r="J675" s="13"/>
+      <c r="K675" s="28"/>
+      <c r="L675" s="22"/>
+      <c r="M675" s="18"/>
+      <c r="N675" s="18"/>
+      <c r="O675" s="15"/>
+      <c r="P675" s="15"/>
+      <c r="Q675" s="16"/>
+    </row>
+    <row r="676" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D676" s="12"/>
+      <c r="E676" s="26"/>
+      <c r="F676" s="27"/>
+      <c r="G676" s="10"/>
+      <c r="J676" s="13"/>
+      <c r="K676" s="28"/>
+      <c r="L676" s="22"/>
+      <c r="M676" s="18"/>
+      <c r="N676" s="18"/>
+      <c r="O676" s="15"/>
+      <c r="P676" s="15"/>
+      <c r="Q676" s="16"/>
+    </row>
+    <row r="677" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D677" s="12"/>
+      <c r="E677" s="26"/>
+      <c r="F677" s="27"/>
+      <c r="G677" s="10"/>
+      <c r="J677" s="13"/>
+      <c r="K677" s="28"/>
+      <c r="L677" s="22"/>
+      <c r="M677" s="18"/>
+      <c r="N677" s="18"/>
+      <c r="O677" s="15"/>
+      <c r="P677" s="15"/>
+      <c r="Q677" s="16"/>
+    </row>
+    <row r="678" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D678" s="12"/>
+      <c r="E678" s="26"/>
+      <c r="F678" s="27"/>
+      <c r="G678" s="10"/>
+      <c r="J678" s="13"/>
+      <c r="K678" s="28"/>
+      <c r="L678" s="22"/>
+      <c r="M678" s="18"/>
+      <c r="N678" s="18"/>
+      <c r="O678" s="15"/>
+      <c r="P678" s="15"/>
+      <c r="Q678" s="16"/>
+    </row>
+    <row r="679" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D679" s="12"/>
+      <c r="E679" s="26"/>
+      <c r="F679" s="27"/>
+      <c r="G679" s="10"/>
+      <c r="J679" s="13"/>
+      <c r="K679" s="28"/>
+      <c r="L679" s="22"/>
+      <c r="M679" s="18"/>
+      <c r="N679" s="18"/>
+      <c r="O679" s="15"/>
+      <c r="P679" s="15"/>
+      <c r="Q679" s="16"/>
+    </row>
+    <row r="680" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D680" s="12"/>
+      <c r="E680" s="26"/>
+      <c r="F680" s="27"/>
+      <c r="G680" s="10"/>
+      <c r="J680" s="13"/>
+      <c r="K680" s="28"/>
+      <c r="L680" s="22"/>
+      <c r="M680" s="18"/>
+      <c r="N680" s="18"/>
+      <c r="O680" s="15"/>
+      <c r="P680" s="15"/>
+      <c r="Q680" s="16"/>
+    </row>
+    <row r="681" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D681" s="12"/>
+      <c r="E681" s="26"/>
+      <c r="F681" s="27"/>
+      <c r="G681" s="10"/>
+      <c r="J681" s="13"/>
+      <c r="K681" s="28"/>
+      <c r="L681" s="22"/>
+      <c r="M681" s="18"/>
+      <c r="N681" s="18"/>
+      <c r="O681" s="15"/>
+      <c r="P681" s="15"/>
+      <c r="Q681" s="16"/>
+    </row>
+    <row r="682" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D682" s="12"/>
+      <c r="E682" s="26"/>
+      <c r="F682" s="27"/>
+      <c r="G682" s="10"/>
+      <c r="J682" s="13"/>
+      <c r="K682" s="28"/>
+      <c r="L682" s="22"/>
+      <c r="M682" s="18"/>
+      <c r="N682" s="18"/>
+      <c r="O682" s="15"/>
+      <c r="P682" s="15"/>
+      <c r="Q682" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -35769,8 +36558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
   <dimension ref="A1:L279"/>
   <sheetViews>
-    <sheetView topLeftCell="B262" workbookViewId="0">
-      <selection activeCell="F276" sqref="F276"/>
+    <sheetView topLeftCell="B148" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2022/FSARanking2022.xlsx
+++ b/2022/FSARanking2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86217C5C-3A57-4831-9C07-2A7DFC142F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A96B2A-8D23-493A-8267-068D474CF1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2431,8 +2431,8 @@
   <dimension ref="A1:Q588"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E358" sqref="E358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23851,7 +23851,7 @@
         <v>519</v>
       </c>
       <c r="H358" s="9" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I358" s="9" t="s">
         <v>287</v>

--- a/2022/FSARanking2022.xlsx
+++ b/2022/FSARanking2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90923882-CC9A-43C1-B39E-2A2D1C9F6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9680DF1-346A-43BC-B4C1-C57C8BC05FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5275" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5695" uniqueCount="547">
   <si>
     <t>Ranking</t>
   </si>
@@ -1598,9 +1598,6 @@
     <t>Jeremy</t>
   </si>
   <si>
-    <t>Mens</t>
-  </si>
-  <si>
     <t>Pring</t>
   </si>
   <si>
@@ -1668,6 +1665,30 @@
   </si>
   <si>
     <t>Federico</t>
+  </si>
+  <si>
+    <t>AYC 1</t>
+  </si>
+  <si>
+    <t>AYC 2</t>
+  </si>
+  <si>
+    <t>AYC 3</t>
+  </si>
+  <si>
+    <t>AYC 4</t>
+  </si>
+  <si>
+    <t>Junior Champs</t>
+  </si>
+  <si>
+    <t>U15 Champs</t>
+  </si>
+  <si>
+    <t>Senior Champs</t>
+  </si>
+  <si>
+    <t>Veteran Champs</t>
   </si>
 </sst>
 </file>
@@ -2010,8 +2031,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q546" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:Q546" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q601" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:Q601" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{23BBF0BD-A33F-49F8-8541-D359B73C9AAA}" uniqueName="LastName" name="LastName">
       <xmlColumnPr mapId="6" xpath="/results/result/LastName" xmlDataType="string"/>
@@ -2431,11 +2452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q557"/>
+  <dimension ref="A1:Q601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G536" sqref="G536"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5487,8 +5508,7 @@
         <v>2</v>
       </c>
       <c r="N51" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L51=0,VLOOKUP(C51,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C51,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -5500,7 +5520,7 @@
       </c>
       <c r="Q51" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10279,8 +10299,7 @@
         <v>2</v>
       </c>
       <c r="N131" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O131" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L131=0,VLOOKUP(C131,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C131,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -10292,7 +10311,7 @@
       </c>
       <c r="Q131" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
@@ -11703,7 +11722,7 @@
       </c>
       <c r="M155" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N155" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17763,7 +17782,7 @@
       </c>
       <c r="M256" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N256" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21942,7 +21961,7 @@
         <v>384</v>
       </c>
       <c r="G326" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H326" s="9" t="s">
         <v>314</v>
@@ -22001,7 +22020,7 @@
         <v>384</v>
       </c>
       <c r="G327" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H327" s="9" t="s">
         <v>305</v>
@@ -22060,7 +22079,7 @@
         <v>384</v>
       </c>
       <c r="G328" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H328" s="9" t="s">
         <v>305</v>
@@ -22119,7 +22138,7 @@
         <v>384</v>
       </c>
       <c r="G329" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H329" s="9" t="s">
         <v>314</v>
@@ -22178,7 +22197,7 @@
         <v>384</v>
       </c>
       <c r="G330" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H330" s="9" t="s">
         <v>305</v>
@@ -22237,7 +22256,7 @@
         <v>384</v>
       </c>
       <c r="G331" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H331" s="9" t="s">
         <v>305</v>
@@ -22260,8 +22279,7 @@
         <v>2</v>
       </c>
       <c r="N331" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O331" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L331=0,VLOOKUP(C331,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C331,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -22273,7 +22291,7 @@
       </c>
       <c r="Q331" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.3">
@@ -22296,7 +22314,7 @@
         <v>384</v>
       </c>
       <c r="G332" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H332" s="9" t="s">
         <v>305</v>
@@ -22355,7 +22373,7 @@
         <v>384</v>
       </c>
       <c r="G333" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H333" s="9" t="s">
         <v>305</v>
@@ -25335,7 +25353,7 @@
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
-        <v>516</v>
+        <v>26</v>
       </c>
       <c r="B383" s="9" t="s">
         <v>41</v>
@@ -25373,7 +25391,7 @@
       </c>
       <c r="M383" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N383" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -25694,7 +25712,7 @@
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B389" s="9" t="s">
         <v>80</v>
@@ -26773,10 +26791,10 @@
     </row>
     <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B407" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="B407" s="9" t="s">
-        <v>520</v>
       </c>
       <c r="C407" s="3">
         <v>3</v>
@@ -27496,7 +27514,7 @@
         <v>403</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C419" s="3">
         <v>6</v>
@@ -28171,7 +28189,7 @@
         <v>384</v>
       </c>
       <c r="G430" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H430" s="9" t="s">
         <v>305</v>
@@ -28230,7 +28248,7 @@
         <v>384</v>
       </c>
       <c r="G431" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H431" s="9" t="s">
         <v>305</v>
@@ -28289,7 +28307,7 @@
         <v>384</v>
       </c>
       <c r="G432" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H432" s="9" t="s">
         <v>305</v>
@@ -28348,7 +28366,7 @@
         <v>384</v>
       </c>
       <c r="G433" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H433" s="9" t="s">
         <v>305</v>
@@ -28407,7 +28425,7 @@
         <v>384</v>
       </c>
       <c r="G434" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H434" s="9" t="s">
         <v>305</v>
@@ -28466,7 +28484,7 @@
         <v>384</v>
       </c>
       <c r="G435" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H435" s="9" t="s">
         <v>305</v>
@@ -28489,8 +28507,7 @@
         <v>2</v>
       </c>
       <c r="N435" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O435" s="15">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L435=0,VLOOKUP(C435,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C435,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -28502,7 +28519,7 @@
       </c>
       <c r="Q435" s="16">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="436" spans="1:17" x14ac:dyDescent="0.3">
@@ -28525,7 +28542,7 @@
         <v>384</v>
       </c>
       <c r="G436" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H436" s="9" t="s">
         <v>305</v>
@@ -28584,7 +28601,7 @@
         <v>384</v>
       </c>
       <c r="G437" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H437" s="9" t="s">
         <v>305</v>
@@ -28643,7 +28660,7 @@
         <v>384</v>
       </c>
       <c r="G438" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H438" s="9" t="s">
         <v>305</v>
@@ -28702,7 +28719,7 @@
         <v>384</v>
       </c>
       <c r="G439" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H439" s="9" t="s">
         <v>305</v>
@@ -28761,7 +28778,7 @@
         <v>384</v>
       </c>
       <c r="G440" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H440" s="9" t="s">
         <v>314</v>
@@ -28820,7 +28837,7 @@
         <v>384</v>
       </c>
       <c r="G441" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H441" s="9" t="s">
         <v>314</v>
@@ -28879,7 +28896,7 @@
         <v>384</v>
       </c>
       <c r="G442" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H442" s="9" t="s">
         <v>314</v>
@@ -28920,10 +28937,10 @@
     </row>
     <row r="443" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A443" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B443" s="9" t="s">
         <v>524</v>
-      </c>
-      <c r="B443" s="9" t="s">
-        <v>525</v>
       </c>
       <c r="C443" s="3">
         <v>1</v>
@@ -29100,7 +29117,7 @@
     </row>
     <row r="446" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A446" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B446" s="9" t="s">
         <v>169</v>
@@ -29160,10 +29177,10 @@
     </row>
     <row r="447" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A447" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B447" s="9" t="s">
         <v>533</v>
-      </c>
-      <c r="B447" s="9" t="s">
-        <v>534</v>
       </c>
       <c r="C447" s="3">
         <v>5</v>
@@ -29220,7 +29237,7 @@
     </row>
     <row r="448" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A448" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B448" s="9" t="s">
         <v>82</v>
@@ -29400,10 +29417,10 @@
     </row>
     <row r="451" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A451" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B451" s="9" t="s">
         <v>524</v>
-      </c>
-      <c r="B451" s="9" t="s">
-        <v>525</v>
       </c>
       <c r="C451" s="3">
         <v>2</v>
@@ -29880,10 +29897,10 @@
     </row>
     <row r="459" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A459" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B459" s="9" t="s">
         <v>522</v>
-      </c>
-      <c r="B459" s="9" t="s">
-        <v>523</v>
       </c>
       <c r="C459" s="3">
         <v>4</v>
@@ -31080,10 +31097,10 @@
     </row>
     <row r="479" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A479" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B479" s="9" t="s">
         <v>526</v>
-      </c>
-      <c r="B479" s="9" t="s">
-        <v>527</v>
       </c>
       <c r="C479" s="3">
         <v>1</v>
@@ -31740,10 +31757,10 @@
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A490" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B490" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="B490" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="C490" s="3">
         <v>6</v>
@@ -31800,10 +31817,10 @@
     </row>
     <row r="491" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A491" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B491" s="9" t="s">
         <v>531</v>
-      </c>
-      <c r="B491" s="9" t="s">
-        <v>532</v>
       </c>
       <c r="C491" s="3">
         <v>7</v>
@@ -31920,7 +31937,7 @@
     </row>
     <row r="493" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A493" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B493" s="9" t="s">
         <v>208</v>
@@ -32919,7 +32936,7 @@
       </c>
       <c r="M509" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N509" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -34200,10 +34217,10 @@
     </row>
     <row r="531" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A531" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B531" s="9" t="s">
         <v>538</v>
-      </c>
-      <c r="B531" s="9" t="s">
-        <v>539</v>
       </c>
       <c r="C531" s="3">
         <v>1</v>
@@ -34260,7 +34277,7 @@
     </row>
     <row r="532" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A532" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B532" s="9" t="s">
         <v>80</v>
@@ -34654,7 +34671,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L538" s="22"/>
+      <c r="L538" s="22">
+        <v>1</v>
+      </c>
       <c r="M538" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -34677,438 +34696,3648 @@
       </c>
     </row>
     <row r="539" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A539" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B539" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C539" s="3">
+        <v>1</v>
+      </c>
       <c r="D539" s="12">
+        <v>26</v>
+      </c>
+      <c r="E539" s="25">
+        <v>44710</v>
+      </c>
+      <c r="F539" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G539" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H539" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="I539" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J539" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K539" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L539" s="22">
+        <v>1</v>
+      </c>
+      <c r="M539" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N539" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O539" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L539=0,VLOOKUP(C539,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C539,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>32</v>
+      </c>
+      <c r="P539" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q539" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A540" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B540" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C540" s="3">
+        <v>15</v>
+      </c>
+      <c r="D540" s="12">
+        <v>18</v>
+      </c>
+      <c r="E540" s="25">
+        <v>44710</v>
+      </c>
+      <c r="F540" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G540" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H540" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="I540" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J540" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K540" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L540" s="22">
+        <v>1</v>
+      </c>
+      <c r="M540" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N540" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O540" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L540=0,VLOOKUP(C540,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C540,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P540" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q540" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="541" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A541" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B541" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C541" s="3">
+        <v>16</v>
+      </c>
+      <c r="D541" s="12">
+        <v>18</v>
+      </c>
+      <c r="E541" s="25">
+        <v>44710</v>
+      </c>
+      <c r="F541" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G541" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H541" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="I541" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J541" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K541" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L541" s="22">
+        <v>1</v>
+      </c>
+      <c r="M541" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N541" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O541" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L541=0,VLOOKUP(C541,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C541,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P541" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q541" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A542" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B542" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C542" s="3">
+        <v>17</v>
+      </c>
+      <c r="D542" s="12">
+        <v>18</v>
+      </c>
+      <c r="E542" s="25">
+        <v>44710</v>
+      </c>
+      <c r="F542" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G542" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H542" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="I542" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J542" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K542" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L542" s="22">
+        <v>1</v>
+      </c>
+      <c r="M542" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N542" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O542" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L542=0,VLOOKUP(C542,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C542,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P542" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q542" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A543" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B543" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C543" s="3">
+        <v>16</v>
+      </c>
+      <c r="D543" s="12">
+        <v>26</v>
+      </c>
+      <c r="E543" s="25">
+        <v>44747</v>
+      </c>
+      <c r="F543" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G543" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H543" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="I543" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J543" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K543" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L543" s="22">
+        <v>1</v>
+      </c>
+      <c r="M543" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N543" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O543" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L543=0,VLOOKUP(C543,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C543,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P543" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q543" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A544" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B544" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C544" s="3">
+        <v>22</v>
+      </c>
+      <c r="D544" s="12">
+        <v>26</v>
+      </c>
+      <c r="E544" s="25">
+        <v>44747</v>
+      </c>
+      <c r="F544" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G544" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H544" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="I544" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J544" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K544" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L544" s="22">
+        <v>1</v>
+      </c>
+      <c r="M544" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N544" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O544" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L544=0,VLOOKUP(C544,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C544,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P544" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q544" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A545" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B545" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C545" s="3">
+        <v>23</v>
+      </c>
+      <c r="D545" s="12">
+        <v>26</v>
+      </c>
+      <c r="E545" s="25">
+        <v>44747</v>
+      </c>
+      <c r="F545" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G545" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H545" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="I545" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J545" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K545" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L545" s="22">
+        <v>1</v>
+      </c>
+      <c r="M545" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N545" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O545" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P545" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q545" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="546" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A546" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B546" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C546" s="3">
+        <v>12</v>
+      </c>
+      <c r="D546" s="12">
+        <v>19</v>
+      </c>
+      <c r="E546" s="25">
+        <v>44747</v>
+      </c>
+      <c r="F546" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G546" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H546" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="I546" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J546" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K546" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L546" s="22">
+        <v>1</v>
+      </c>
+      <c r="M546" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N546" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O546" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P546" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q546" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A547" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B547" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C547" s="3">
+        <v>11</v>
+      </c>
+      <c r="D547" s="12">
+        <v>23</v>
+      </c>
+      <c r="E547" s="25">
+        <v>44747</v>
+      </c>
+      <c r="F547" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G547" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H547" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="I547" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J547" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K547" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L547" s="22">
+        <v>1</v>
+      </c>
+      <c r="M547" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N547" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O547" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P547" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q547" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A548" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B548" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C548" s="3">
+        <v>15</v>
+      </c>
+      <c r="D548" s="12">
+        <v>23</v>
+      </c>
+      <c r="E548" s="25">
+        <v>44747</v>
+      </c>
+      <c r="F548" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G548" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H548" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="I548" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J548" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K548" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L548" s="22">
+        <v>1</v>
+      </c>
+      <c r="M548" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N548" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O548" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L548=0,VLOOKUP(C548,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C548,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P548" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q548" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="549" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A549" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B549" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C549" s="3">
+        <v>3</v>
+      </c>
+      <c r="D549" s="12">
+        <v>9</v>
+      </c>
+      <c r="E549" s="25">
+        <v>44633</v>
+      </c>
+      <c r="F549" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G549" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="H549" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I549" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J549" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K549" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L549" s="22">
+        <v>1</v>
+      </c>
+      <c r="M549" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N549" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O549" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L549=0,VLOOKUP(C549,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C549,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P549" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q549" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="550" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A550" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B550" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C550" s="3">
+        <v>13</v>
+      </c>
+      <c r="D550" s="12">
+        <v>15</v>
+      </c>
+      <c r="E550" s="25">
+        <v>44689</v>
+      </c>
+      <c r="F550" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G550" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="H550" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I550" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J550" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K550" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L550" s="22">
+        <v>1</v>
+      </c>
+      <c r="M550" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N550" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O550" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L550=0,VLOOKUP(C550,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C550,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P550" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q550" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A551" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B551" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C551" s="3">
+        <v>15</v>
+      </c>
+      <c r="D551" s="12">
+        <v>24</v>
+      </c>
+      <c r="E551" s="25">
+        <v>44787</v>
+      </c>
+      <c r="F551" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G551" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="H551" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I551" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J551" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K551" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L551" s="22">
+        <v>1</v>
+      </c>
+      <c r="M551" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N551" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O551" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L551=0,VLOOKUP(C551,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C551,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P551" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q551" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A552" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B552" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C552" s="3">
+        <v>5</v>
+      </c>
+      <c r="D552" s="12">
+        <v>7</v>
+      </c>
+      <c r="E552" s="25">
+        <v>44787</v>
+      </c>
+      <c r="F552" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G552" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="H552" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I552" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J552" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K552" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L552" s="22">
+        <v>1</v>
+      </c>
+      <c r="M552" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N552" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O552" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L552=0,VLOOKUP(C552,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C552,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P552" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q552" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A553" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B553" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C553" s="3">
+        <v>8</v>
+      </c>
+      <c r="D553" s="12">
+        <v>15</v>
+      </c>
+      <c r="E553" s="25">
+        <v>44787</v>
+      </c>
+      <c r="F553" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G553" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="H553" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I553" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J553" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K553" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L553" s="22">
+        <v>1</v>
+      </c>
+      <c r="M553" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N553" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O553" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L553=0,VLOOKUP(C553,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C553,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P553" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q553" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="554" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A554" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B554" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C554" s="3">
+        <v>9</v>
+      </c>
+      <c r="D554" s="12">
+        <v>10</v>
+      </c>
+      <c r="E554" s="25">
+        <v>44892</v>
+      </c>
+      <c r="F554" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G554" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="H554" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I554" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J554" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K554" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L554" s="22">
+        <v>1</v>
+      </c>
+      <c r="M554" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N554" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O554" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L554=0,VLOOKUP(C554,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C554,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P554" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q554" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A555" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B555" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C555" s="3">
+        <v>6</v>
+      </c>
+      <c r="D555" s="12">
+        <v>16</v>
+      </c>
+      <c r="E555" s="25">
+        <v>44892</v>
+      </c>
+      <c r="F555" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G555" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="H555" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I555" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J555" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K555" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L555" s="22">
+        <v>1</v>
+      </c>
+      <c r="M555" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N555" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O555" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L555=0,VLOOKUP(C555,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C555,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P555" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q555" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A556" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B556" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C556" s="3">
+        <v>6</v>
+      </c>
+      <c r="D556" s="12">
+        <v>14</v>
+      </c>
+      <c r="E556" s="25">
+        <v>44892</v>
+      </c>
+      <c r="F556" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G556" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="H556" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I556" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J556" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K556" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L556" s="22">
+        <v>1</v>
+      </c>
+      <c r="M556" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N556" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O556" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L556=0,VLOOKUP(C556,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C556,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P556" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q556" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="557" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A557" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B557" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C557" s="3">
+        <v>17</v>
+      </c>
+      <c r="D557" s="12">
+        <v>22</v>
+      </c>
+      <c r="E557" s="25">
+        <v>44746</v>
+      </c>
+      <c r="F557" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G557" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="H557" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I557" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J557" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K557" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L557" s="22">
+        <v>1</v>
+      </c>
+      <c r="M557" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N557" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O557" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L557=0,VLOOKUP(C557,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C557,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P557" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q557" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A558" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B558" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C558" s="3">
+        <v>5</v>
+      </c>
+      <c r="D558" s="12">
+        <v>24</v>
+      </c>
+      <c r="E558" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F558" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G558" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H558" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I558" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J558" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K558" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L558" s="22">
+        <v>1</v>
+      </c>
+      <c r="M558" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N558" s="18">
+        <v>1</v>
+      </c>
+      <c r="O558" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L558=0,VLOOKUP(C558,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C558,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P558" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q558" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A559" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B559" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C559" s="3">
+        <v>20</v>
+      </c>
+      <c r="D559" s="12">
+        <v>24</v>
+      </c>
+      <c r="E559" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F559" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G559" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H559" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I559" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J559" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K559" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L559" s="22">
+        <v>1</v>
+      </c>
+      <c r="M559" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N559" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O559" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L559=0,VLOOKUP(C559,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C559,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P559" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q559" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A560" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B560" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C560" s="3">
+        <v>21</v>
+      </c>
+      <c r="D560" s="12">
+        <v>24</v>
+      </c>
+      <c r="E560" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F560" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G560" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H560" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I560" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J560" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K560" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L560" s="22">
+        <v>1</v>
+      </c>
+      <c r="M560" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N560" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O560" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L560=0,VLOOKUP(C560,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C560,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P560" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q560" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A561" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B561" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C561" s="3">
+        <v>23</v>
+      </c>
+      <c r="D561" s="12">
+        <v>24</v>
+      </c>
+      <c r="E561" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F561" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G561" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H561" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I561" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J561" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K561" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L561" s="22">
+        <v>1</v>
+      </c>
+      <c r="M561" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N561" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O561" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L561=0,VLOOKUP(C561,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C561,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P561" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q561" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A562" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B562" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C562" s="3">
+        <v>6</v>
+      </c>
+      <c r="D562" s="12">
+        <v>64</v>
+      </c>
+      <c r="E562" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F562" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G562" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H562" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I562" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J562" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K562" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L562" s="22">
+        <v>1</v>
+      </c>
+      <c r="M562" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N562" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O562" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L562=0,VLOOKUP(C562,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C562,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P562" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q562" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>19.599999999999998</v>
+      </c>
+    </row>
+    <row r="563" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A563" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B563" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C563" s="3">
+        <v>9</v>
+      </c>
+      <c r="D563" s="12">
+        <v>64</v>
+      </c>
+      <c r="E563" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F563" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G563" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H563" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I563" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J563" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K563" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L563" s="22">
+        <v>1</v>
+      </c>
+      <c r="M563" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N563" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O563" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L563=0,VLOOKUP(C563,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C563,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P563" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q563" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A564" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B564" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C564" s="3">
+        <v>27</v>
+      </c>
+      <c r="D564" s="12">
+        <v>64</v>
+      </c>
+      <c r="E564" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F564" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G564" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H564" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I564" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J564" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K564" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L564" s="22">
+        <v>1</v>
+      </c>
+      <c r="M564" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N564" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O564" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L564=0,VLOOKUP(C564,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C564,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P564" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q564" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="565" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A565" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B565" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C565" s="3">
+        <v>31</v>
+      </c>
+      <c r="D565" s="12">
+        <v>64</v>
+      </c>
+      <c r="E565" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F565" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G565" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H565" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I565" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J565" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K565" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L565" s="22">
+        <v>1</v>
+      </c>
+      <c r="M565" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N565" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O565" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L565=0,VLOOKUP(C565,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C565,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P565" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q565" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A566" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B566" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C566" s="3">
+        <v>34</v>
+      </c>
+      <c r="D566" s="12">
+        <v>64</v>
+      </c>
+      <c r="E566" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F566" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G566" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H566" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I566" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J566" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K566" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L566" s="22">
+        <v>1</v>
+      </c>
+      <c r="M566" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N566" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O566" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L566=0,VLOOKUP(C566,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C566,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>2</v>
+      </c>
+      <c r="P566" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q566" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A567" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B567" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C567" s="3">
+        <v>51</v>
+      </c>
+      <c r="D567" s="12">
+        <v>64</v>
+      </c>
+      <c r="E567" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F567" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G567" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H567" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I567" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J567" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K567" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L567" s="22">
+        <v>1</v>
+      </c>
+      <c r="M567" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N567" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O567" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L567=0,VLOOKUP(C567,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C567,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>2</v>
+      </c>
+      <c r="P567" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q567" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A568" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B568" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C568" s="3">
+        <v>52</v>
+      </c>
+      <c r="D568" s="12">
+        <v>64</v>
+      </c>
+      <c r="E568" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F568" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G568" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H568" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I568" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J568" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K568" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L568" s="22">
+        <v>1</v>
+      </c>
+      <c r="M568" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N568" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O568" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L568=0,VLOOKUP(C568,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C568,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>2</v>
+      </c>
+      <c r="P568" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q568" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A569" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B569" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C569" s="3">
+        <v>19</v>
+      </c>
+      <c r="D569" s="12">
+        <v>49</v>
+      </c>
+      <c r="E569" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F569" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G569" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H569" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I569" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J569" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K569" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L569" s="22">
+        <v>1</v>
+      </c>
+      <c r="M569" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N569" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O569" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L569=0,VLOOKUP(C569,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C569,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P569" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q569" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A570" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B570" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C570" s="3">
+        <v>21</v>
+      </c>
+      <c r="D570" s="12">
+        <v>49</v>
+      </c>
+      <c r="E570" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F570" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G570" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H570" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I570" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J570" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K570" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>FUFC</v>
+      </c>
+      <c r="L570" s="22">
+        <v>1</v>
+      </c>
+      <c r="M570" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N570" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O570" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L570=0,VLOOKUP(C570,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C570,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P570" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q570" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A571" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B571" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C571" s="3">
+        <v>27</v>
+      </c>
+      <c r="D571" s="12">
+        <v>49</v>
+      </c>
+      <c r="E571" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F571" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G571" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H571" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I571" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J571" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K571" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L571" s="22">
+        <v>1</v>
+      </c>
+      <c r="M571" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N571" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O571" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L571=0,VLOOKUP(C571,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C571,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P571" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q571" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A572" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B572" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C572" s="3">
+        <v>31</v>
+      </c>
+      <c r="D572" s="12">
+        <v>49</v>
+      </c>
+      <c r="E572" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F572" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G572" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H572" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I572" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J572" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K572" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L572" s="22">
+        <v>1</v>
+      </c>
+      <c r="M572" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N572" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O572" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L572=0,VLOOKUP(C572,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C572,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P572" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q572" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A573" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B573" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C573" s="3">
+        <v>49</v>
+      </c>
+      <c r="D573" s="12">
+        <v>49</v>
+      </c>
+      <c r="E573" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F573" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G573" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H573" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I573" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J573" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K573" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>TPFC</v>
+      </c>
+      <c r="L573" s="22">
+        <v>1</v>
+      </c>
+      <c r="M573" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N573" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O573" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L573=0,VLOOKUP(C573,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C573,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>2</v>
+      </c>
+      <c r="P573" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q573" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A574" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B574" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C574" s="3">
+        <v>8</v>
+      </c>
+      <c r="D574" s="12">
+        <v>39</v>
+      </c>
+      <c r="E574" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F574" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G574" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H574" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I574" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J574" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K574" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L574" s="22">
+        <v>1</v>
+      </c>
+      <c r="M574" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N574" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O574" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L574=0,VLOOKUP(C574,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C574,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P574" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q574" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>19.599999999999998</v>
+      </c>
+    </row>
+    <row r="575" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A575" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B575" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C575" s="3">
+        <v>22</v>
+      </c>
+      <c r="D575" s="12">
+        <v>39</v>
+      </c>
+      <c r="E575" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F575" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G575" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H575" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I575" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J575" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K575" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L575" s="22">
+        <v>1</v>
+      </c>
+      <c r="M575" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N575" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O575" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L575=0,VLOOKUP(C575,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C575,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P575" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q575" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="576" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A576" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B576" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C576" s="3">
+        <v>32</v>
+      </c>
+      <c r="D576" s="12">
+        <v>39</v>
+      </c>
+      <c r="E576" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F576" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G576" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H576" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I576" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J576" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K576" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L576" s="22">
+        <v>1</v>
+      </c>
+      <c r="M576" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N576" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O576" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L576=0,VLOOKUP(C576,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C576,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P576" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q576" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="577" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A577" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B577" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C577" s="3">
+        <v>33</v>
+      </c>
+      <c r="D577" s="12">
+        <v>39</v>
+      </c>
+      <c r="E577" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F577" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G577" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H577" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I577" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J577" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K577" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L577" s="22">
+        <v>1</v>
+      </c>
+      <c r="M577" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N577" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O577" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L577=0,VLOOKUP(C577,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C577,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>2</v>
+      </c>
+      <c r="P577" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q577" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A578" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B578" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C578" s="3">
+        <v>36</v>
+      </c>
+      <c r="D578" s="12">
+        <v>39</v>
+      </c>
+      <c r="E578" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F578" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G578" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H578" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I578" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J578" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K578" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L578" s="22">
+        <v>1</v>
+      </c>
+      <c r="M578" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N578" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O578" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L578=0,VLOOKUP(C578,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C578,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>2</v>
+      </c>
+      <c r="P578" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q578" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A579" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B579" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C579" s="3">
+        <v>6</v>
+      </c>
+      <c r="D579" s="12">
+        <v>12</v>
+      </c>
+      <c r="E579" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F579" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G579" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H579" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I579" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J579" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K579" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L579" s="22">
+        <v>1</v>
+      </c>
+      <c r="M579" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N579" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O579" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L579=0,VLOOKUP(C579,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C579,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P579" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q579" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A580" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B580" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C580" s="3">
+        <v>3</v>
+      </c>
+      <c r="D580" s="12">
+        <v>55</v>
+      </c>
+      <c r="E580" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F580" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G580" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H580" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I580" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J580" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K580" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L580" s="22">
+        <v>1</v>
+      </c>
+      <c r="M580" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N580" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O580" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L580=0,VLOOKUP(C580,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C580,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P580" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q580" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="581" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A581" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B581" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C581" s="3">
+        <v>28</v>
+      </c>
+      <c r="D581" s="12">
+        <v>55</v>
+      </c>
+      <c r="E581" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F581" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G581" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H581" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I581" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J581" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K581" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L581" s="22">
+        <v>1</v>
+      </c>
+      <c r="M581" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N581" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O581" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L581=0,VLOOKUP(C581,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C581,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P581" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q581" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A582" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B582" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C582" s="3">
+        <v>43</v>
+      </c>
+      <c r="D582" s="12">
+        <v>55</v>
+      </c>
+      <c r="E582" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F582" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G582" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H582" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I582" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J582" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K582" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L582" s="22">
+        <v>1</v>
+      </c>
+      <c r="M582" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N582" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O582" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L582=0,VLOOKUP(C582,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C582,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>2</v>
+      </c>
+      <c r="P582" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q582" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A583" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B583" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C583" s="3">
+        <v>55</v>
+      </c>
+      <c r="D583" s="12">
+        <v>55</v>
+      </c>
+      <c r="E583" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F583" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G583" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H583" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I583" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J583" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K583" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L583" s="22">
+        <v>1</v>
+      </c>
+      <c r="M583" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N583" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O583" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L583=0,VLOOKUP(C583,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C583,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>2</v>
+      </c>
+      <c r="P583" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q583" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A584" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B584" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C584" s="3">
+        <v>8</v>
+      </c>
+      <c r="D584" s="12">
+        <v>20</v>
+      </c>
+      <c r="E584" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F584" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G584" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H584" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I584" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J584" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K584" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L584" s="22">
+        <v>1</v>
+      </c>
+      <c r="M584" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N584" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O584" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L584=0,VLOOKUP(C584,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C584,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P584" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q584" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A585" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B585" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C585" s="3">
+        <v>9</v>
+      </c>
+      <c r="D585" s="12">
+        <v>20</v>
+      </c>
+      <c r="E585" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F585" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G585" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H585" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I585" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J585" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K585" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L585" s="22">
+        <v>1</v>
+      </c>
+      <c r="M585" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N585" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O585" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L585=0,VLOOKUP(C585,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C585,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P585" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q585" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A586" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B586" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C586" s="3">
+        <v>18</v>
+      </c>
+      <c r="D586" s="12">
+        <v>20</v>
+      </c>
+      <c r="E586" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F586" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G586" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H586" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I586" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J586" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K586" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L586" s="22">
+        <v>1</v>
+      </c>
+      <c r="M586" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N586" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O586" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L586=0,VLOOKUP(C586,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C586,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P586" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q586" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A587" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B587" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C587" s="3">
+        <v>20</v>
+      </c>
+      <c r="D587" s="12">
+        <v>20</v>
+      </c>
+      <c r="E587" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F587" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G587" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H587" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I587" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J587" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K587" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L587" s="22">
+        <v>1</v>
+      </c>
+      <c r="M587" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N587" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O587" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L587=0,VLOOKUP(C587,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C587,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P587" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q587" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A588" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B588" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C588" s="3">
+        <v>2</v>
+      </c>
+      <c r="D588" s="12">
+        <v>23</v>
+      </c>
+      <c r="E588" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F588" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G588" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H588" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I588" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J588" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K588" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L588" s="22">
+        <v>1</v>
+      </c>
+      <c r="M588" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N588" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O588" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L588=0,VLOOKUP(C588,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C588,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="P588" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q588" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A589" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B589" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C589" s="3">
+        <v>5</v>
+      </c>
+      <c r="D589" s="12">
+        <v>23</v>
+      </c>
+      <c r="E589" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F589" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G589" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H589" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I589" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J589" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K589" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L589" s="22">
+        <v>1</v>
+      </c>
+      <c r="M589" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N589" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O589" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L589=0,VLOOKUP(C589,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C589,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P589" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q589" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A590" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B590" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C590" s="3">
+        <v>12</v>
+      </c>
+      <c r="D590" s="12">
+        <v>23</v>
+      </c>
+      <c r="E590" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F590" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G590" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H590" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I590" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J590" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K590" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L590" s="22">
+        <v>1</v>
+      </c>
+      <c r="M590" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N590" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O590" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L590=0,VLOOKUP(C590,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C590,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P590" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q590" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A591" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B591" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C591" s="3">
+        <v>19</v>
+      </c>
+      <c r="D591" s="12">
+        <v>23</v>
+      </c>
+      <c r="E591" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F591" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G591" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H591" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I591" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J591" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K591" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>TPFC</v>
+      </c>
+      <c r="L591" s="22">
+        <v>1</v>
+      </c>
+      <c r="M591" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N591" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O591" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L591=0,VLOOKUP(C591,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C591,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="P591" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q591" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A592" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B592" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C592" s="3">
+        <v>10</v>
+      </c>
+      <c r="D592" s="12">
+        <v>14</v>
+      </c>
+      <c r="E592" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F592" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G592" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H592" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I592" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J592" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K592" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L592" s="22">
+        <v>1</v>
+      </c>
+      <c r="M592" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N592" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O592" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L592=0,VLOOKUP(C592,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C592,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P592" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q592" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A593" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B593" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C593" s="3">
+        <v>3</v>
+      </c>
+      <c r="D593" s="12">
+        <v>10</v>
+      </c>
+      <c r="E593" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F593" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G593" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H593" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I593" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J593" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K593" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L593" s="22">
+        <v>1</v>
+      </c>
+      <c r="M593" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N593" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O593" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L593=0,VLOOKUP(C593,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C593,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="P593" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q593" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A594" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B594" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C594" s="3">
+        <v>6</v>
+      </c>
+      <c r="D594" s="12">
+        <v>10</v>
+      </c>
+      <c r="E594" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F594" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G594" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H594" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I594" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J594" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K594" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L594" s="22">
+        <v>1</v>
+      </c>
+      <c r="M594" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N594" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O594" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L594=0,VLOOKUP(C594,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C594,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P594" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q594" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A595" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B595" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C595" s="3">
+        <v>8</v>
+      </c>
+      <c r="D595" s="12">
+        <v>10</v>
+      </c>
+      <c r="E595" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F595" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G595" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H595" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I595" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J595" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K595" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AUFeC</v>
+      </c>
+      <c r="L595" s="22">
+        <v>1</v>
+      </c>
+      <c r="M595" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N595" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O595" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L595=0,VLOOKUP(C595,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C595,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P595" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q595" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A596" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B596" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C596" s="3">
+        <v>10</v>
+      </c>
+      <c r="D596" s="12">
+        <v>10</v>
+      </c>
+      <c r="E596" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F596" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G596" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H596" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I596" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J596" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K596" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>TPFC</v>
+      </c>
+      <c r="L596" s="22">
+        <v>1</v>
+      </c>
+      <c r="M596" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N596" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O596" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L596=0,VLOOKUP(C596,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C596,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="P596" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q596" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A597" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B597" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C597" s="3">
+        <v>6</v>
+      </c>
+      <c r="D597" s="12">
+        <v>10</v>
+      </c>
+      <c r="E597" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F597" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G597" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H597" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I597" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J597" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K597" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L597" s="22">
+        <v>1</v>
+      </c>
+      <c r="M597" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N597" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O597" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L597=0,VLOOKUP(C597,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C597,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P597" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q597" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A598" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B598" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C598" s="3">
+        <v>5</v>
+      </c>
+      <c r="D598" s="12">
+        <v>5</v>
+      </c>
+      <c r="E598" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F598" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G598" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H598" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I598" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J598" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K598" s="27" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L598" s="22">
+        <v>1</v>
+      </c>
+      <c r="M598" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>0</v>
+      </c>
+      <c r="N598" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O598" s="15">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L598=0,VLOOKUP(C598,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C598,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="P598" s="15">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q598" s="16">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D599" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E539" s="25"/>
-      <c r="F539" s="26"/>
-      <c r="G539" s="10"/>
-      <c r="J539" s="13"/>
-      <c r="K539" s="27">
+      <c r="E599" s="25"/>
+      <c r="F599" s="26"/>
+      <c r="G599" s="10"/>
+      <c r="J599" s="13"/>
+      <c r="K599" s="27">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L539" s="22"/>
-      <c r="M539" s="18">
+      <c r="L599" s="22"/>
+      <c r="M599" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="N539" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O539" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L539=0,VLOOKUP(C539,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C539,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N599" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O599" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L599=0,VLOOKUP(C599,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C599,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P539" s="15" t="e">
+      <c r="P599" s="15" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q539" s="16" t="e">
+      <c r="Q599" s="16" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D540" s="12">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D600" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E540" s="25"/>
-      <c r="F540" s="26"/>
-      <c r="G540" s="10"/>
-      <c r="J540" s="13"/>
-      <c r="K540" s="27">
+      <c r="E600" s="25"/>
+      <c r="F600" s="26"/>
+      <c r="G600" s="10"/>
+      <c r="J600" s="13"/>
+      <c r="K600" s="27">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L540" s="22"/>
-      <c r="M540" s="18">
+      <c r="L600" s="22"/>
+      <c r="M600" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="N540" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O540" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L540=0,VLOOKUP(C540,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C540,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N600" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O600" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L600=0,VLOOKUP(C600,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C600,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P540" s="15" t="e">
+      <c r="P600" s="15" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q540" s="16" t="e">
+      <c r="Q600" s="16" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D541" s="12">
+    <row r="601" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D601" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E541" s="25"/>
-      <c r="F541" s="26"/>
-      <c r="G541" s="10"/>
-      <c r="J541" s="13"/>
-      <c r="K541" s="27">
+      <c r="E601" s="25"/>
+      <c r="F601" s="26"/>
+      <c r="G601" s="10"/>
+      <c r="J601" s="13"/>
+      <c r="K601" s="27">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L541" s="22"/>
-      <c r="M541" s="18">
+      <c r="L601" s="22"/>
+      <c r="M601" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="N541" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O541" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L541=0,VLOOKUP(C541,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C541,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N601" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O601" s="15" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L601=0,VLOOKUP(C601,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C601,'Ranking Values'!A:C,3,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="P541" s="15" t="e">
+      <c r="P601" s="15" t="e">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q541" s="16" t="e">
+      <c r="Q601" s="16" t="e">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D542" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E542" s="25"/>
-      <c r="F542" s="26"/>
-      <c r="G542" s="10"/>
-      <c r="J542" s="13"/>
-      <c r="K542" s="27">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L542" s="22"/>
-      <c r="M542" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N542" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O542" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L542=0,VLOOKUP(C542,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C542,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P542" s="15" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q542" s="16" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D543" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E543" s="25"/>
-      <c r="F543" s="26"/>
-      <c r="G543" s="10"/>
-      <c r="J543" s="13"/>
-      <c r="K543" s="27">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L543" s="22"/>
-      <c r="M543" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N543" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O543" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L543=0,VLOOKUP(C543,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C543,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P543" s="15" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q543" s="16" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D544" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E544" s="25"/>
-      <c r="F544" s="26"/>
-      <c r="G544" s="10"/>
-      <c r="J544" s="13"/>
-      <c r="K544" s="27">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L544" s="22"/>
-      <c r="M544" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N544" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O544" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L544=0,VLOOKUP(C544,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C544,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P544" s="15" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q544" s="16" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="545" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D545" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E545" s="25"/>
-      <c r="F545" s="26"/>
-      <c r="G545" s="10"/>
-      <c r="J545" s="13"/>
-      <c r="K545" s="27">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L545" s="22"/>
-      <c r="M545" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N545" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O545" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P545" s="15" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q545" s="16" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="546" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D546" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E546" s="25"/>
-      <c r="F546" s="26"/>
-      <c r="G546" s="10"/>
-      <c r="J546" s="13"/>
-      <c r="K546" s="27">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L546" s="22"/>
-      <c r="M546" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N546" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O546" s="15" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P546" s="15" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q546" s="16" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="547" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D547" s="12"/>
-      <c r="E547" s="25"/>
-      <c r="F547" s="26"/>
-      <c r="G547" s="10"/>
-      <c r="J547" s="13"/>
-      <c r="K547" s="27"/>
-      <c r="L547" s="22"/>
-      <c r="M547" s="18"/>
-      <c r="N547" s="18"/>
-      <c r="O547" s="15"/>
-      <c r="P547" s="15"/>
-      <c r="Q547" s="16"/>
-    </row>
-    <row r="548" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D548" s="12"/>
-      <c r="E548" s="25"/>
-      <c r="F548" s="26"/>
-      <c r="G548" s="10"/>
-      <c r="J548" s="13"/>
-      <c r="K548" s="27"/>
-      <c r="L548" s="22"/>
-      <c r="M548" s="18"/>
-      <c r="N548" s="18"/>
-      <c r="O548" s="15"/>
-      <c r="P548" s="15"/>
-      <c r="Q548" s="16"/>
-    </row>
-    <row r="549" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D549" s="12"/>
-      <c r="E549" s="25"/>
-      <c r="F549" s="26"/>
-      <c r="G549" s="10"/>
-      <c r="J549" s="13"/>
-      <c r="K549" s="27"/>
-      <c r="L549" s="22"/>
-      <c r="M549" s="18"/>
-      <c r="N549" s="18"/>
-      <c r="O549" s="15"/>
-      <c r="P549" s="15"/>
-      <c r="Q549" s="16"/>
-    </row>
-    <row r="550" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D550" s="12"/>
-      <c r="E550" s="25"/>
-      <c r="F550" s="26"/>
-      <c r="G550" s="10"/>
-      <c r="J550" s="13"/>
-      <c r="K550" s="27"/>
-      <c r="L550" s="22"/>
-      <c r="M550" s="18"/>
-      <c r="N550" s="18"/>
-      <c r="O550" s="15"/>
-      <c r="P550" s="15"/>
-      <c r="Q550" s="16"/>
-    </row>
-    <row r="551" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D551" s="12"/>
-      <c r="E551" s="25"/>
-      <c r="F551" s="26"/>
-      <c r="G551" s="10"/>
-      <c r="J551" s="13"/>
-      <c r="K551" s="27"/>
-      <c r="L551" s="22"/>
-      <c r="M551" s="18"/>
-      <c r="N551" s="18"/>
-      <c r="O551" s="15"/>
-      <c r="P551" s="15"/>
-      <c r="Q551" s="16"/>
-    </row>
-    <row r="552" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D552" s="12"/>
-      <c r="E552" s="25"/>
-      <c r="F552" s="26"/>
-      <c r="G552" s="10"/>
-      <c r="J552" s="13"/>
-      <c r="K552" s="27"/>
-      <c r="L552" s="22"/>
-      <c r="M552" s="18"/>
-      <c r="N552" s="18"/>
-      <c r="O552" s="15"/>
-      <c r="P552" s="15"/>
-      <c r="Q552" s="16"/>
-    </row>
-    <row r="553" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D553" s="12"/>
-      <c r="E553" s="25"/>
-      <c r="F553" s="26"/>
-      <c r="G553" s="10"/>
-      <c r="J553" s="13"/>
-      <c r="K553" s="27"/>
-      <c r="L553" s="22"/>
-      <c r="M553" s="18"/>
-      <c r="N553" s="18"/>
-      <c r="O553" s="15"/>
-      <c r="P553" s="15"/>
-      <c r="Q553" s="16"/>
-    </row>
-    <row r="554" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D554" s="12"/>
-      <c r="E554" s="25"/>
-      <c r="F554" s="26"/>
-      <c r="G554" s="10"/>
-      <c r="J554" s="13"/>
-      <c r="K554" s="27"/>
-      <c r="L554" s="22"/>
-      <c r="M554" s="18"/>
-      <c r="N554" s="18"/>
-      <c r="O554" s="15"/>
-      <c r="P554" s="15"/>
-      <c r="Q554" s="16"/>
-    </row>
-    <row r="555" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D555" s="12"/>
-      <c r="E555" s="25"/>
-      <c r="F555" s="26"/>
-      <c r="G555" s="10"/>
-      <c r="J555" s="13"/>
-      <c r="K555" s="27"/>
-      <c r="L555" s="22"/>
-      <c r="M555" s="18"/>
-      <c r="N555" s="18"/>
-      <c r="O555" s="15"/>
-      <c r="P555" s="15"/>
-      <c r="Q555" s="16"/>
-    </row>
-    <row r="556" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D556" s="12"/>
-      <c r="E556" s="25"/>
-      <c r="F556" s="26"/>
-      <c r="G556" s="10"/>
-      <c r="J556" s="13"/>
-      <c r="K556" s="27"/>
-      <c r="L556" s="22"/>
-      <c r="M556" s="18"/>
-      <c r="N556" s="18"/>
-      <c r="O556" s="15"/>
-      <c r="P556" s="15"/>
-      <c r="Q556" s="16"/>
-    </row>
-    <row r="557" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D557" s="12"/>
-      <c r="E557" s="25"/>
-      <c r="F557" s="26"/>
-      <c r="G557" s="10"/>
-      <c r="J557" s="13"/>
-      <c r="K557" s="27"/>
-      <c r="L557" s="22"/>
-      <c r="M557" s="18"/>
-      <c r="N557" s="18"/>
-      <c r="O557" s="15"/>
-      <c r="P557" s="15"/>
-      <c r="Q557" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -39456,10 +42685,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>523</v>
+      </c>
+      <c r="B121" t="s">
         <v>524</v>
-      </c>
-      <c r="B121" t="s">
-        <v>525</v>
       </c>
       <c r="C121" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -39487,7 +42716,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B122" t="s">
         <v>208</v>
@@ -39523,10 +42752,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>528</v>
+      </c>
+      <c r="B123" t="s">
         <v>529</v>
-      </c>
-      <c r="B123" t="s">
-        <v>530</v>
       </c>
       <c r="C123" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -39559,10 +42788,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>530</v>
+      </c>
+      <c r="B124" t="s">
         <v>531</v>
-      </c>
-      <c r="B124" t="s">
-        <v>532</v>
       </c>
       <c r="C124" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -39595,10 +42824,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>532</v>
+      </c>
+      <c r="B125" t="s">
         <v>533</v>
-      </c>
-      <c r="B125" t="s">
-        <v>534</v>
       </c>
       <c r="C125" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -39631,7 +42860,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B126" t="s">
         <v>169</v>
@@ -39667,7 +42896,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B127" t="s">
         <v>82</v>
@@ -42475,10 +45704,10 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>521</v>
+      </c>
+      <c r="B205" t="s">
         <v>522</v>
-      </c>
-      <c r="B205" t="s">
-        <v>523</v>
       </c>
       <c r="C205" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -42511,10 +45740,10 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>523</v>
+      </c>
+      <c r="B206" t="s">
         <v>524</v>
-      </c>
-      <c r="B206" t="s">
-        <v>525</v>
       </c>
       <c r="C206" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -44450,10 +47679,10 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
+        <v>525</v>
+      </c>
+      <c r="B260" t="s">
         <v>526</v>
-      </c>
-      <c r="B260" t="s">
-        <v>527</v>
       </c>
       <c r="C260" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -45386,10 +48615,10 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
+        <v>518</v>
+      </c>
+      <c r="B286" t="s">
         <v>519</v>
-      </c>
-      <c r="B286" t="s">
-        <v>520</v>
       </c>
       <c r="C286" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -45425,7 +48654,7 @@
         <v>403</v>
       </c>
       <c r="B287" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C287" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -45458,10 +48687,10 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
+        <v>525</v>
+      </c>
+      <c r="B288" t="s">
         <v>526</v>
-      </c>
-      <c r="B288" t="s">
-        <v>527</v>
       </c>
       <c r="C288" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -45494,10 +48723,10 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
+        <v>537</v>
+      </c>
+      <c r="B289" t="s">
         <v>538</v>
-      </c>
-      <c r="B289" t="s">
-        <v>539</v>
       </c>
       <c r="C289" s="8" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -45530,7 +48759,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B290" t="s">
         <v>80</v>
